--- a/ShipCardGameCalcs.xlsx
+++ b/ShipCardGameCalcs.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26322"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA5DA40D-5905-4932-8B19-E2FC64ED40F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3CB0283-09D9-4255-AD72-C8700D867087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14415" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14415" windowHeight="12495" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
-    <sheet name="Comparison" sheetId="2" r:id="rId2"/>
+    <sheet name="Ships and Crew Details" sheetId="3" r:id="rId2"/>
+    <sheet name="Game Rules and Turn Example" sheetId="4" r:id="rId3"/>
+    <sheet name="Ideas" sheetId="6" r:id="rId4"/>
+    <sheet name="Card Details" sheetId="5" r:id="rId5"/>
+    <sheet name="Comparison" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="146">
   <si>
     <t>Ship Parameters</t>
   </si>
@@ -219,6 +223,279 @@
     </r>
   </si>
   <si>
+    <t>Possible Crew placed and able to tap</t>
+  </si>
+  <si>
+    <t>Hull</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>Damage per gun</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Turn</t>
+  </si>
+  <si>
+    <t>Crew Departments</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maneuverability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineering </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assualt </t>
+  </si>
+  <si>
+    <t>Points towards cards that draw from the deck and doing event cards</t>
+  </si>
+  <si>
+    <t>Points towards cards that affect the players ship movement</t>
+  </si>
+  <si>
+    <t>Points towards cards based around player crew</t>
+  </si>
+  <si>
+    <t>Points towards cards that improve players ship or hack enemy ship</t>
+  </si>
+  <si>
+    <t>Points towards cards based around enemy crew</t>
+  </si>
+  <si>
+    <t>Game Rules</t>
+  </si>
+  <si>
+    <t>When picking ships at start of turn player must have at least 1 ship that can have a Captain and players picked ships must equal the ship total game points</t>
+  </si>
+  <si>
+    <t>For example with 2000 ship total game points, player could pick 1 Cruiser (1500 points) and 1 Frigate (500 points), but cannot pick just 1 cruiser as just having 1 cruiser would be under 2000 points</t>
+  </si>
+  <si>
+    <t>Players can't see what ships the other player has picked until both have locked them in</t>
+  </si>
+  <si>
+    <t>Once players have picked their ships, they then start off by drawing two cards from their crew/leaders deck and 5 from their main deck</t>
+  </si>
+  <si>
+    <t>A player gets 1 free mulligan but if they choose to mulligan anymore times than that they reduce the amount of cards drawn from main deck by 1 each time. Down to a minimum of 1 card from their main deck and 2 from their leader deck</t>
+  </si>
+  <si>
+    <t>Any crew card placed cant be used to tap on first turn placed (unless card in play says otherwise)</t>
+  </si>
+  <si>
+    <t>Max player hand size is 6 (unless card in play says otherwise)</t>
+  </si>
+  <si>
+    <t>A crew /leader deck can only contain cards of Type Captain, Leuitenant and Crew Rank 1</t>
+  </si>
+  <si>
+    <t>The main deck has every other card</t>
+  </si>
+  <si>
+    <t>A player can only play 1 crew member and 1 Captain/Leuitenant per turn</t>
+  </si>
+  <si>
+    <t>On start of turn player can choose to either draw 2 cards from main deck, 2 cards from crew/leader deck or 1 from each.</t>
+  </si>
+  <si>
+    <t>On end of turn if player has more than Max player hand size they must discard cards down to max hand size</t>
+  </si>
+  <si>
+    <t>A ship can only hold x amount of crew members where x is equal to the ships service slots</t>
+  </si>
+  <si>
+    <t>A ship can only hold x amount of Captains where x is equal to ships Captains slots</t>
+  </si>
+  <si>
+    <t>A ship can only hold x amount of Leuitenant where x is equal to ships Leuitenant slots</t>
+  </si>
+  <si>
+    <t>Ship Upgrade cards can only be used on ships where at least one crew member used is on targeted ship</t>
+  </si>
+  <si>
+    <t>Cards with Target Owned Ship can only be used on ships where at least one crew member used is on targeted ship</t>
+  </si>
+  <si>
+    <t>At the start of players turn all their cards are untapped (unless card in play says otherwise)</t>
+  </si>
+  <si>
+    <t>A crew type card has a 1 to 1 relationship when being tapped to a gun slot. Meaning you can't tap more than 1 crew card type to the same gun slot on the same turn.</t>
+  </si>
+  <si>
+    <t>When crew type card is being used to a gun slot, it will deal damage to the players ship shield, if the players ship shield is at 0 or deactivated then it will deal damage to the players ship hull</t>
+  </si>
+  <si>
+    <t>Once a players ship hull reaches 0 it is destroyed and all cards part of that ship are sent to cards deck junkyard e.g crew types and ship upgrades etc</t>
+  </si>
+  <si>
+    <t>Once a players ship is destroyed remove the ship card from play</t>
+  </si>
+  <si>
+    <t>Once all of a players ship is destroyed they lose and are out of the game</t>
+  </si>
+  <si>
+    <t>When only 1 player remains in the game they win</t>
+  </si>
+  <si>
+    <t>If player wants to draw from crew/leader deck and there are no cards left in players crew/leader deck then shuffle are crew/leader deck cards from junkyard back to that deck spot</t>
+  </si>
+  <si>
+    <t>If there are no cards left in the main deck during the draw phase that player loses and is out of the game</t>
+  </si>
+  <si>
+    <t>A player can only have 1 admiral card in play on their side of the battlefield</t>
+  </si>
+  <si>
+    <t>Both the main deck and crew/leader deck have its own assigned junkyard where certain cards go once played</t>
+  </si>
+  <si>
+    <t>Controlled deck is the battlefield conditions which affects the battlefield</t>
+  </si>
+  <si>
+    <t>On the board everyone know you go to sector you get a chance card which for example would increase the amount of service a turn etc</t>
+  </si>
+  <si>
+    <t>But at that sector you have to draw from the control deck</t>
+  </si>
+  <si>
+    <t>There will be a "galaxy map" where each move to a system is a player turn. These turns also count in card battles.</t>
+  </si>
+  <si>
+    <t>For example the turn order is Player 1, Player 2 and then player 3</t>
+  </si>
+  <si>
+    <t>Player 1 decides to use there movement to movement into a system space on galaxy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player 2 starts there turn afterwards and moves in same system on galaxy map to initiate card battle. Both of these players would run the initialise phase of card battle aka draw starting hand. Player 2 would start a turn </t>
+  </si>
+  <si>
+    <t>But now its player 3 turn on galaxy map where they can pick to move into that same system space or move somewhere else. If they join then thay can start battling</t>
+  </si>
+  <si>
+    <t>Afterwards it would thyen go to player 1 to their card battle screen turn</t>
+  </si>
+  <si>
+    <t>Note if a player has a ship not in a system in battle it is not part of the battle meaning they can use that ship to move on the "galaxy map"</t>
+  </si>
+  <si>
+    <t>Card Types</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Mechanics</t>
+  </si>
+  <si>
+    <t>Crew</t>
+  </si>
+  <si>
+    <t>Crew cards are the only way to be able to play various other cards and some other crew cards. This is defined by the cards cost. Some crew cards have other abilities and can be used to attack enemy ships.</t>
+  </si>
+  <si>
+    <t>A crew card can only be played to fill A ships service slot. Only one crew card can be played per turn.</t>
+  </si>
+  <si>
+    <t>On tap a crew type card can be used to either provide a given department point used to play other cards or activate card abilities. Amount and Department point/s are defined on the card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any crew card can be tapped and assigned to their ships gun slot and shoot an enemy target ship </t>
+  </si>
+  <si>
+    <t>Crew cards will have a given Rank, Rank 1 can be played for free to a ship. Ranks higher than 1 will require a cost to be played</t>
+  </si>
+  <si>
+    <t>Captain/Leuitenant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captain and Leuitenant cards will have their own unique benefits and abilities to their assigned ship. </t>
+  </si>
+  <si>
+    <t>A Captain and Leuitenant card can only be played to fill a Captain or Leuitenant slot. Only one Captain or Leuitenant card can be played per turn.</t>
+  </si>
+  <si>
+    <t>A captain and leuitenant triggered and payed abilities can only be used for their assigned ship or for ships that can't have a captain or leuitenant</t>
+  </si>
+  <si>
+    <t>Admiral</t>
+  </si>
+  <si>
+    <t>A admiral card is used to provide special abilities and affects to the whole battlefield</t>
+  </si>
+  <si>
+    <t>There can only be one admiral card in play at any one time on your side of the battlefield as long as you can pay their cost</t>
+  </si>
+  <si>
+    <t>Admiral cards can only be played on your turn</t>
+  </si>
+  <si>
+    <t>Research Project</t>
+  </si>
+  <si>
+    <t>Research project cards are ways for the player to potentially change the tide of battle with either basic card drawing to removing a ships upgrade.</t>
+  </si>
+  <si>
+    <t>You can play as many Research Project cards as long you can pay their cost</t>
+  </si>
+  <si>
+    <t>Research Project cards can only be played on your turn</t>
+  </si>
+  <si>
+    <t>Ship Upgrade</t>
+  </si>
+  <si>
+    <t>Ship Upgrade cards are used to attach to a target players ship to improve or deteriorate it</t>
+  </si>
+  <si>
+    <t>You can play as manyShip Upgrade cards as long you can pay their cost</t>
+  </si>
+  <si>
+    <t>Ship Upgrade cards can only be played on your turn</t>
+  </si>
+  <si>
+    <t>You can't move a ship upgrade from one ship to another once attached</t>
+  </si>
+  <si>
+    <t>Ship upgrades can be destroyed or temporarily removed from the attached ship by other cards</t>
+  </si>
+  <si>
+    <t>Tactic</t>
+  </si>
+  <si>
+    <t>Tactic cards are used to be played as reactions at any point in the game</t>
+  </si>
+  <si>
+    <t>You can play a many Tactic cards as long as you can pay their cost</t>
+  </si>
+  <si>
+    <t>Tactic cards can be played on either yours or opponents turn</t>
+  </si>
+  <si>
+    <t>On Going Event</t>
+  </si>
+  <si>
+    <t>On Going Event cards are used to apply a effect that happens each turn (either each player turn, each targeted players turn)</t>
+  </si>
+  <si>
+    <t>You can play a many On Going Event cards as long as you can pay their cost</t>
+  </si>
+  <si>
+    <t>On Going Event cards can only be played on your turn</t>
+  </si>
+  <si>
     <t>Player A</t>
   </si>
   <si>
@@ -235,16 +512,13 @@
   </si>
   <si>
     <t>No. of</t>
-  </si>
-  <si>
-    <t>Crew</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,8 +555,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,8 +587,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -358,11 +650,221 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -405,63 +907,200 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="134">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="140">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1707,6 +2346,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1716,6 +2358,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1725,6 +2370,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1734,6 +2382,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1743,6 +2394,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1752,66 +2406,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1922,13 +2517,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="TableStyleMedium2 2" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="133"/>
-      <tableStyleElement type="headerRow" dxfId="132"/>
-      <tableStyleElement type="totalRow" dxfId="131"/>
-      <tableStyleElement type="firstColumn" dxfId="130"/>
-      <tableStyleElement type="lastColumn" dxfId="129"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="128"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="127"/>
+      <tableStyleElement type="wholeTable" dxfId="139"/>
+      <tableStyleElement type="headerRow" dxfId="138"/>
+      <tableStyleElement type="totalRow" dxfId="137"/>
+      <tableStyleElement type="firstColumn" dxfId="136"/>
+      <tableStyleElement type="lastColumn" dxfId="135"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="134"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="133"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1943,194 +2538,204 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TblBattlefieldFlt" displayName="TblBattlefieldFlt" ref="A9:G15" totalsRowCount="1" headerRowDxfId="126" dataDxfId="125" totalsRowDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TblBattlefieldFlt" displayName="TblBattlefieldFlt" ref="A9:G15" totalsRowCount="1" headerRowDxfId="132" dataDxfId="131" totalsRowDxfId="130">
   <autoFilter ref="A9:G14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="122" totalsRowDxfId="123"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="120" totalsRowDxfId="121"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="118" totalsRowDxfId="119"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="116" totalsRowDxfId="117"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="114" totalsRowDxfId="115"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="112" totalsRowDxfId="113"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="111"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="128"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="126"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="123" totalsRowDxfId="124"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="121" totalsRowDxfId="122"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="119" totalsRowDxfId="120"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="TblFltCrewSizes" displayName="TblFltCrewSizes" ref="A17:G20" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="TblFltCrewSizes" displayName="TblFltCrewSizes" ref="A17:G21" totalsRowCount="1" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A17:G20" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Option" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="A" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="B" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="C" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="D" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="E" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="F" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="12" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="A" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="11">
+      <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[A])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="B" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="9">
+      <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[B])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="C" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="7">
+      <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[C])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="D" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="5">
+      <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[D])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="E" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="3">
+      <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[E])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="TblFleetShipValues" displayName="TblFleetShipValues" ref="J9:Q15" totalsRowCount="1" headerRowDxfId="109" dataDxfId="108" totalsRowDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="TblFleetShipValues" displayName="TblFleetShipValues" ref="J9:Q15" totalsRowCount="1" headerRowDxfId="116" dataDxfId="115" totalsRowDxfId="114">
   <autoFilter ref="J9:Q14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Option" totalsRowLabel="Total " dataDxfId="105" totalsRowDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="103" totalsRowDxfId="104">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Option" totalsRowLabel="Total " dataDxfId="112" totalsRowDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="111">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH(TblFleetShipValues[[#This Row],[Option]],TblBattlefieldFlt[Option],0),MATCH(TblFleetShipValues[[#Headers],[A]],TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipPoints[Points],MATCH(TblFleetShipValues[[#This Row],[Option]],TblShipPoints[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="101" totalsRowDxfId="102">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="109">
       <calculatedColumnFormula>C10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="99" totalsRowDxfId="100">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="106" totalsRowDxfId="107">
       <calculatedColumnFormula>D10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="97" totalsRowDxfId="98">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="104" totalsRowDxfId="105">
       <calculatedColumnFormula>E10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="95" totalsRowDxfId="96">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="103">
       <calculatedColumnFormula>F10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="93" totalsRowDxfId="94">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="100" totalsRowDxfId="101">
       <calculatedColumnFormula>G10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Name" dataDxfId="91" totalsRowDxfId="92"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Name" dataDxfId="98" totalsRowDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TblRoleControlValues" displayName="TblRoleControlValues" ref="N2:Q3" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TblRoleControlValues" displayName="TblRoleControlValues" ref="N2:Q3" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
   <autoFilter ref="N2:Q3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Generic" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Service" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Lieutenant" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Captain" dataDxfId="85"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Generic" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Service" dataDxfId="94"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Lieutenant" dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Captain" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TblAdjFleetRolesValues" displayName="TblAdjFleetRolesValues" ref="A23:H29" totalsRowCount="1" headerRowDxfId="84" dataDxfId="83" totalsRowDxfId="82">
-  <autoFilter ref="A23:H28" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TblAdjFleetRolesValues" displayName="TblAdjFleetRolesValues" ref="A24:H30" totalsRowCount="1" headerRowDxfId="91" dataDxfId="90" totalsRowDxfId="89">
+  <autoFilter ref="A24:H29" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="80" totalsRowDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="78" totalsRowDxfId="79">
-      <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A24,TblBattlefieldFlt[Option],0),MATCH(B$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A24,TblShipCrew[Ships],0)))</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="87" totalsRowDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="85" totalsRowDxfId="86">
+      <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(B$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="76" totalsRowDxfId="77">
-      <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A24,TblBattlefieldFlt[Option],0),MATCH(C$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A24,TblShipCrew[Ships],0)))</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="84">
+      <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(C$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="74" totalsRowDxfId="75">
-      <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A24,TblBattlefieldFlt[Option],0),MATCH(D$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A24,TblShipCrew[Ships],0)))</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="82">
+      <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(D$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="72" totalsRowDxfId="73">
-      <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A24,TblBattlefieldFlt[Option],0),MATCH(E$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A24,TblShipCrew[Ships],0)))</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="80">
+      <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(E$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="70" totalsRowDxfId="71">
-      <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A24,TblBattlefieldFlt[Option],0),MATCH(F$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A24,TblShipCrew[Ships],0)))</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="78">
+      <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(F$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="68" totalsRowDxfId="69">
-      <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A24,TblBattlefieldFlt[Option],0),MATCH(G$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A24,TblShipCrew[Ships],0)))</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="76">
+      <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(G$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Name" dataDxfId="66" totalsRowDxfId="67"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Name" dataDxfId="73" totalsRowDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="TblCombinedAdjFltValues" displayName="TblCombinedAdjFltValues" ref="A31:G42" totalsRowCount="1" headerRowDxfId="65">
-  <autoFilter ref="A31:G41" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="TblCombinedAdjFltValues" displayName="TblCombinedAdjFltValues" ref="A32:G43" totalsRowCount="1" headerRowDxfId="72">
+  <autoFilter ref="A32:G42" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Option" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="64">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="70" totalsRowDxfId="71">
       <calculatedColumnFormula>K10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="D" totalsRowFunction="sum" totalsRowDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="E" totalsRowFunction="sum" totalsRowDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="F" totalsRowFunction="sum" totalsRowDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="68" totalsRowDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="D" totalsRowFunction="sum" totalsRowDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="E" totalsRowFunction="sum" totalsRowDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="F" totalsRowFunction="sum" totalsRowDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="TblGenFleetRolesValues" displayName="TblGenFleetRolesValues" ref="J23:Q29" totalsRowCount="1" headerRowDxfId="55" dataDxfId="54">
-  <autoFilter ref="J23:Q28" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="TblGenFleetRolesValues" displayName="TblGenFleetRolesValues" ref="J24:Q30" totalsRowCount="1" headerRowDxfId="62" dataDxfId="61">
+  <autoFilter ref="J24:Q29" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="52">
-      <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J24,TblBattlefieldFlt[Option],0),MATCH(K$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J24,TblShipCrew[Ships],0)))</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="59">
+      <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(K$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="50">
-      <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J24,TblBattlefieldFlt[Option],0),MATCH(L$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J24,TblShipCrew[Ships],0)))</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="57">
+      <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(L$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="48">
-      <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J24,TblBattlefieldFlt[Option],0),MATCH(M$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J24,TblShipCrew[Ships],0)))</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="55">
+      <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(M$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="46">
-      <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J24,TblBattlefieldFlt[Option],0),MATCH(N$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J24,TblShipCrew[Ships],0)))</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="53">
+      <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(N$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="44">
-      <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J24,TblBattlefieldFlt[Option],0),MATCH(O$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J24,TblShipCrew[Ships],0)))</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="51">
+      <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(O$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="42">
-      <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J24,TblBattlefieldFlt[Option],0),MATCH(P$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J24,TblShipCrew[Ships],0)))</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="49">
+      <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(P$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Name" dataDxfId="39" totalsRowDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Name" dataDxfId="46" totalsRowDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="TblCombinedGenFltValues" displayName="TblCombinedGenFltValues" ref="J31:P42" totalsRowCount="1" headerRowDxfId="38">
-  <autoFilter ref="J31:P41" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="TblCombinedGenFltValues" displayName="TblCombinedGenFltValues" ref="J32:P43" totalsRowCount="1" headerRowDxfId="45">
+  <autoFilter ref="J32:P42" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Option" totalsRowLabel="Total" totalsRowDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="36">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Option" totalsRowLabel="Total" totalsRowDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="43">
       <calculatedColumnFormula>T10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="D" totalsRowFunction="sum" totalsRowDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="E" totalsRowFunction="sum" totalsRowDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="F" totalsRowFunction="sum" totalsRowDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="D" totalsRowFunction="sum" totalsRowDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="E" totalsRowFunction="sum" totalsRowDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="F" totalsRowFunction="sum" totalsRowDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="TblShipCrew" displayName="TblShipCrew" ref="D2:L7" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="TblShipCrew" displayName="TblShipCrew" ref="D2:L7" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" headerRowBorderDxfId="31" tableBorderDxfId="32">
   <autoFilter ref="D2:L7" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Ships" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Service" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Lieutenant" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Captain" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Service Value" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Ships" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Service" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Lieutenant" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Captain" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Service Value" dataDxfId="26">
       <calculatedColumnFormula>TblShipCrew[[#This Row],[Service]]*TblRoleControlValues[Service]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Lt Value" dataDxfId="18">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Lt Value" dataDxfId="25">
       <calculatedColumnFormula>TblShipCrew[[#This Row],[Lieutenant]]*TblRoleControlValues[Lieutenant]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Cpt Value" dataDxfId="17">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Cpt Value" dataDxfId="24">
       <calculatedColumnFormula>TblShipCrew[[#This Row],[Captain]]*TblRoleControlValues[Captain]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Adjusted" dataDxfId="16">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Adjusted" dataDxfId="23">
       <calculatedColumnFormula>SUM(TblShipCrew[[#This Row],[Service Value]:[Cpt Value]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="Generic (500)" dataDxfId="15">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="Generic (500)" dataDxfId="22">
       <calculatedColumnFormula>SUM(TblShipCrew[[#This Row],[Service]:[Captain]])*TblRoleControlValues[Generic]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2139,11 +2744,11 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="TblShipPoints" displayName="TblShipPoints" ref="A2:B7" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="TblShipPoints" displayName="TblShipPoints" ref="A2:B7" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
   <autoFilter ref="A2:B7" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Ships" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Points" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Ships" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Points" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2192,7 +2797,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2244,7 +2849,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2446,10 +3051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2462,9 +3067,11 @@
     <col min="11" max="16" width="15.42578125" customWidth="1"/>
     <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.5703125" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27" customWidth="1"/>
+    <col min="20" max="20" width="22.85546875" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" customWidth="1"/>
+    <col min="22" max="22" width="22.85546875" customWidth="1"/>
+    <col min="23" max="23" width="18" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2544,33 +3151,33 @@
         <v>13</v>
       </c>
       <c r="E3" s="11">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F3" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
         <f>TblShipCrew[[#This Row],[Service]]*TblRoleControlValues[Service]</f>
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="I3" s="1">
         <f>TblShipCrew[[#This Row],[Lieutenant]]*TblRoleControlValues[Lieutenant]</f>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J3" s="1">
         <f>TblShipCrew[[#This Row],[Captain]]*TblRoleControlValues[Captain]</f>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K3" s="1">
         <f>SUM(TblShipCrew[[#This Row],[Service Value]:[Cpt Value]])</f>
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L3" s="1">
         <f>SUM(TblShipCrew[[#This Row],[Service]:[Captain]])*TblRoleControlValues[Generic]</f>
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="N3" s="1">
         <v>500</v>
@@ -2597,7 +3204,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4" s="11">
         <v>2</v>
@@ -2607,7 +3214,7 @@
       </c>
       <c r="H4" s="1">
         <f>TblShipCrew[[#This Row],[Service]]*TblRoleControlValues[Service]</f>
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="I4" s="1">
         <f>TblShipCrew[[#This Row],[Lieutenant]]*TblRoleControlValues[Lieutenant]</f>
@@ -2619,11 +3226,11 @@
       </c>
       <c r="K4" s="1">
         <f>SUM(TblShipCrew[[#This Row],[Service Value]:[Cpt Value]])</f>
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="L4" s="1">
         <f>SUM(TblShipCrew[[#This Row],[Service]:[Captain]])*TblRoleControlValues[Generic]</f>
-        <v>3500</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2638,7 +3245,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" s="11">
         <v>1</v>
@@ -2648,7 +3255,7 @@
       </c>
       <c r="H5" s="1">
         <f>TblShipCrew[[#This Row],[Service]]*TblRoleControlValues[Service]</f>
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I5" s="1">
         <f>TblShipCrew[[#This Row],[Lieutenant]]*TblRoleControlValues[Lieutenant]</f>
@@ -2660,11 +3267,11 @@
       </c>
       <c r="K5" s="1">
         <f>SUM(TblShipCrew[[#This Row],[Service Value]:[Cpt Value]])</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L5" s="1">
         <f>SUM(TblShipCrew[[#This Row],[Service]:[Captain]])*TblRoleControlValues[Generic]</f>
-        <v>2500</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2720,7 +3327,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2730,7 +3337,7 @@
       </c>
       <c r="H7" s="1">
         <f>TblShipCrew[[#This Row],[Service]]*TblRoleControlValues[Service]</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I7" s="1">
         <f>TblShipCrew[[#This Row],[Lieutenant]]*TblRoleControlValues[Lieutenant]</f>
@@ -2742,11 +3349,11 @@
       </c>
       <c r="K7" s="1">
         <f>SUM(TblShipCrew[[#This Row],[Service Value]:[Cpt Value]])</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(TblShipCrew[[#This Row],[Service]:[Captain]])*TblRoleControlValues[Generic]</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3009,14 +3616,14 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G14" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H14" s="1"/>
       <c r="J14" t="s">
@@ -3032,7 +3639,7 @@
       </c>
       <c r="M14" s="1">
         <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH(TblFleetShipValues[[#This Row],[Option]],TblBattlefieldFlt[Option],0),MATCH(TblFleetShipValues[[#Headers],[C]],TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipPoints[Points],MATCH(TblFleetShipValues[[#This Row],[Option]],TblShipPoints[Ships],0)))</f>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="N14" s="1">
         <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH(TblFleetShipValues[[#This Row],[Option]],TblBattlefieldFlt[Option],0),MATCH(TblFleetShipValues[[#Headers],[D]],TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipPoints[Points],MATCH(TblFleetShipValues[[#This Row],[Option]],TblShipPoints[Ships],0)))</f>
@@ -3040,11 +3647,11 @@
       </c>
       <c r="O14" s="1">
         <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH(TblFleetShipValues[[#This Row],[Option]],TblBattlefieldFlt[Option],0),MATCH(TblFleetShipValues[[#Headers],[E]],TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipPoints[Points],MATCH(TblFleetShipValues[[#This Row],[Option]],TblShipPoints[Ships],0)))</f>
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="P14" s="1">
         <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH(TblFleetShipValues[[#This Row],[Option]],TblBattlefieldFlt[Option],0),MATCH(TblFleetShipValues[[#Headers],[F]],TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipPoints[Points],MATCH(TblFleetShipValues[[#This Row],[Option]],TblShipPoints[Ships],0)))</f>
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>32</v>
@@ -3064,7 +3671,7 @@
       </c>
       <c r="D15" s="1">
         <f>SUBTOTAL(109,TblBattlefieldFlt[C])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1">
         <f>SUBTOTAL(109,TblBattlefieldFlt[D])</f>
@@ -3072,11 +3679,11 @@
       </c>
       <c r="F15" s="1">
         <f>SUBTOTAL(109,TblBattlefieldFlt[E])</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G15" s="1">
         <f>SUBTOTAL(109,TblBattlefieldFlt[F])</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J15" t="s">
         <v>34</v>
@@ -3091,7 +3698,7 @@
       </c>
       <c r="M15" s="1">
         <f>SUBTOTAL(109,TblFleetShipValues[C])</f>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N15" s="1">
         <f>SUBTOTAL(109,TblFleetShipValues[D])</f>
@@ -3099,11 +3706,11 @@
       </c>
       <c r="O15" s="1">
         <f>SUBTOTAL(109,TblFleetShipValues[E])</f>
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P15" s="1">
         <f>SUBTOTAL(109,TblFleetShipValues[F])</f>
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="Q15" s="1"/>
     </row>
@@ -3164,27 +3771,27 @@
       </c>
       <c r="B18" s="1">
         <f>SUMPRODUCT(TblBattlefieldFlt[A],TblShipCrew[Service])</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1">
         <f>SUMPRODUCT(TblBattlefieldFlt[B],TblShipCrew[Service])</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1">
         <f>SUMPRODUCT(TblBattlefieldFlt[C],TblShipCrew[Service])</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1">
         <f>SUMPRODUCT(TblBattlefieldFlt[D],TblShipCrew[Service])</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1">
         <f>SUMPRODUCT(TblBattlefieldFlt[E],TblShipCrew[Service])</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G18" s="1">
         <f>SUMPRODUCT(TblBattlefieldFlt[F],TblShipCrew[Service])</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>37</v>
@@ -3203,7 +3810,7 @@
       </c>
       <c r="B19" s="1">
         <f>SUMPRODUCT(TblBattlefieldFlt[A],TblShipCrew[Lieutenant])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1">
         <f>SUMPRODUCT(TblBattlefieldFlt[B],TblShipCrew[Lieutenant])</f>
@@ -3242,7 +3849,7 @@
       </c>
       <c r="B20" s="1">
         <f>SUMPRODUCT(TblBattlefieldFlt[A],TblShipCrew[Captain])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1">
         <f>SUMPRODUCT(TblBattlefieldFlt[B],TblShipCrew[Captain])</f>
@@ -3276,1196 +3883,1233 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
+      <c r="A21" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="41">
+        <f>SUBTOTAL(109,TblFltCrewSizes[A])</f>
+        <v>15</v>
+      </c>
+      <c r="C21" s="41">
+        <f>SUBTOTAL(109,TblFltCrewSizes[B])</f>
+        <v>15</v>
+      </c>
+      <c r="D21" s="41">
+        <f>SUBTOTAL(109,TblFltCrewSizes[C])</f>
+        <v>16</v>
+      </c>
+      <c r="E21" s="41">
+        <f>SUBTOTAL(109,TblFltCrewSizes[D])</f>
+        <v>14</v>
+      </c>
+      <c r="F21" s="41">
+        <f>SUBTOTAL(109,TblFltCrewSizes[E])</f>
+        <v>16</v>
+      </c>
+      <c r="G21" s="41">
+        <f>SUBTOTAL(109,TblFltCrewSizes[F])</f>
+        <v>17</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="19" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="8" t="s">
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B24" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D24" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E24" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="8" t="s">
+      <c r="I24" s="4"/>
+      <c r="J24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K24" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="14" t="s">
+      <c r="L24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M23" s="14" t="s">
+      <c r="M24" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N23" s="14" t="s">
+      <c r="N24" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="14" t="s">
+      <c r="O24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="P23" s="14" t="s">
+      <c r="P24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q23" s="14" t="s">
+      <c r="Q24" s="14" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A24,TblBattlefieldFlt[Option],0),MATCH(B$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A24,TblShipCrew[Ships],0)))</f>
-        <v>1600</v>
-      </c>
-      <c r="C24" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A24,TblBattlefieldFlt[Option],0),MATCH(C$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A24,TblShipCrew[Ships],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A24,TblBattlefieldFlt[Option],0),MATCH(D$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A24,TblShipCrew[Ships],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A24,TblBattlefieldFlt[Option],0),MATCH(E$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A24,TblShipCrew[Ships],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A24,TblBattlefieldFlt[Option],0),MATCH(F$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A24,TblShipCrew[Ships],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A24,TblBattlefieldFlt[Option],0),MATCH(G$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A24,TblShipCrew[Ships],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J24,TblBattlefieldFlt[Option],0),MATCH(K$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J24,TblShipCrew[Ships],0)))</f>
-        <v>5000</v>
-      </c>
-      <c r="L24" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J24,TblBattlefieldFlt[Option],0),MATCH(L$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J24,TblShipCrew[Ships],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J24,TblBattlefieldFlt[Option],0),MATCH(M$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J24,TblShipCrew[Ships],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J24,TblBattlefieldFlt[Option],0),MATCH(N$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J24,TblShipCrew[Ships],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J24,TblBattlefieldFlt[Option],0),MATCH(O$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J24,TblShipCrew[Ships],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J24,TblBattlefieldFlt[Option],0),MATCH(P$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J24,TblShipCrew[Ships],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(B$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</f>
-        <v>0</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(B$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</f>
+        <v>2000</v>
       </c>
       <c r="C25" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(C$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</f>
-        <v>1100</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(C$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</f>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(D$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</f>
-        <v>1100</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(D$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</f>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(E$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</f>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(E$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</f>
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(F$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</f>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(F$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</f>
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(G$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</f>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(G$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</f>
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K25" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(K$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</f>
-        <v>0</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(K$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</f>
+        <v>7500</v>
       </c>
       <c r="L25" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(L$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</f>
-        <v>3500</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(L$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</f>
+        <v>0</v>
       </c>
       <c r="M25" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(M$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</f>
-        <v>3500</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(M$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</f>
+        <v>0</v>
       </c>
       <c r="N25" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(N$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</f>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(N$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</f>
         <v>0</v>
       </c>
       <c r="O25" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(O$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</f>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(O$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</f>
         <v>0</v>
       </c>
       <c r="P25" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(P$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</f>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(P$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</f>
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A26,TblBattlefieldFlt[Option],0),MATCH(B$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A26,TblShipCrew[Ships],0)))</f>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A26,TblBattlefieldFlt[Option],0),MATCH(B$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A26,TblShipCrew[Ships],0)))</f>
         <v>0</v>
       </c>
       <c r="C26" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A26,TblBattlefieldFlt[Option],0),MATCH(C$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A26,TblShipCrew[Ships],0)))</f>
-        <v>0</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A26,TblBattlefieldFlt[Option],0),MATCH(C$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A26,TblShipCrew[Ships],0)))</f>
+        <v>1500</v>
       </c>
       <c r="D26" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A26,TblBattlefieldFlt[Option],0),MATCH(D$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A26,TblShipCrew[Ships],0)))</f>
-        <v>0</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A26,TblBattlefieldFlt[Option],0),MATCH(D$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A26,TblShipCrew[Ships],0)))</f>
+        <v>1500</v>
       </c>
       <c r="E26" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A26,TblBattlefieldFlt[Option],0),MATCH(E$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A26,TblShipCrew[Ships],0)))</f>
-        <v>1600</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A26,TblBattlefieldFlt[Option],0),MATCH(E$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A26,TblShipCrew[Ships],0)))</f>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A26,TblBattlefieldFlt[Option],0),MATCH(F$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A26,TblShipCrew[Ships],0)))</f>
-        <v>800</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A26,TblBattlefieldFlt[Option],0),MATCH(F$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A26,TblShipCrew[Ships],0)))</f>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A26,TblBattlefieldFlt[Option],0),MATCH(G$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A26,TblShipCrew[Ships],0)))</f>
-        <v>800</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A26,TblBattlefieldFlt[Option],0),MATCH(G$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A26,TblShipCrew[Ships],0)))</f>
+        <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K26" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J26,TblBattlefieldFlt[Option],0),MATCH(K$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J26,TblShipCrew[Ships],0)))</f>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J26,TblBattlefieldFlt[Option],0),MATCH(K$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J26,TblShipCrew[Ships],0)))</f>
         <v>0</v>
       </c>
       <c r="L26" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J26,TblBattlefieldFlt[Option],0),MATCH(L$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J26,TblShipCrew[Ships],0)))</f>
-        <v>0</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J26,TblBattlefieldFlt[Option],0),MATCH(L$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J26,TblShipCrew[Ships],0)))</f>
+        <v>5500</v>
       </c>
       <c r="M26" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J26,TblBattlefieldFlt[Option],0),MATCH(M$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J26,TblShipCrew[Ships],0)))</f>
-        <v>0</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J26,TblBattlefieldFlt[Option],0),MATCH(M$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J26,TblShipCrew[Ships],0)))</f>
+        <v>5500</v>
       </c>
       <c r="N26" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J26,TblBattlefieldFlt[Option],0),MATCH(N$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J26,TblShipCrew[Ships],0)))</f>
-        <v>5000</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J26,TblBattlefieldFlt[Option],0),MATCH(N$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J26,TblShipCrew[Ships],0)))</f>
+        <v>0</v>
       </c>
       <c r="O26" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J26,TblBattlefieldFlt[Option],0),MATCH(O$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J26,TblShipCrew[Ships],0)))</f>
-        <v>2500</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J26,TblBattlefieldFlt[Option],0),MATCH(O$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J26,TblShipCrew[Ships],0)))</f>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J26,TblBattlefieldFlt[Option],0),MATCH(P$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J26,TblShipCrew[Ships],0)))</f>
-        <v>2500</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J26,TblBattlefieldFlt[Option],0),MATCH(P$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J26,TblShipCrew[Ships],0)))</f>
+        <v>0</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A27,TblBattlefieldFlt[Option],0),MATCH(B$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A27,TblShipCrew[Ships],0)))</f>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A27,TblBattlefieldFlt[Option],0),MATCH(B$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A27,TblShipCrew[Ships],0)))</f>
         <v>0</v>
       </c>
       <c r="C27" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A27,TblBattlefieldFlt[Option],0),MATCH(C$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A27,TblShipCrew[Ships],0)))</f>
-        <v>500</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A27,TblBattlefieldFlt[Option],0),MATCH(C$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A27,TblShipCrew[Ships],0)))</f>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A27,TblBattlefieldFlt[Option],0),MATCH(D$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A27,TblShipCrew[Ships],0)))</f>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A27,TblBattlefieldFlt[Option],0),MATCH(D$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A27,TblShipCrew[Ships],0)))</f>
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A27,TblBattlefieldFlt[Option],0),MATCH(E$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A27,TblShipCrew[Ships],0)))</f>
-        <v>0</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A27,TblBattlefieldFlt[Option],0),MATCH(E$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A27,TblShipCrew[Ships],0)))</f>
+        <v>2000</v>
       </c>
       <c r="F27" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A27,TblBattlefieldFlt[Option],0),MATCH(F$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A27,TblShipCrew[Ships],0)))</f>
-        <v>500</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A27,TblBattlefieldFlt[Option],0),MATCH(F$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A27,TblShipCrew[Ships],0)))</f>
+        <v>1000</v>
       </c>
       <c r="G27" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A27,TblBattlefieldFlt[Option],0),MATCH(G$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A27,TblShipCrew[Ships],0)))</f>
-        <v>0</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A27,TblBattlefieldFlt[Option],0),MATCH(G$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A27,TblShipCrew[Ships],0)))</f>
+        <v>1000</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K27" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J27,TblBattlefieldFlt[Option],0),MATCH(K$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J27,TblShipCrew[Ships],0)))</f>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J27,TblBattlefieldFlt[Option],0),MATCH(K$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J27,TblShipCrew[Ships],0)))</f>
         <v>0</v>
       </c>
       <c r="L27" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J27,TblBattlefieldFlt[Option],0),MATCH(L$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J27,TblShipCrew[Ships],0)))</f>
-        <v>2000</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J27,TblBattlefieldFlt[Option],0),MATCH(L$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J27,TblShipCrew[Ships],0)))</f>
+        <v>0</v>
       </c>
       <c r="M27" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J27,TblBattlefieldFlt[Option],0),MATCH(M$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J27,TblShipCrew[Ships],0)))</f>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J27,TblBattlefieldFlt[Option],0),MATCH(M$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J27,TblShipCrew[Ships],0)))</f>
         <v>0</v>
       </c>
       <c r="N27" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J27,TblBattlefieldFlt[Option],0),MATCH(N$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J27,TblShipCrew[Ships],0)))</f>
-        <v>0</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J27,TblBattlefieldFlt[Option],0),MATCH(N$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J27,TblShipCrew[Ships],0)))</f>
+        <v>7000</v>
       </c>
       <c r="O27" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J27,TblBattlefieldFlt[Option],0),MATCH(O$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J27,TblShipCrew[Ships],0)))</f>
-        <v>2000</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J27,TblBattlefieldFlt[Option],0),MATCH(O$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J27,TblShipCrew[Ships],0)))</f>
+        <v>3500</v>
       </c>
       <c r="P27" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J27,TblBattlefieldFlt[Option],0),MATCH(P$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J27,TblShipCrew[Ships],0)))</f>
-        <v>0</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J27,TblBattlefieldFlt[Option],0),MATCH(P$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J27,TblShipCrew[Ships],0)))</f>
+        <v>3500</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A28,TblBattlefieldFlt[Option],0),MATCH(B$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A28,TblShipCrew[Ships],0)))</f>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A28,TblBattlefieldFlt[Option],0),MATCH(B$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A28,TblShipCrew[Ships],0)))</f>
         <v>0</v>
       </c>
       <c r="C28" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A28,TblBattlefieldFlt[Option],0),MATCH(C$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A28,TblShipCrew[Ships],0)))</f>
-        <v>0</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A28,TblBattlefieldFlt[Option],0),MATCH(C$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A28,TblShipCrew[Ships],0)))</f>
+        <v>500</v>
       </c>
       <c r="D28" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A28,TblBattlefieldFlt[Option],0),MATCH(D$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A28,TblShipCrew[Ships],0)))</f>
-        <v>600</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A28,TblBattlefieldFlt[Option],0),MATCH(D$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A28,TblShipCrew[Ships],0)))</f>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A28,TblBattlefieldFlt[Option],0),MATCH(E$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A28,TblShipCrew[Ships],0)))</f>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A28,TblBattlefieldFlt[Option],0),MATCH(E$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A28,TblShipCrew[Ships],0)))</f>
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A28,TblBattlefieldFlt[Option],0),MATCH(F$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A28,TblShipCrew[Ships],0)))</f>
-        <v>400</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A28,TblBattlefieldFlt[Option],0),MATCH(F$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A28,TblShipCrew[Ships],0)))</f>
+        <v>500</v>
       </c>
       <c r="G28" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A28,TblBattlefieldFlt[Option],0),MATCH(G$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A28,TblShipCrew[Ships],0)))</f>
-        <v>1000</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A28,TblBattlefieldFlt[Option],0),MATCH(G$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A28,TblShipCrew[Ships],0)))</f>
+        <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K28" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J28,TblBattlefieldFlt[Option],0),MATCH(K$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J28,TblShipCrew[Ships],0)))</f>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J28,TblBattlefieldFlt[Option],0),MATCH(K$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J28,TblShipCrew[Ships],0)))</f>
         <v>0</v>
       </c>
       <c r="L28" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J28,TblBattlefieldFlt[Option],0),MATCH(L$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J28,TblShipCrew[Ships],0)))</f>
-        <v>0</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J28,TblBattlefieldFlt[Option],0),MATCH(L$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J28,TblShipCrew[Ships],0)))</f>
+        <v>2000</v>
       </c>
       <c r="M28" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J28,TblBattlefieldFlt[Option],0),MATCH(M$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J28,TblShipCrew[Ships],0)))</f>
-        <v>3000</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J28,TblBattlefieldFlt[Option],0),MATCH(M$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J28,TblShipCrew[Ships],0)))</f>
+        <v>0</v>
       </c>
       <c r="N28" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J28,TblBattlefieldFlt[Option],0),MATCH(N$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J28,TblShipCrew[Ships],0)))</f>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J28,TblBattlefieldFlt[Option],0),MATCH(N$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J28,TblShipCrew[Ships],0)))</f>
         <v>0</v>
       </c>
       <c r="O28" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J28,TblBattlefieldFlt[Option],0),MATCH(O$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J28,TblShipCrew[Ships],0)))</f>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J28,TblBattlefieldFlt[Option],0),MATCH(O$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J28,TblShipCrew[Ships],0)))</f>
         <v>2000</v>
       </c>
       <c r="P28" s="1">
-        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J28,TblBattlefieldFlt[Option],0),MATCH(P$23,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J28,TblShipCrew[Ships],0)))</f>
-        <v>5000</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J28,TblBattlefieldFlt[Option],0),MATCH(P$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J28,TblShipCrew[Ships],0)))</f>
+        <v>0</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1">
-        <f>SUBTOTAL(109,TblAdjFleetRolesValues[A])</f>
-        <v>1600</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A29,TblBattlefieldFlt[Option],0),MATCH(B$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A29,TblShipCrew[Ships],0)))</f>
+        <v>0</v>
       </c>
       <c r="C29" s="1">
-        <f>SUBTOTAL(109,TblAdjFleetRolesValues[B])</f>
-        <v>1600</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A29,TblBattlefieldFlt[Option],0),MATCH(C$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A29,TblShipCrew[Ships],0)))</f>
+        <v>0</v>
       </c>
       <c r="D29" s="1">
-        <f>SUBTOTAL(109,TblAdjFleetRolesValues[C])</f>
-        <v>1700</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A29,TblBattlefieldFlt[Option],0),MATCH(D$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A29,TblShipCrew[Ships],0)))</f>
+        <v>500</v>
       </c>
       <c r="E29" s="1">
-        <f>SUBTOTAL(109,TblAdjFleetRolesValues[D])</f>
-        <v>1600</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A29,TblBattlefieldFlt[Option],0),MATCH(E$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A29,TblShipCrew[Ships],0)))</f>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
-        <f>SUBTOTAL(109,TblAdjFleetRolesValues[E])</f>
-        <v>1700</v>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A29,TblBattlefieldFlt[Option],0),MATCH(F$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A29,TblShipCrew[Ships],0)))</f>
+        <v>500</v>
       </c>
       <c r="G29" s="1">
-        <f>SUBTOTAL(109,TblAdjFleetRolesValues[F])</f>
-        <v>1800</v>
-      </c>
-      <c r="H29" s="1"/>
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A29,TblBattlefieldFlt[Option],0),MATCH(G$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A29,TblShipCrew[Ships],0)))</f>
+        <v>1000</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="1">
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J29,TblBattlefieldFlt[Option],0),MATCH(K$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J29,TblShipCrew[Ships],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J29,TblBattlefieldFlt[Option],0),MATCH(L$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J29,TblShipCrew[Ships],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J29,TblBattlefieldFlt[Option],0),MATCH(M$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J29,TblShipCrew[Ships],0)))</f>
+        <v>2500</v>
+      </c>
+      <c r="N29" s="1">
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J29,TblBattlefieldFlt[Option],0),MATCH(N$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J29,TblShipCrew[Ships],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J29,TblBattlefieldFlt[Option],0),MATCH(O$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J29,TblShipCrew[Ships],0)))</f>
+        <v>2500</v>
+      </c>
+      <c r="P29" s="1">
+        <f>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J29,TblBattlefieldFlt[Option],0),MATCH(P$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J29,TblShipCrew[Ships],0)))</f>
+        <v>5000</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="1">
+      <c r="B30" s="1">
+        <f>SUBTOTAL(109,TblAdjFleetRolesValues[A])</f>
+        <v>2000</v>
+      </c>
+      <c r="C30" s="1">
+        <f>SUBTOTAL(109,TblAdjFleetRolesValues[B])</f>
+        <v>2000</v>
+      </c>
+      <c r="D30" s="1">
+        <f>SUBTOTAL(109,TblAdjFleetRolesValues[C])</f>
+        <v>2000</v>
+      </c>
+      <c r="E30" s="1">
+        <f>SUBTOTAL(109,TblAdjFleetRolesValues[D])</f>
+        <v>2000</v>
+      </c>
+      <c r="F30" s="1">
+        <f>SUBTOTAL(109,TblAdjFleetRolesValues[E])</f>
+        <v>2000</v>
+      </c>
+      <c r="G30" s="1">
+        <f>SUBTOTAL(109,TblAdjFleetRolesValues[F])</f>
+        <v>2000</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="4"/>
+      <c r="J30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="1">
         <f>SUBTOTAL(109,TblGenFleetRolesValues[A])</f>
-        <v>5000</v>
-      </c>
-      <c r="L29" s="1">
+        <v>7500</v>
+      </c>
+      <c r="L30" s="1">
         <f>SUBTOTAL(109,TblGenFleetRolesValues[B])</f>
-        <v>5500</v>
-      </c>
-      <c r="M29" s="1">
+        <v>7500</v>
+      </c>
+      <c r="M30" s="1">
         <f>SUBTOTAL(109,TblGenFleetRolesValues[C])</f>
-        <v>6500</v>
-      </c>
-      <c r="N29" s="1">
+        <v>8000</v>
+      </c>
+      <c r="N30" s="1">
         <f>SUBTOTAL(109,TblGenFleetRolesValues[D])</f>
-        <v>5000</v>
-      </c>
-      <c r="O29" s="1">
+        <v>7000</v>
+      </c>
+      <c r="O30" s="1">
         <f>SUBTOTAL(109,TblGenFleetRolesValues[E])</f>
-        <v>6500</v>
-      </c>
-      <c r="P29" s="1">
+        <v>8000</v>
+      </c>
+      <c r="P30" s="1">
         <f>SUBTOTAL(109,TblGenFleetRolesValues[F])</f>
-        <v>7500</v>
-      </c>
-      <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="19" t="s">
+        <v>8500</v>
+      </c>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="19" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M31" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N31" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="O31" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="P31" s="14" t="s">
-        <v>26</v>
-      </c>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B33" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[A]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>5000</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C33" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[B]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D33" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[C]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E33" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[D]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F33" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[E]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G33" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[F]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" t="s">
+      <c r="I33" s="4"/>
+      <c r="J33" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K33" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[A]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>5000</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L33" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[B]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M33" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[C]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N33" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[D]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O33" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[E]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P33" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[F]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="1">
-        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[A]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>1600</v>
-      </c>
-      <c r="C33" s="1">
-        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[B]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[C]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[D]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[E]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
-        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[F]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="4"/>
-      <c r="J33" t="s">
-        <v>42</v>
-      </c>
-      <c r="K33" s="1">
-        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[A]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>5000</v>
-      </c>
-      <c r="L33" s="1">
-        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[B]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="1">
-        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[C]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="1">
-        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[D]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="1">
-        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[E]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="1">
-        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[F]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="1">
+        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[A]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>2000</v>
+      </c>
+      <c r="C34" s="1">
+        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[B]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[C]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[D]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[E]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[F]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" s="1">
+        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[A]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>7500</v>
+      </c>
+      <c r="L34" s="1">
+        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[B]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[C]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[D]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[E]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[F]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B35" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[A]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C35" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[B]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>3500</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D35" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[C]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>3500</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E35" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[D]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F35" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[E]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G35" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[F]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" t="s">
+      <c r="I35" s="4"/>
+      <c r="J35" t="s">
         <v>29</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K35" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[A]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L35" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[B]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>3500</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M35" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[C]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>3500</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N35" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[D]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O35" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[E]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P35" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[F]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="1">
-        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[A]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="1">
-        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[B]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>1100</v>
-      </c>
-      <c r="D35" s="1">
-        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[C]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>1100</v>
-      </c>
-      <c r="E35" s="1">
-        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[D]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[E]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[F]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="4"/>
-      <c r="J35" t="s">
-        <v>43</v>
-      </c>
-      <c r="K35" s="1">
-        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[A]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="1">
-        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[B]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>3500</v>
-      </c>
-      <c r="M35" s="1">
-        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[C]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>3500</v>
-      </c>
-      <c r="N35" s="1">
-        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[D]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="1">
-        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[E]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="P35" s="1">
-        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[F]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1">
+        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[A]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[B]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>1500</v>
+      </c>
+      <c r="D36" s="1">
+        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[C]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>1500</v>
+      </c>
+      <c r="E36" s="1">
+        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[D]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[E]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[F]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" t="s">
+        <v>43</v>
+      </c>
+      <c r="K36" s="1">
+        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[A]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[B]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>5500</v>
+      </c>
+      <c r="M36" s="1">
+        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[C]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>5500</v>
+      </c>
+      <c r="N36" s="1">
+        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[D]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[E]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[F]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B37" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[A]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C37" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[B]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D37" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[C]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E37" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[D]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>5000</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F37" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[E]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>2500</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G37" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[F]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>2500</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" t="s">
+      <c r="I37" s="4"/>
+      <c r="J37" t="s">
         <v>30</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K37" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[A]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L37" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[B]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M37" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[C]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="N36" s="1">
+      <c r="N37" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[D]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>5000</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O37" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[E]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>2500</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P37" s="1">
         <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[F]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
-      <c r="A37" t="s">
+    <row r="38" spans="1:16">
+      <c r="A38" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B38" s="1">
         <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[A]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C38" s="1">
         <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[B]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D38" s="1">
         <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[C]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E38" s="1">
         <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[D]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>1600</v>
-      </c>
-      <c r="F37" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F38" s="1">
         <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[E]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>800</v>
-      </c>
-      <c r="G37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G38" s="1">
         <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[F]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>800</v>
-      </c>
-      <c r="I37" s="4"/>
-      <c r="J37" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" t="s">
         <v>44</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K38" s="1">
         <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[A]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L38" s="1">
         <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[B]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M38" s="1">
         <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[C]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
         <v>0</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N38" s="1">
         <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[D]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>7000</v>
+      </c>
+      <c r="O38" s="1">
+        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[E]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>3500</v>
+      </c>
+      <c r="P38" s="1">
+        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[F]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="1">
+        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[A]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[B]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
+        <v>1500</v>
+      </c>
+      <c r="D39" s="1">
+        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[C]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[D]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[E]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
+        <v>1500</v>
+      </c>
+      <c r="G39" s="1">
+        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[F]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" s="1">
+        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[A]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[B]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
+        <v>1500</v>
+      </c>
+      <c r="M39" s="1">
+        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[C]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[D]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[E]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
+        <v>1500</v>
+      </c>
+      <c r="P39" s="1">
+        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[F]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="1">
+        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[A]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[B]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>500</v>
+      </c>
+      <c r="D40" s="1">
+        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[C]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[D]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[E]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>500</v>
+      </c>
+      <c r="G40" s="1">
+        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[F]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" t="s">
+        <v>45</v>
+      </c>
+      <c r="K40" s="1">
+        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[A]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[B]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>2000</v>
+      </c>
+      <c r="M40" s="1">
+        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[C]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[D]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[E]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>2000</v>
+      </c>
+      <c r="P40" s="1">
+        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[F]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="1">
+        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[A]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[B]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[C]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
+        <v>2500</v>
+      </c>
+      <c r="E41" s="1">
+        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[D]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[E]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
+        <v>2500</v>
+      </c>
+      <c r="G41" s="1">
+        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[F]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
         <v>5000</v>
       </c>
-      <c r="O37" s="1">
+      <c r="I41" s="4"/>
+      <c r="J41" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="1">
+        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[A]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[B]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[C]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
+        <v>2500</v>
+      </c>
+      <c r="N41" s="1">
+        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[D]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[E]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
+        <v>2500</v>
+      </c>
+      <c r="P41" s="1">
+        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[F]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="1">
+        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[A]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[B]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[C]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>500</v>
+      </c>
+      <c r="E42" s="1">
+        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[D]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[E]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>500</v>
+      </c>
+      <c r="G42" s="1">
+        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[F]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>1000</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" t="s">
+        <v>46</v>
+      </c>
+      <c r="K42" s="1">
+        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[A]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[B]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[C]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>2500</v>
+      </c>
+      <c r="N42" s="1">
+        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[D]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
         <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[E]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
         <v>2500</v>
       </c>
-      <c r="P37" s="1">
-        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[F]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="1">
-        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[A]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="C38" s="1">
-        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[B]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>1500</v>
-      </c>
-      <c r="D38" s="1">
-        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[C]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[D]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[E]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>1500</v>
-      </c>
-      <c r="G38" s="1">
-        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[F]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="4"/>
-      <c r="J38" t="s">
-        <v>31</v>
-      </c>
-      <c r="K38" s="1">
-        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[A]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="1">
-        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[B]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>1500</v>
-      </c>
-      <c r="M38" s="1">
-        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[C]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="1">
-        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[D]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="O38" s="1">
-        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[E]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>1500</v>
-      </c>
-      <c r="P38" s="1">
-        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[F]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="1">
-        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[A]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="1">
-        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[B]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>500</v>
-      </c>
-      <c r="D39" s="1">
-        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[C]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[D]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[E]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>500</v>
-      </c>
-      <c r="G39" s="1">
-        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[F]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="4"/>
-      <c r="J39" t="s">
-        <v>45</v>
-      </c>
-      <c r="K39" s="1">
-        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[A]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="1">
-        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[B]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>2000</v>
-      </c>
-      <c r="M39" s="1">
-        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[C]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="1">
-        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[D]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="1">
-        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[E]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>2000</v>
-      </c>
-      <c r="P39" s="1">
-        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[F]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="1">
-        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[A]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="C40" s="1">
-        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[B]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="1">
-        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[C]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>1500</v>
-      </c>
-      <c r="E40" s="1">
-        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[D]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[E]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>1000</v>
-      </c>
-      <c r="G40" s="1">
-        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[F]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>2500</v>
-      </c>
-      <c r="I40" s="4"/>
-      <c r="J40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K40" s="1">
-        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[A]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="1">
-        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[B]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="1">
-        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[C]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>1500</v>
-      </c>
-      <c r="N40" s="1">
-        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[D]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="1">
-        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[E]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>1000</v>
-      </c>
-      <c r="P40" s="1">
-        <f>INDEX(TblFleetShipValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblFleetShipValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[F]],TblFleetShipValues[[#Headers],[A]:[F]],0))</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="1">
-        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[A]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="C41" s="1">
-        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[B]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="1">
-        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[C]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>600</v>
-      </c>
-      <c r="E41" s="1">
-        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[D]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
-        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[E]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>400</v>
-      </c>
-      <c r="G41" s="1">
-        <f>INDEX(TblAdjFleetRolesValues[[A]:[F]],MATCH(TblCombinedAdjFltValues[[#This Row],[Option]],TblAdjFleetRolesValues[Name],0),MATCH(TblCombinedAdjFltValues[[#Headers],[F]],TblAdjFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>1000</v>
-      </c>
-      <c r="I41" s="4"/>
-      <c r="J41" t="s">
-        <v>46</v>
-      </c>
-      <c r="K41" s="1">
-        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[A]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="1">
-        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[B]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="1">
-        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[C]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>3000</v>
-      </c>
-      <c r="N41" s="1">
-        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[D]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="O41" s="1">
-        <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[E]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
-        <v>2000</v>
-      </c>
-      <c r="P41" s="1">
+      <c r="P42" s="1">
         <f>INDEX(TblGenFleetRolesValues[[A]:[F]],MATCH(TblCombinedGenFltValues[[#This Row],[Option]],TblGenFleetRolesValues[Name],0),MATCH(TblCombinedGenFltValues[[#Headers],[F]],TblGenFleetRolesValues[[#Headers],[A]:[F]],0))</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
-      <c r="A42" t="s">
+    <row r="43" spans="1:16">
+      <c r="A43" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B43" s="1">
         <f>SUBTOTAL(109,TblCombinedAdjFltValues[A])</f>
-        <v>6600</v>
-      </c>
-      <c r="C42" s="1">
+        <v>7000</v>
+      </c>
+      <c r="C43" s="1">
         <f>SUBTOTAL(109,TblCombinedAdjFltValues[B])</f>
-        <v>6600</v>
-      </c>
-      <c r="D42" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D43" s="1">
         <f>SUBTOTAL(109,TblCombinedAdjFltValues[C])</f>
-        <v>6700</v>
-      </c>
-      <c r="E42" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E43" s="1">
         <f>SUBTOTAL(109,TblCombinedAdjFltValues[D])</f>
-        <v>6600</v>
-      </c>
-      <c r="F42" s="1">
+        <v>7000</v>
+      </c>
+      <c r="F43" s="1">
         <f>SUBTOTAL(109,TblCombinedAdjFltValues[E])</f>
-        <v>6700</v>
-      </c>
-      <c r="G42" s="1">
+        <v>8500</v>
+      </c>
+      <c r="G43" s="1">
         <f>SUBTOTAL(109,TblCombinedAdjFltValues[F])</f>
-        <v>6800</v>
-      </c>
-      <c r="I42" s="4"/>
-      <c r="J42" t="s">
+        <v>9500</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" t="s">
         <v>33</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K43" s="1">
         <f>SUBTOTAL(109,TblCombinedGenFltValues[A])</f>
-        <v>10000</v>
-      </c>
-      <c r="L42" s="1">
+        <v>12500</v>
+      </c>
+      <c r="L43" s="1">
         <f>SUBTOTAL(109,TblCombinedGenFltValues[B])</f>
-        <v>10500</v>
-      </c>
-      <c r="M42" s="1">
+        <v>12500</v>
+      </c>
+      <c r="M43" s="1">
         <f>SUBTOTAL(109,TblCombinedGenFltValues[C])</f>
-        <v>11500</v>
-      </c>
-      <c r="N42" s="1">
+        <v>14000</v>
+      </c>
+      <c r="N43" s="1">
         <f>SUBTOTAL(109,TblCombinedGenFltValues[D])</f>
-        <v>10000</v>
-      </c>
-      <c r="O42" s="1">
+        <v>12000</v>
+      </c>
+      <c r="O43" s="1">
         <f>SUBTOTAL(109,TblCombinedGenFltValues[E])</f>
-        <v>11500</v>
-      </c>
-      <c r="P42" s="1">
+        <v>14500</v>
+      </c>
+      <c r="P43" s="1">
         <f>SUBTOTAL(109,TblCombinedGenFltValues[F])</f>
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="1"/>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="1"/>
     </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="J31:P31"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H23"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <ignoredErrors>
-    <ignoredError sqref="B32:G32 B33:B41 K32:P32 K40 K38 K36 K34 K33 K35 K37 K39 K41 L10:P10 L11:P14" calculatedColumn="1"/>
-    <ignoredError sqref="C33:G41 L41:P41 L39:P39 L37:M37 L35:P35 L33:P33 L34:P34 L36:P36 L40:P40 L38:P38 O37:P37" formula="1" calculatedColumn="1"/>
+    <ignoredError sqref="B33:G33 B34:B42 K33:P33 K41 K39 K37 K35 K34 K36 K38 K40 K42 L10:P10 L11:P14" calculatedColumn="1"/>
+    <ignoredError sqref="C34:G42 L42:P42 L40:P40 L38:M38 L36:P36 L34:P34 L35:P35 L37:P37 L41:P41 L39:P39 O38:P38" formula="1" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="10">
     <tablePart r:id="rId1"/>
@@ -4483,11 +5127,1229 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91273792-62E9-442E-9CC7-E8C6E6BD4008}">
+  <dimension ref="B1:V29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22">
+      <c r="M1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22">
+      <c r="B2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22">
+      <c r="B3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="26">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="26">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="26">
+        <v>2000</v>
+      </c>
+      <c r="F3" s="26">
+        <v>100</v>
+      </c>
+      <c r="G3" s="43">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>M3*100</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>O3*100</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>Q3*100</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>S3*100</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>U3*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="B4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="27">
+        <v>1500</v>
+      </c>
+      <c r="D4" s="27">
+        <v>1500</v>
+      </c>
+      <c r="E4" s="27">
+        <v>1500</v>
+      </c>
+      <c r="F4" s="27">
+        <v>100</v>
+      </c>
+      <c r="G4" s="44">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:O14" si="0">M4*100</f>
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:R4" si="1">O4*100</f>
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:V4" si="2">S4*100</f>
+        <v>100</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22">
+      <c r="B5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="28">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="28">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="28">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="28">
+        <v>100</v>
+      </c>
+      <c r="G5" s="43">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:R5" si="3">O5*100</f>
+        <v>200</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5" si="4">S5*100</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="B6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="27">
+        <v>500</v>
+      </c>
+      <c r="D6" s="27">
+        <v>500</v>
+      </c>
+      <c r="E6" s="27">
+        <v>500</v>
+      </c>
+      <c r="F6" s="27">
+        <v>100</v>
+      </c>
+      <c r="G6" s="44">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:R6" si="5">O6*100</f>
+        <v>300</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ref="T6" si="6">S6*100</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="28">
+        <v>100</v>
+      </c>
+      <c r="D7" s="28">
+        <v>100</v>
+      </c>
+      <c r="E7" s="28">
+        <v>100</v>
+      </c>
+      <c r="F7" s="28">
+        <v>100</v>
+      </c>
+      <c r="G7" s="43">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7:R7" si="7">O7*100</f>
+        <v>400</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8:R8" si="8">O8*100</f>
+        <v>500</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="8"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ref="P9" si="9">O9*100</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ref="P10" si="10">O10*100</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="B11" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ref="P11" si="11">O11*100</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="76.5">
+      <c r="B12" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>11</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="B15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="B16" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="43">
+        <v>11</v>
+      </c>
+      <c r="D16" s="43">
+        <v>3</v>
+      </c>
+      <c r="E16" s="43">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="44">
+        <v>8</v>
+      </c>
+      <c r="D17" s="44">
+        <v>2</v>
+      </c>
+      <c r="E17" s="44">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="43">
+        <v>5</v>
+      </c>
+      <c r="D18" s="43">
+        <v>1</v>
+      </c>
+      <c r="E18" s="43">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="44">
+        <v>3</v>
+      </c>
+      <c r="D19" s="44">
+        <v>1</v>
+      </c>
+      <c r="E19" s="44">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="43">
+        <v>1</v>
+      </c>
+      <c r="D20" s="43">
+        <v>0</v>
+      </c>
+      <c r="E20" s="43">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="L21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="L22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="48">
+        <v>1</v>
+      </c>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="L24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50">
+        <v>1</v>
+      </c>
+      <c r="E25" s="50">
+        <v>1</v>
+      </c>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="L25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48">
+        <v>2</v>
+      </c>
+      <c r="G26" s="48">
+        <v>1</v>
+      </c>
+      <c r="H26" s="48">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50">
+        <v>1</v>
+      </c>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50">
+        <v>1</v>
+      </c>
+      <c r="H27" s="50"/>
+      <c r="L27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48">
+        <v>5</v>
+      </c>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48">
+        <v>5</v>
+      </c>
+      <c r="H28" s="48">
+        <v>10</v>
+      </c>
+      <c r="L28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="C29">
+        <f>C24*G3*F3</f>
+        <v>1000</v>
+      </c>
+      <c r="D29">
+        <f>(D25*G4*F4)+(D27*G6*F6)</f>
+        <v>1000</v>
+      </c>
+      <c r="E29">
+        <f>(E25*G4*F4)+(E28*G7*F7)</f>
+        <v>1200</v>
+      </c>
+      <c r="F29">
+        <f>F26*G5*F5</f>
+        <v>1000</v>
+      </c>
+      <c r="G29">
+        <f>(G26*G5*F5)+(G27*G6*F6)+(G28*G7*F7)</f>
+        <v>1300</v>
+      </c>
+      <c r="H29">
+        <f>(H26*G5*F5)+(H28*G7*F7)</f>
+        <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EC53A5-8F19-4711-93EA-0F4CBD261EC8}">
+  <dimension ref="B2:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6016CF9E-E144-48D8-959F-618B8D85D284}">
+  <dimension ref="B2:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CADF2F4-A124-44BC-8A72-4CE3F16F5D04}">
+  <dimension ref="B2:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="106.5" customHeight="1">
+      <c r="B3" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="106.5">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="60.75">
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="76.5">
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="91.5">
+      <c r="B7" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="91.5">
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="76.5">
+      <c r="B9" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="30.75">
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="76.5" customHeight="1">
+      <c r="B11" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="30.75">
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="45.75">
+      <c r="B13" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="30.75">
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="45.75">
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="60.75">
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="45.75">
+      <c r="B17" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="45.75">
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="60.75" customHeight="1">
+      <c r="B19" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="30.75">
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4502,25 +6364,25 @@
   <sheetData>
     <row r="2" spans="1:19">
       <c r="A2" s="19" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="F2" s="19" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>26</v>
@@ -4532,46 +6394,46 @@
       </c>
       <c r="B4">
         <f>INDEX(TblCombinedAdjFltValues[[#Totals],[A]:[F]],MATCH(Comparison!$B$3,TblCombinedAdjFltValues[[#Headers],[A]:[F]]))</f>
-        <v>6600</v>
+        <v>7000</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
       </c>
       <c r="G4">
         <f>INDEX(TblCombinedAdjFltValues[[#Totals],[A]:[F]],MATCH(Comparison!$G$3,TblCombinedAdjFltValues[[#Headers],[A]:[F]]))</f>
-        <v>6800</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="B5">
         <f>SUM(C10:C14)</f>
         <v>5000</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="G5">
         <f>SUM(H10:H14)</f>
-        <v>5000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="B6">
         <f>SUM(C17:C19)</f>
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="G6">
         <f>SUM(H17:H19)</f>
-        <v>1800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -4589,7 +6451,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>3</v>
@@ -4598,7 +6460,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>3</v>
@@ -4776,28 +6638,28 @@
       </c>
       <c r="G14" s="18">
         <f>INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($F14,TblBattlefieldFlt[Option],0),MATCH($G$3,TblBattlefieldFlt[[#Headers],[A]:[F]],0))</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H14" s="17">
         <f>INDEX(TblShipPoints[Points],MATCH(F14,TblShipPoints[Ships],0))*G14</f>
-        <v>2500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="17" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>
@@ -4809,22 +6671,22 @@
       </c>
       <c r="B17" s="18">
         <f>SUMPRODUCT($B$10:$B$14,TblShipCrew[Service])</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <f>TblRoleControlValues[Service]*B17</f>
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="18">
         <f>SUMPRODUCT($G$10:$G$14,TblShipCrew[Service])</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H17">
         <f>TblRoleControlValues[Service]*G17</f>
-        <v>1300</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4833,11 +6695,11 @@
       </c>
       <c r="B18" s="18">
         <f>SUMPRODUCT($B$10:$B$14,TblShipCrew[Lieutenant])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <f>TblRoleControlValues[Lieutenant]*B18</f>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>5</v>
@@ -4857,11 +6719,11 @@
       </c>
       <c r="B19" s="18">
         <f>SUMPRODUCT($B$10:$B$14,TblShipCrew[Captain])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <f>TblRoleControlValues[Captain]*B19</f>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>6</v>

--- a/ShipCardGameCalcs.xlsx
+++ b/ShipCardGameCalcs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26322"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3CB0283-09D9-4255-AD72-C8700D867087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BF1CDC4-7C6D-4D8A-9522-8189B67BAC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14415" windowHeight="12495" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14415" windowHeight="12495" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="150">
   <si>
     <t>Ship Parameters</t>
   </si>
@@ -349,7 +349,7 @@
     <t>When only 1 player remains in the game they win</t>
   </si>
   <si>
-    <t>If player wants to draw from crew/leader deck and there are no cards left in players crew/leader deck then shuffle are crew/leader deck cards from junkyard back to that deck spot</t>
+    <t>If player wants to draw from crew/leader deck and there are no cards left in players crew/leader deck then shuffle are crew/leader deck cards from stasis back to that deck spot</t>
   </si>
   <si>
     <t>If there are no cards left in the main deck during the draw phase that player loses and is out of the game</t>
@@ -358,7 +358,7 @@
     <t>A player can only have 1 admiral card in play on their side of the battlefield</t>
   </si>
   <si>
-    <t>Both the main deck and crew/leader deck have its own assigned junkyard where certain cards go once played</t>
+    <t>Both the main deck and crew/leader deck have its own assigned stasis where certain cards go once played</t>
   </si>
   <si>
     <t>Controlled deck is the battlefield conditions which affects the battlefield</t>
@@ -442,7 +442,7 @@
     <t>Admiral cards can only be played on your turn</t>
   </si>
   <si>
-    <t>Research Project</t>
+    <t>Event</t>
   </si>
   <si>
     <t>Research project cards are ways for the player to potentially change the tide of battle with either basic card drawing to removing a ships upgrade.</t>
@@ -494,6 +494,18 @@
   </si>
   <si>
     <t>On Going Event cards can only be played on your turn</t>
+  </si>
+  <si>
+    <t>Crew Attachment</t>
+  </si>
+  <si>
+    <t>Attach to crew member to add extract abilities</t>
+  </si>
+  <si>
+    <t>You can play a many Crew Attachment cards as long as you can pay their cost</t>
+  </si>
+  <si>
+    <t>Crew Attachment cards can only be played on your turn</t>
   </si>
   <si>
     <t>Player A</t>
@@ -864,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -904,42 +916,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -947,25 +944,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -974,13 +961,37 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3076,21 +3087,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="N1" s="19" t="s">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="N1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="9" t="s">
@@ -3357,25 +3368,25 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="J8" s="19" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="J8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="8" t="s">
@@ -3715,15 +3726,15 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -3883,30 +3894,30 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="40" t="s">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="1">
         <f>SUBTOTAL(109,TblFltCrewSizes[A])</f>
         <v>15</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="1">
         <f>SUBTOTAL(109,TblFltCrewSizes[B])</f>
         <v>15</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="1">
         <f>SUBTOTAL(109,TblFltCrewSizes[C])</f>
         <v>16</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="1">
         <f>SUBTOTAL(109,TblFltCrewSizes[D])</f>
         <v>14</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="1">
         <f>SUBTOTAL(109,TblFltCrewSizes[E])</f>
         <v>16</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="1">
         <f>SUBTOTAL(109,TblFltCrewSizes[F])</f>
         <v>17</v>
       </c>
@@ -3940,27 +3951,27 @@
       <c r="R22" s="4"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="8" t="s">
@@ -4388,25 +4399,25 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="19" t="s">
+      <c r="J31" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
@@ -5150,22 +5161,22 @@
       </c>
     </row>
     <row r="2" spans="2:22">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>53</v>
       </c>
       <c r="L2" t="s">
@@ -5188,22 +5199,22 @@
       </c>
     </row>
     <row r="3" spans="2:22">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>2000</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="25">
         <v>2000</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="25">
         <v>2000</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <v>100</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="34">
         <v>10</v>
       </c>
       <c r="L3">
@@ -5246,22 +5257,22 @@
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="26">
         <v>1500</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="26">
         <v>1500</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="26">
         <v>1500</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="26">
         <v>100</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="35">
         <v>7</v>
       </c>
       <c r="L4">
@@ -5304,22 +5315,22 @@
       </c>
     </row>
     <row r="5" spans="2:22">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <v>1000</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <v>1000</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="27">
         <v>1000</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="27">
         <v>100</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="34">
         <v>5</v>
       </c>
       <c r="L5">
@@ -5355,22 +5366,22 @@
       </c>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <v>500</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <v>500</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="26">
         <v>500</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="26">
         <v>100</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="35">
         <v>3</v>
       </c>
       <c r="L6">
@@ -5406,22 +5417,22 @@
       </c>
     </row>
     <row r="7" spans="2:22">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <v>100</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="27">
         <v>100</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="27">
         <v>100</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="27">
         <v>100</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="34">
         <v>1</v>
       </c>
       <c r="L7">
@@ -5517,19 +5528,19 @@
       </c>
     </row>
     <row r="11" spans="2:22">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>60</v>
       </c>
       <c r="L11">
@@ -5551,19 +5562,19 @@
       </c>
     </row>
     <row r="12" spans="2:22" ht="76.5">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="20" t="s">
         <v>65</v>
       </c>
       <c r="L12">
@@ -5602,16 +5613,16 @@
       </c>
     </row>
     <row r="15" spans="2:22">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="33" t="s">
         <v>6</v>
       </c>
       <c r="L15">
@@ -5619,16 +5630,16 @@
       </c>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="34">
         <v>11</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="34">
         <v>3</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="34">
         <v>1</v>
       </c>
       <c r="L16">
@@ -5636,16 +5647,16 @@
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="35">
         <v>8</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="35">
         <v>2</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="35">
         <v>1</v>
       </c>
       <c r="L17">
@@ -5653,16 +5664,16 @@
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="34">
         <v>5</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="34">
         <v>1</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="34">
         <v>1</v>
       </c>
       <c r="L18">
@@ -5670,16 +5681,16 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="35">
         <v>3</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="35">
         <v>1</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="35">
         <v>0</v>
       </c>
       <c r="L19">
@@ -5687,16 +5698,16 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="43">
+      <c r="C20" s="34">
         <v>1</v>
       </c>
-      <c r="D20" s="43">
-        <v>0</v>
-      </c>
-      <c r="E20" s="43">
+      <c r="D20" s="34">
+        <v>0</v>
+      </c>
+      <c r="E20" s="34">
         <v>0</v>
       </c>
       <c r="L20">
@@ -5714,25 +5725,25 @@
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="46" t="s">
+      <c r="H23" s="37" t="s">
         <v>26</v>
       </c>
       <c r="L23">
@@ -5740,53 +5751,53 @@
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="39">
         <v>1</v>
       </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
       <c r="L24">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50">
+      <c r="C25" s="41"/>
+      <c r="D25" s="41">
         <v>1</v>
       </c>
-      <c r="E25" s="50">
+      <c r="E25" s="41">
         <v>1</v>
       </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
       <c r="L25">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48">
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39">
         <v>2</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G26" s="39">
         <v>1</v>
       </c>
-      <c r="H26" s="48">
+      <c r="H26" s="39">
         <v>1</v>
       </c>
       <c r="L26">
@@ -5794,37 +5805,37 @@
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50">
+      <c r="C27" s="41"/>
+      <c r="D27" s="41">
         <v>1</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50">
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41">
         <v>1</v>
       </c>
-      <c r="H27" s="50"/>
+      <c r="H27" s="41"/>
       <c r="L27">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48">
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39">
         <v>5</v>
       </c>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48">
+      <c r="F28" s="39"/>
+      <c r="G28" s="39">
         <v>5</v>
       </c>
-      <c r="H28" s="48">
+      <c r="H28" s="39">
         <v>10</v>
       </c>
       <c r="L28">
@@ -5867,7 +5878,7 @@
   <dimension ref="B2:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5876,7 +5887,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6027,7 +6038,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6016CF9E-E144-48D8-959F-618B8D85D284}">
-  <dimension ref="B2:M15"/>
+  <dimension ref="B2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
@@ -6035,108 +6046,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6145,10 +6103,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CADF2F4-A124-44BC-8A72-4CE3F16F5D04}">
-  <dimension ref="B2:D20"/>
+  <dimension ref="B2:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="B21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6159,178 +6117,192 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="32" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="106.5" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="106.5">
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="60.75">
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="35" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="76.5">
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="35" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="91.5">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="91.5">
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="35" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="76.5">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="28" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="30.75">
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="31" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="76.5" customHeight="1">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="28" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="30.75">
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="35" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="30" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="45.75">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="28" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="30.75">
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="35" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="30" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="45.75">
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="35" t="s">
+      <c r="B15" s="48"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="30" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="60.75">
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="35" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="30" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="45.75">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="28" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="45.75">
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="35" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="30" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="60.75" customHeight="1">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="28" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="30.75">
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="30" t="s">
         <v>139</v>
       </c>
     </row>
+    <row r="21" spans="2:4" ht="45.75">
+      <c r="B21" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="30.75">
+      <c r="B22" s="46"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
+  <mergeCells count="16">
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B3:B6"/>
@@ -6339,6 +6311,12 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6363,26 +6341,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="F2" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="A2" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="F2" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>26</v>
@@ -6406,14 +6384,14 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B5">
         <f>SUM(C10:C14)</f>
         <v>5000</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G5">
         <f>SUM(H10:H14)</f>
@@ -6422,14 +6400,14 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B6">
         <f>SUM(C17:C19)</f>
         <v>2000</v>
       </c>
       <c r="F6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G6">
         <f>SUM(H17:H19)</f>
@@ -6451,7 +6429,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>3</v>
@@ -6460,7 +6438,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>3</v>
@@ -6650,7 +6628,7 @@
         <v>108</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -6659,7 +6637,7 @@
         <v>108</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>

--- a/ShipCardGameCalcs.xlsx
+++ b/ShipCardGameCalcs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26324"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BF1CDC4-7C6D-4D8A-9522-8189B67BAC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4287F3BC-8CF1-471C-BCF0-1A757F5C6452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14415" windowHeight="12495" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14415" windowHeight="12495" firstSheet="4" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
@@ -286,10 +286,10 @@
     <t>Players can't see what ships the other player has picked until both have locked them in</t>
   </si>
   <si>
-    <t>Once players have picked their ships, they then start off by drawing two cards from their crew/leaders deck and 5 from their main deck</t>
-  </si>
-  <si>
-    <t>A player gets 1 free mulligan but if they choose to mulligan anymore times than that they reduce the amount of cards drawn from main deck by 1 each time. Down to a minimum of 1 card from their main deck and 2 from their leader deck</t>
+    <t>Once players have picked their ships, they then start off by drawing two cards from their crew/leaders deck and 5 from their strategy deck</t>
+  </si>
+  <si>
+    <t>A player gets 1 free mulligan but if they choose to mulligan anymore times than that they reduce the amount of cards drawn from strategy deck by 1 each time. Down to a minimum of 1 card from their strategy deck and 2 from their leader deck</t>
   </si>
   <si>
     <t>Any crew card placed cant be used to tap on first turn placed (unless card in play says otherwise)</t>
@@ -301,13 +301,13 @@
     <t>A crew /leader deck can only contain cards of Type Captain, Leuitenant and Crew Rank 1</t>
   </si>
   <si>
-    <t>The main deck has every other card</t>
+    <t>The strategy deck has every other card</t>
   </si>
   <si>
     <t>A player can only play 1 crew member and 1 Captain/Leuitenant per turn</t>
   </si>
   <si>
-    <t>On start of turn player can choose to either draw 2 cards from main deck, 2 cards from crew/leader deck or 1 from each.</t>
+    <t>On start of turn player can choose to either draw 2 cards from strategy deck, 2 cards from crew/leader deck or 1 from each.</t>
   </si>
   <si>
     <t>On end of turn if player has more than Max player hand size they must discard cards down to max hand size</t>
@@ -352,13 +352,13 @@
     <t>If player wants to draw from crew/leader deck and there are no cards left in players crew/leader deck then shuffle are crew/leader deck cards from stasis back to that deck spot</t>
   </si>
   <si>
-    <t>If there are no cards left in the main deck during the draw phase that player loses and is out of the game</t>
+    <t>If there are no cards left in the strategy deck during the draw phase that player loses and is out of the game</t>
   </si>
   <si>
     <t>A player can only have 1 admiral card in play on their side of the battlefield</t>
   </si>
   <si>
-    <t>Both the main deck and crew/leader deck have its own assigned stasis where certain cards go once played</t>
+    <t>Both the strategy deck and crew/leader deck have its own assigned stasis where certain cards go once played</t>
   </si>
   <si>
     <t>Controlled deck is the battlefield conditions which affects the battlefield</t>
@@ -876,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -989,9 +989,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5141,8 +5138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91273792-62E9-442E-9CC7-E8C6E6BD4008}">
   <dimension ref="B1:V29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H3:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5878,7 +5875,7 @@
   <dimension ref="B2:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6105,7 +6102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CADF2F4-A124-44BC-8A72-4CE3F16F5D04}">
   <dimension ref="B2:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="B21:D22"/>
     </sheetView>
   </sheetViews>
@@ -6276,7 +6273,7 @@
     </row>
     <row r="20" spans="2:4" ht="30.75">
       <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="30" t="s">
         <v>139</v>
       </c>

--- a/ShipCardGameCalcs.xlsx
+++ b/ShipCardGameCalcs.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26324"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4287F3BC-8CF1-471C-BCF0-1A757F5C6452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC049761-E7FC-4643-98CB-6C747A6B0A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14415" windowHeight="12495" firstSheet="4" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14415" windowHeight="12495" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
     <sheet name="Ships and Crew Details" sheetId="3" r:id="rId2"/>
-    <sheet name="Game Rules and Turn Example" sheetId="4" r:id="rId3"/>
-    <sheet name="Ideas" sheetId="6" r:id="rId4"/>
-    <sheet name="Card Details" sheetId="5" r:id="rId5"/>
-    <sheet name="Comparison" sheetId="2" r:id="rId6"/>
+    <sheet name="Game Setup" sheetId="7" r:id="rId3"/>
+    <sheet name="Game Rules and Turn Example" sheetId="4" r:id="rId4"/>
+    <sheet name="Ideas" sheetId="6" r:id="rId5"/>
+    <sheet name="Card Details" sheetId="5" r:id="rId6"/>
+    <sheet name="Comparison" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="159">
   <si>
     <t>Ship Parameters</t>
   </si>
@@ -238,6 +239,9 @@
     <t>Guns</t>
   </si>
   <si>
+    <t>Escape Pods</t>
+  </si>
+  <si>
     <t>Turn</t>
   </si>
   <si>
@@ -247,7 +251,7 @@
     <t>Research</t>
   </si>
   <si>
-    <t xml:space="preserve">Maneuverability </t>
+    <t>Handling</t>
   </si>
   <si>
     <t xml:space="preserve">Medical </t>
@@ -274,6 +278,27 @@
     <t>Points towards cards based around enemy crew</t>
   </si>
   <si>
+    <t>Assault</t>
+  </si>
+  <si>
+    <t>Player 1</t>
+  </si>
+  <si>
+    <t>Junkyard</t>
+  </si>
+  <si>
+    <t>Strategy Deck</t>
+  </si>
+  <si>
+    <t>Stasis</t>
+  </si>
+  <si>
+    <t>Crew Deck</t>
+  </si>
+  <si>
+    <t>Player 2</t>
+  </si>
+  <si>
     <t>Game Rules</t>
   </si>
   <si>
@@ -286,16 +311,19 @@
     <t>Players can't see what ships the other player has picked until both have locked them in</t>
   </si>
   <si>
-    <t>Once players have picked their ships, they then start off by drawing two cards from their crew/leaders deck and 5 from their strategy deck</t>
+    <t>Once players have picked their ships, they then start off by drawing two cards from their crew/leaders deck and 4 from their strategy deck</t>
   </si>
   <si>
     <t>A player gets 1 free mulligan but if they choose to mulligan anymore times than that they reduce the amount of cards drawn from strategy deck by 1 each time. Down to a minimum of 1 card from their strategy deck and 2 from their leader deck</t>
   </si>
   <si>
-    <t>Any crew card placed cant be used to tap on first turn placed (unless card in play says otherwise)</t>
-  </si>
-  <si>
-    <t>Max player hand size is 6 (unless card in play says otherwise)</t>
+    <t>A crew member first placed on to a ship can't be used in a gun slot</t>
+  </si>
+  <si>
+    <t>Any crew card placed can be used to tap on first turn placed</t>
+  </si>
+  <si>
+    <t>Max player hand size is 8 (unless card in play says otherwise)</t>
   </si>
   <si>
     <t>A crew /leader deck can only contain cards of Type Captain, Leuitenant and Crew Rank 1</t>
@@ -530,7 +558,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,8 +601,22 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,6 +651,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -876,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -990,6 +1044,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3062,7 +3122,7 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5139,7 +5199,7 @@
   <dimension ref="B1:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H3:H7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5149,6 +5209,7 @@
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5176,8 +5237,11 @@
       <c r="G2" s="24" t="s">
         <v>53</v>
       </c>
+      <c r="H2" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
@@ -5214,6 +5278,9 @@
       <c r="G3" s="34">
         <v>10</v>
       </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
       <c r="L3">
         <v>1</v>
       </c>
@@ -5272,6 +5339,9 @@
       <c r="G4" s="35">
         <v>7</v>
       </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
       <c r="L4">
         <v>2</v>
       </c>
@@ -5330,6 +5400,9 @@
       <c r="G5" s="34">
         <v>5</v>
       </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
       <c r="L5">
         <v>3</v>
       </c>
@@ -5381,6 +5454,9 @@
       <c r="G6" s="35">
         <v>3</v>
       </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
       <c r="L6">
         <v>4</v>
       </c>
@@ -5432,6 +5508,9 @@
       <c r="G7" s="34">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
       <c r="L7">
         <v>5</v>
       </c>
@@ -5504,7 +5583,7 @@
     </row>
     <row r="10" spans="2:22">
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L10">
         <v>8</v>
@@ -5526,19 +5605,19 @@
     </row>
     <row r="11" spans="2:22">
       <c r="B11" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L11">
         <v>9</v>
@@ -5560,19 +5639,19 @@
     </row>
     <row r="12" spans="2:22" ht="76.5">
       <c r="B12" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L12">
         <v>10</v>
@@ -5871,11 +5950,335 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EC53A5-8F19-4711-93EA-0F4CBD261EC8}">
-  <dimension ref="B2:B30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478582BA-383F-47D3-8480-5088EC096D30}">
+  <dimension ref="B1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="P25" sqref="P24:Q25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:19">
+      <c r="D1">
+        <v>38</v>
+      </c>
+      <c r="E1">
+        <v>44</v>
+      </c>
+      <c r="F1">
+        <v>119</v>
+      </c>
+      <c r="G1">
+        <v>35</v>
+      </c>
+      <c r="H1">
+        <v>54</v>
+      </c>
+      <c r="J1">
+        <v>2</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19">
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="N3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="B4" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="25">
+        <v>2000</v>
+      </c>
+      <c r="P4" s="25">
+        <v>2000</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>2000</v>
+      </c>
+      <c r="R4" s="25">
+        <v>100</v>
+      </c>
+      <c r="S4" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="B5" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="26">
+        <v>1500</v>
+      </c>
+      <c r="P5" s="26">
+        <v>1500</v>
+      </c>
+      <c r="Q5" s="26">
+        <v>1500</v>
+      </c>
+      <c r="R5" s="26">
+        <v>100</v>
+      </c>
+      <c r="S5" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="27">
+        <v>1000</v>
+      </c>
+      <c r="P6" s="27">
+        <v>1000</v>
+      </c>
+      <c r="Q6" s="27">
+        <v>1000</v>
+      </c>
+      <c r="R6" s="27">
+        <v>100</v>
+      </c>
+      <c r="S6" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="26">
+        <v>500</v>
+      </c>
+      <c r="P7" s="26">
+        <v>500</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>500</v>
+      </c>
+      <c r="R7" s="26">
+        <v>100</v>
+      </c>
+      <c r="S7" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="G8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="27">
+        <v>100</v>
+      </c>
+      <c r="P8" s="27">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="27">
+        <v>100</v>
+      </c>
+      <c r="R8" s="27">
+        <v>100</v>
+      </c>
+      <c r="S8" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="N10" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="C15" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="P16">
+        <f ca="1">RANDBETWEEN(0,123)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="P17" s="54">
+        <f ca="1">RANDBETWEEN(0,6)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="C18" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="L19" s="53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="E20" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="L21" s="53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="E24">
+        <v>64</v>
+      </c>
+      <c r="F24">
+        <v>114</v>
+      </c>
+      <c r="G24">
+        <v>118</v>
+      </c>
+      <c r="H24">
+        <v>73</v>
+      </c>
+      <c r="I24">
+        <v>80</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="K25" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EC53A5-8F19-4711-93EA-0F4CBD261EC8}">
+  <dimension ref="B2:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5885,147 +6288,152 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="21" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>73</v>
+      <c r="B9" s="49" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>94</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -6033,64 +6441,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6016CF9E-E144-48D8-959F-618B8D85D284}">
   <dimension ref="B2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -6098,12 +6506,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CADF2F4-A124-44BC-8A72-4CE3F16F5D04}">
   <dimension ref="B2:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="B21:D22"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6115,185 +6523,185 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="32" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="106.5" customHeight="1">
       <c r="B3" s="45" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="106.5">
       <c r="B4" s="48"/>
       <c r="C4" s="47"/>
       <c r="D4" s="29" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="60.75">
       <c r="B5" s="48"/>
       <c r="C5" s="47"/>
       <c r="D5" s="30" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="76.5">
       <c r="B6" s="48"/>
       <c r="C6" s="47"/>
       <c r="D6" s="30" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="91.5">
       <c r="B7" s="45" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="91.5">
       <c r="B8" s="48"/>
       <c r="C8" s="47"/>
       <c r="D8" s="30" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="76.5">
       <c r="B9" s="45" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="30.75">
       <c r="B10" s="46"/>
       <c r="C10" s="44"/>
       <c r="D10" s="31" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="76.5" customHeight="1">
       <c r="B11" s="45" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="30.75">
       <c r="B12" s="48"/>
       <c r="C12" s="47"/>
       <c r="D12" s="30" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="45.75">
       <c r="B13" s="45" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="30.75">
       <c r="B14" s="48"/>
       <c r="C14" s="47"/>
       <c r="D14" s="30" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="45.75">
       <c r="B15" s="48"/>
       <c r="C15" s="47"/>
       <c r="D15" s="30" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="60.75">
       <c r="B16" s="48"/>
       <c r="C16" s="47"/>
       <c r="D16" s="30" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="45.75">
       <c r="B17" s="45" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="45.75">
       <c r="B18" s="48"/>
       <c r="C18" s="47"/>
       <c r="D18" s="30" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="60.75" customHeight="1">
       <c r="B19" s="45" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="30.75">
       <c r="B20" s="48"/>
       <c r="C20" s="47"/>
       <c r="D20" s="30" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="45.75">
       <c r="B21" s="45" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="30.75">
       <c r="B22" s="46"/>
       <c r="C22" s="44"/>
       <c r="D22" s="31" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -6319,7 +6727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:S19"/>
   <sheetViews>
@@ -6339,25 +6747,25 @@
   <sheetData>
     <row r="2" spans="1:19">
       <c r="A2" s="42" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
       <c r="F2" s="42" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G2" s="42"/>
       <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>26</v>
@@ -6381,14 +6789,14 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B5">
         <f>SUM(C10:C14)</f>
         <v>5000</v>
       </c>
       <c r="F5" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G5">
         <f>SUM(H10:H14)</f>
@@ -6397,14 +6805,14 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B6">
         <f>SUM(C17:C19)</f>
         <v>2000</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="G6">
         <f>SUM(H17:H19)</f>
@@ -6426,7 +6834,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>3</v>
@@ -6435,7 +6843,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>3</v>
@@ -6622,19 +7030,19 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="17" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>

--- a/ShipCardGameCalcs.xlsx
+++ b/ShipCardGameCalcs.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC049761-E7FC-4643-98CB-6C747A6B0A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DAF753-3355-4F68-B221-8E532364658F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14415" windowHeight="12495" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="190">
   <si>
     <t>Ship Parameters</t>
   </si>
@@ -317,57 +322,24 @@
     <t>A player gets 1 free mulligan but if they choose to mulligan anymore times than that they reduce the amount of cards drawn from strategy deck by 1 each time. Down to a minimum of 1 card from their strategy deck and 2 from their leader deck</t>
   </si>
   <si>
-    <t>A crew member first placed on to a ship can't be used in a gun slot</t>
-  </si>
-  <si>
-    <t>Any crew card placed can be used to tap on first turn placed</t>
-  </si>
-  <si>
     <t>Max player hand size is 8 (unless card in play says otherwise)</t>
   </si>
   <si>
-    <t>A crew /leader deck can only contain cards of Type Captain, Leuitenant and Crew Rank 1</t>
-  </si>
-  <si>
     <t>The strategy deck has every other card</t>
   </si>
   <si>
-    <t>A player can only play 1 crew member and 1 Captain/Leuitenant per turn</t>
-  </si>
-  <si>
-    <t>On start of turn player can choose to either draw 2 cards from strategy deck, 2 cards from crew/leader deck or 1 from each.</t>
-  </si>
-  <si>
-    <t>On end of turn if player has more than Max player hand size they must discard cards down to max hand size</t>
-  </si>
-  <si>
-    <t>A ship can only hold x amount of crew members where x is equal to the ships service slots</t>
-  </si>
-  <si>
     <t>A ship can only hold x amount of Captains where x is equal to ships Captains slots</t>
   </si>
   <si>
     <t>A ship can only hold x amount of Leuitenant where x is equal to ships Leuitenant slots</t>
   </si>
   <si>
-    <t>Ship Upgrade cards can only be used on ships where at least one crew member used is on targeted ship</t>
-  </si>
-  <si>
-    <t>Cards with Target Owned Ship can only be used on ships where at least one crew member used is on targeted ship</t>
-  </si>
-  <si>
-    <t>At the start of players turn all their cards are untapped (unless card in play says otherwise)</t>
-  </si>
-  <si>
     <t>A crew type card has a 1 to 1 relationship when being tapped to a gun slot. Meaning you can't tap more than 1 crew card type to the same gun slot on the same turn.</t>
   </si>
   <si>
     <t>When crew type card is being used to a gun slot, it will deal damage to the players ship shield, if the players ship shield is at 0 or deactivated then it will deal damage to the players ship hull</t>
   </si>
   <si>
-    <t>Once a players ship hull reaches 0 it is destroyed and all cards part of that ship are sent to cards deck junkyard e.g crew types and ship upgrades etc</t>
-  </si>
-  <si>
     <t>Once a players ship is destroyed remove the ship card from play</t>
   </si>
   <si>
@@ -377,18 +349,12 @@
     <t>When only 1 player remains in the game they win</t>
   </si>
   <si>
-    <t>If player wants to draw from crew/leader deck and there are no cards left in players crew/leader deck then shuffle are crew/leader deck cards from stasis back to that deck spot</t>
-  </si>
-  <si>
     <t>If there are no cards left in the strategy deck during the draw phase that player loses and is out of the game</t>
   </si>
   <si>
     <t>A player can only have 1 admiral card in play on their side of the battlefield</t>
   </si>
   <si>
-    <t>Both the strategy deck and crew/leader deck have its own assigned stasis where certain cards go once played</t>
-  </si>
-  <si>
     <t>Controlled deck is the battlefield conditions which affects the battlefield</t>
   </si>
   <si>
@@ -552,13 +518,145 @@
   </si>
   <si>
     <t>No. of</t>
+  </si>
+  <si>
+    <t>Pre Game Rules:</t>
+  </si>
+  <si>
+    <t>Pick a random Player to go first, since they started they don't draw a card from either the crew or strategy decks at the start of turn.</t>
+  </si>
+  <si>
+    <t>A crew member first placed on to a ship can't be used in a gun slot, however they can be used to tap for anything else</t>
+  </si>
+  <si>
+    <t>A crew /leader deck can only contain cards of Type Captain, Leuitenant and Crew</t>
+  </si>
+  <si>
+    <t>First Turn Rules:</t>
+  </si>
+  <si>
+    <t>After the first player, Players can draw either 1 card from the strategy deck, or they can choose the see the top 3 cards of the crew deck and then get to pick 1. The rest get sent to the bottom of the crew deck.</t>
+  </si>
+  <si>
+    <t>In Game Rules</t>
+  </si>
+  <si>
+    <t>A player can only place Crew cards to their ship with an available crew slot unless stated otherwise</t>
+  </si>
+  <si>
+    <t>A player can only play 1 crew member and 1 Captain/Leuitenant per their turn</t>
+  </si>
+  <si>
+    <t>Each players turn consist of the following phases</t>
+  </si>
+  <si>
+    <t>Untap Phase</t>
+  </si>
+  <si>
+    <t>This is where the player untaps all their cards unless stated otherwise</t>
+  </si>
+  <si>
+    <t>Draw Phase</t>
+  </si>
+  <si>
+    <t>This is where the player chooses to draw from their Strategy or Crew Deck</t>
+  </si>
+  <si>
+    <t>Strategy Phase</t>
+  </si>
+  <si>
+    <t>This is where the player can play their cards, tap to gain department resourse or tap cards to use gun slots</t>
+  </si>
+  <si>
+    <t>End Phase</t>
+  </si>
+  <si>
+    <t>At this phase if the player has cards greater than their max hand size then they must discard back down to that size</t>
+  </si>
+  <si>
+    <t>In Game Rules Continued</t>
+  </si>
+  <si>
+    <t>Any department resource not used does NOT get transferred to later turns</t>
+  </si>
+  <si>
+    <t>During the phases players can activate certain types of cards on other players turns</t>
+  </si>
+  <si>
+    <t>Players can draw either 1 card from the strategy deck, or they can choose the see the top 3 cards of the crew deck and then get to pick 1. The rest get sent to the bottom of the crew deck.</t>
+  </si>
+  <si>
+    <t>A ship can only hold x amount of crew members where x is equal to the ships crew slots</t>
+  </si>
+  <si>
+    <t>Some cards might allow a crew card to tap more than one gun slot</t>
+  </si>
+  <si>
+    <t>Gun Slots/Attacking Player Ships</t>
+  </si>
+  <si>
+    <t>Ship Destroyed</t>
+  </si>
+  <si>
+    <t>Once a players ship hull reaches 0 it is destroyed</t>
+  </si>
+  <si>
+    <t>Crew Cards</t>
+  </si>
+  <si>
+    <t>A Crew Card can have various tap abilities, the standard abilities they get are as follows unless stated otherwise:</t>
+  </si>
+  <si>
+    <t>Crew can tap to provide department resource</t>
+  </si>
+  <si>
+    <t>Crew can tap to move from one ship to another ship the player owns</t>
+  </si>
+  <si>
+    <t>Crew can tap to use a gun slot on assigned ship</t>
+  </si>
+  <si>
+    <t>All ship upgrades attached to destroyed ship are sent to the junkyard</t>
+  </si>
+  <si>
+    <t>Each ship will have had assigned amount of escape pods. The player owning the destroyed ship may pick to move that amount of crew with their attachments from the destroyed ship to another ship they own</t>
+  </si>
+  <si>
+    <t>The rest of the crew and crew attachment cards are sent to stasis and the junkyard</t>
+  </si>
+  <si>
+    <t>If player wants to draw from crew/leader deck and there are no cards left in players crew/leader deck then shuffle the crew/leader cards from stasis back to that deck spot and draw</t>
+  </si>
+  <si>
+    <t>If there are less than 3 cards in the crew/eader deck then they draw the rest of the deck, shuffle the stasis pile back to the deck position and draw up to the 3 cards. Then continue process of picking 1 card and putting rest to the stasis pile</t>
+  </si>
+  <si>
+    <t>When a strategy card has been played and doesn’t stay on the field, then that card gets sent to the junkyard</t>
+  </si>
+  <si>
+    <t>Cards in the Junkyard can't be played unless stated otherwise</t>
+  </si>
+  <si>
+    <t>When a crew card is destroyed send it to the stasis pile</t>
+  </si>
+  <si>
+    <t>Crew cards in the stasis pile can't be played unless stated otherwise</t>
+  </si>
+  <si>
+    <t>A rank 1 crew card can be played for free</t>
+  </si>
+  <si>
+    <t>Captain and Leuitenant cards cost department resource to play</t>
+  </si>
+  <si>
+    <t>Crew cards higher than Rank 1 will require at least a sacrifice of a crew card currently in play that you own with a Rank lower than the crew card trying to play</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1023,6 +1121,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1045,11 +1148,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1058,14 +1156,6 @@
     <dxf>
       <fill>
         <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
@@ -1160,15 +1250,23 @@
     <dxf>
       <fill>
         <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1280,13 +1378,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1305,6 +1396,13 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1620,13 +1718,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1663,6 +1754,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1713,9 +1811,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1737,7 +1832,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1748,6 +1842,10 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1792,6 +1890,9 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1835,9 +1936,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1910,6 +2008,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1924,9 +2025,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1963,6 +2061,15 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -2093,7 +2200,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2121,14 +2227,6 @@
     <dxf>
       <fill>
         <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -2233,14 +2331,6 @@
     <dxf>
       <fill>
         <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
@@ -2333,6 +2423,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -2348,20 +2455,11 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2405,6 +2503,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2472,9 +2573,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2610,12 +2708,12 @@
   <autoFilter ref="A9:G14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="128"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="126"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="123" totalsRowDxfId="124"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="121" totalsRowDxfId="122"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="119" totalsRowDxfId="120"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="118"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="128" totalsRowDxfId="127"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="126" totalsRowDxfId="125"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="122" totalsRowDxfId="121"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="120" totalsRowDxfId="119"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="118" totalsRowDxfId="117"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2625,23 +2723,23 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="TblFltCrewSizes" displayName="TblFltCrewSizes" ref="A17:G21" totalsRowCount="1" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A17:G20" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="12" totalsRowDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="A" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="A" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[A])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="B" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="9">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="B" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[B])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="C" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="7">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="C" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[C])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="D" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="5">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="D" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[D])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="E" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="3">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="E" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[E])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2651,26 +2749,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="TblFleetShipValues" displayName="TblFleetShipValues" ref="J9:Q15" totalsRowCount="1" headerRowDxfId="116" dataDxfId="115" totalsRowDxfId="114">
   <autoFilter ref="J9:Q14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Option" totalsRowLabel="Total " dataDxfId="112" totalsRowDxfId="113"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="111">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Option" totalsRowLabel="Total " dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="110">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH(TblFleetShipValues[[#This Row],[Option]],TblBattlefieldFlt[Option],0),MATCH(TblFleetShipValues[[#Headers],[A]],TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipPoints[Points],MATCH(TblFleetShipValues[[#This Row],[Option]],TblShipPoints[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="109">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="109" totalsRowDxfId="108">
       <calculatedColumnFormula>C10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="106" totalsRowDxfId="107">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="107" totalsRowDxfId="106">
       <calculatedColumnFormula>D10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="104" totalsRowDxfId="105">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="105" totalsRowDxfId="104">
       <calculatedColumnFormula>E10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="103">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="103" totalsRowDxfId="102">
       <calculatedColumnFormula>F10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="100" totalsRowDxfId="101">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="101" totalsRowDxfId="100">
       <calculatedColumnFormula>G10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Name" dataDxfId="98" totalsRowDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Name" dataDxfId="99" totalsRowDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2693,26 +2791,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TblAdjFleetRolesValues" displayName="TblAdjFleetRolesValues" ref="A24:H30" totalsRowCount="1" headerRowDxfId="91" dataDxfId="90" totalsRowDxfId="89">
   <autoFilter ref="A24:H29" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="87" totalsRowDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="85" totalsRowDxfId="86">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="86" totalsRowDxfId="85">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(B$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="84">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="84" totalsRowDxfId="83">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(C$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="82">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="82" totalsRowDxfId="81">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(D$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="80">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="80" totalsRowDxfId="79">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(E$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="78">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="78" totalsRowDxfId="77">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(F$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="76">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="76" totalsRowDxfId="75">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(G$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Name" dataDxfId="73" totalsRowDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Name" dataDxfId="74" totalsRowDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2723,11 +2821,11 @@
   <autoFilter ref="A32:G42" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Option" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="70" totalsRowDxfId="71">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="70">
       <calculatedColumnFormula>K10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="68" totalsRowDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="D" totalsRowFunction="sum" totalsRowDxfId="65"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="E" totalsRowFunction="sum" totalsRowDxfId="64"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="F" totalsRowFunction="sum" totalsRowDxfId="63"/>
@@ -2741,25 +2839,25 @@
   <autoFilter ref="J24:Q29" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="59">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(K$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="57">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(L$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="55">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(M$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="53">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(N$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="51">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(O$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="49">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(P$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Name" dataDxfId="46" totalsRowDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Name" dataDxfId="47" totalsRowDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2770,11 +2868,11 @@
   <autoFilter ref="J32:P42" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Option" totalsRowLabel="Total" totalsRowDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="43">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>T10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="D" totalsRowFunction="sum" totalsRowDxfId="37"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="E" totalsRowFunction="sum" totalsRowDxfId="36"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="F" totalsRowFunction="sum" totalsRowDxfId="35"/>
@@ -2784,7 +2882,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="TblShipCrew" displayName="TblShipCrew" ref="D2:L7" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" headerRowBorderDxfId="31" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="TblShipCrew" displayName="TblShipCrew" ref="D2:L7" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
   <autoFilter ref="D2:L7" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Ships" dataDxfId="30"/>
@@ -2812,7 +2910,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="TblShipPoints" displayName="TblShipPoints" ref="A2:B7" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="TblShipPoints" displayName="TblShipPoints" ref="A2:B7" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
   <autoFilter ref="A2:B7" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Ships" dataDxfId="17"/>
@@ -3125,7 +3223,7 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="15.42578125" customWidth="1"/>
@@ -3143,24 +3241,24 @@
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="N1" s="42" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="N1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -3207,7 +3305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
@@ -3260,7 +3358,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
@@ -3301,7 +3399,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
@@ -3342,7 +3440,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
@@ -3383,7 +3481,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3424,28 +3522,28 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="42" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="J8" s="42" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="J8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -3493,7 +3591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3537,7 +3635,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3583,7 +3681,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3631,7 +3729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3677,7 +3775,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3725,7 +3823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -3782,16 +3880,16 @@
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="42" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -3800,7 +3898,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -3833,7 +3931,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -3872,7 +3970,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -3911,7 +4009,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -3950,7 +4048,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -3987,7 +4085,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -4007,30 +4105,30 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="42" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="42" t="s">
+      <c r="J23" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
@@ -4081,7 +4179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -4144,7 +4242,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -4207,7 +4305,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -4270,7 +4368,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -4333,7 +4431,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -4396,7 +4494,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -4455,28 +4553,28 @@
       </c>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="42" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="42" t="s">
+      <c r="J31" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -4521,7 +4619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -4578,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -4635,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -4692,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -4749,7 +4847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -4806,7 +4904,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -4863,7 +4961,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -4920,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -4977,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -5034,7 +5132,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -5091,7 +5189,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -5148,17 +5246,17 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
     </row>
   </sheetData>
@@ -5198,11 +5296,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91273792-62E9-442E-9CC7-E8C6E6BD4008}">
   <dimension ref="B1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -5213,12 +5311,12 @@
     <col min="13" max="13" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="M1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="2:22">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
@@ -5259,7 +5357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:22">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>13</v>
       </c>
@@ -5320,7 +5418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:22">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
         <v>14</v>
       </c>
@@ -5349,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:O14" si="0">M4*100</f>
+        <f t="shared" ref="N4:N14" si="0">M4*100</f>
         <v>100</v>
       </c>
       <c r="O4">
@@ -5381,7 +5479,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:22">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
         <v>15</v>
       </c>
@@ -5435,7 +5533,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="2:22">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
         <v>16</v>
       </c>
@@ -5489,7 +5587,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="2:22">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
         <v>17</v>
       </c>
@@ -5536,7 +5634,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="2:22">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L8">
         <v>6</v>
       </c>
@@ -5562,7 +5660,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="2:22">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L9">
         <v>7</v>
       </c>
@@ -5581,7 +5679,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="2:22">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>56</v>
       </c>
@@ -5603,7 +5701,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="2:22">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
         <v>57</v>
       </c>
@@ -5637,7 +5735,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="2:22" ht="76.5">
+    <row r="12" spans="2:22" ht="75" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>62</v>
       </c>
@@ -5664,7 +5762,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="2:22">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L13">
         <v>11</v>
       </c>
@@ -5676,7 +5774,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="2:22">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L14">
         <v>12</v>
       </c>
@@ -5688,7 +5786,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="2:22">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
         <v>2</v>
       </c>
@@ -5705,7 +5803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:22">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
         <v>13</v>
       </c>
@@ -5722,7 +5820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
         <v>14</v>
       </c>
@@ -5739,7 +5837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
         <v>15</v>
       </c>
@@ -5756,7 +5854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
         <v>16</v>
       </c>
@@ -5773,7 +5871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>17</v>
       </c>
@@ -5790,17 +5888,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="36" t="s">
         <v>20</v>
       </c>
@@ -5826,7 +5924,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="38" t="s">
         <v>13</v>
       </c>
@@ -5842,7 +5940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="40" t="s">
         <v>14</v>
       </c>
@@ -5860,7 +5958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="38" t="s">
         <v>15</v>
       </c>
@@ -5880,7 +5978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="40" t="s">
         <v>16</v>
       </c>
@@ -5898,7 +5996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="38" t="s">
         <v>17</v>
       </c>
@@ -5918,7 +6016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C29">
         <f>C24*G3*F3</f>
         <v>1000</v>
@@ -5957,9 +6055,9 @@
       <selection activeCell="P25" sqref="P24:Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:19">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D1">
         <v>38</v>
       </c>
@@ -5982,7 +6080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:19">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
         <v>58</v>
       </c>
@@ -5990,20 +6088,20 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:19">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50" t="s">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
       <c r="N3" s="21" t="s">
         <v>2</v>
       </c>
@@ -6023,8 +6121,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="2:19">
-      <c r="B4" s="53" t="s">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="45" t="s">
         <v>69</v>
       </c>
       <c r="N4" s="25" t="s">
@@ -6046,8 +6144,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:19">
-      <c r="B5" s="51" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="43" t="s">
         <v>70</v>
       </c>
       <c r="N5" s="26" t="s">
@@ -6069,8 +6167,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:19">
-      <c r="B6" s="53" t="s">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="45" t="s">
         <v>71</v>
       </c>
       <c r="N6" s="27" t="s">
@@ -6092,7 +6190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:19">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>72</v>
       </c>
@@ -6115,7 +6213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:19">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G8" s="6" t="s">
         <v>13</v>
       </c>
@@ -6138,7 +6236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:19">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="N10" s="19" t="s">
         <v>57</v>
       </c>
@@ -6155,74 +6253,74 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="2:19">
-      <c r="C15" s="52" t="s">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C15" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="44" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="52" t="s">
+      <c r="I15" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="52" t="s">
+      <c r="K15" s="44" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:19">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="P16">
         <f ca="1">RANDBETWEEN(0,123)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="P17" s="54">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P17" s="46">
         <f ca="1">RANDBETWEEN(0,6)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="C18" s="52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C18" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="52" t="s">
+      <c r="I18" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="52" t="s">
+      <c r="K18" s="44" t="s">
         <v>17</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
-      <c r="L19" s="53" t="s">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L19" s="45" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
-      <c r="E20" s="52" t="s">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E20" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="52" t="s">
+      <c r="I20" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="51" t="s">
+      <c r="L20" s="43" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
-      <c r="L21" s="53" t="s">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L21" s="45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -6237,7 +6335,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E24">
         <v>64</v>
       </c>
@@ -6260,7 +6358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K25" t="s">
         <v>58</v>
       </c>
@@ -6275,169 +6373,331 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EC53A5-8F19-4711-93EA-0F4CBD261EC8}">
-  <dimension ref="B2:B31"/>
+  <dimension ref="B2:B72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="54" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="54"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="54"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6449,56 +6709,56 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -6514,194 +6774,194 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="B4" s="53"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="53"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B6" s="53"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B7" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B8" s="53"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B9" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C9" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D9" s="28" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="106.5" customHeight="1">
-      <c r="B3" s="45" t="s">
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="51"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="43" t="s">
+    </row>
+    <row r="11" spans="2:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="C11" s="48" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" ht="106.5">
-      <c r="B4" s="48"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="60.75">
-      <c r="B5" s="48"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="30" t="s">
+    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="53"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="76.5">
-      <c r="B6" s="48"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="30" t="s">
+    <row r="13" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="50" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="91.5">
-      <c r="B7" s="45" t="s">
+      <c r="C13" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="D13" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="28" t="s">
+    </row>
+    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="53"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="91.5">
-      <c r="B8" s="48"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="30" t="s">
+    <row r="15" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="53"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="30" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="76.5">
-      <c r="B9" s="45" t="s">
+    <row r="16" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B16" s="53"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="43" t="s">
+    </row>
+    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="C17" s="48" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="30.75">
-      <c r="B10" s="46"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="31" t="s">
+      <c r="D17" s="28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="76.5" customHeight="1">
-      <c r="B11" s="45" t="s">
+    <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="53"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="43" t="s">
+    </row>
+    <row r="19" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="C19" s="48" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" ht="30.75">
-      <c r="B12" s="48"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="30" t="s">
+      <c r="D19" s="28" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="45.75">
-      <c r="B13" s="45" t="s">
+    <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="53"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="43" t="s">
+    </row>
+    <row r="21" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="C21" s="48" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="30.75">
-      <c r="B14" s="48"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="30" t="s">
+      <c r="D21" s="28" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="45.75">
-      <c r="B15" s="48"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="30" t="s">
+    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="51"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="31" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="60.75">
-      <c r="B16" s="48"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="45.75">
-      <c r="B17" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="45.75">
-      <c r="B18" s="48"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="60.75" customHeight="1">
-      <c r="B19" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="30.75">
-      <c r="B20" s="48"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="45.75">
-      <c r="B21" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="30.75">
-      <c r="B22" s="46"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="31" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -6735,7 +6995,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -6745,33 +7005,33 @@
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19">
-      <c r="A2" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="F2" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-    </row>
-    <row r="3" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="F2" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6787,54 +7047,54 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B5">
         <f>SUM(C10:C14)</f>
         <v>5000</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="G5">
         <f>SUM(H10:H14)</f>
         <v>7500</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B6">
         <f>SUM(C17:C19)</f>
         <v>2000</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="G6">
         <f>SUM(H17:H19)</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C7" s="17"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C8" s="17"/>
       <c r="H8" s="17"/>
       <c r="Q8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>3</v>
@@ -6843,7 +7103,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>3</v>
@@ -6860,7 +7120,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>13</v>
       </c>
@@ -6895,7 +7155,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>14</v>
       </c>
@@ -6932,7 +7192,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
@@ -6969,7 +7229,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>16</v>
       </c>
@@ -7004,7 +7264,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>17</v>
       </c>
@@ -7028,27 +7288,27 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>4</v>
       </c>
@@ -7072,7 +7332,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>5</v>
       </c>
@@ -7096,7 +7356,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>6</v>
       </c>

--- a/ShipCardGameCalcs.xlsx
+++ b/ShipCardGameCalcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DAF753-3355-4F68-B221-8E532364658F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C7D053-EF0D-456D-AAFD-1BF2AD9DFFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="191">
   <si>
     <t>Ship Parameters</t>
   </si>
@@ -650,6 +650,9 @@
   </si>
   <si>
     <t>Crew cards higher than Rank 1 will require at least a sacrifice of a crew card currently in play that you own with a Rank lower than the crew card trying to play</t>
+  </si>
+  <si>
+    <t>You Strategy and card decks can only contain 4 duplicates of any card</t>
   </si>
 </sst>
 </file>
@@ -697,7 +700,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1028,7 +1031,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1147,7 +1150,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3220,7 +3222,7 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5297,7 +5299,7 @@
   <dimension ref="B1:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6273,13 +6275,13 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="P16">
         <f ca="1">RANDBETWEEN(0,123)</f>
-        <v>103</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P17" s="46">
         <f ca="1">RANDBETWEEN(0,6)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -6373,10 +6375,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EC53A5-8F19-4711-93EA-0F4CBD261EC8}">
-  <dimension ref="B2:B72"/>
+  <dimension ref="B2:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6429,269 +6431,268 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="54" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="54"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="54" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="54"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="54" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>181</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="3" t="s">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>169</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="3" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>88</v>
       </c>
     </row>

--- a/ShipCardGameCalcs.xlsx
+++ b/ShipCardGameCalcs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C7D053-EF0D-456D-AAFD-1BF2AD9DFFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CAF5471-AA79-41FB-8CC4-B0B4A5BB074C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="194">
   <si>
     <t>Ship Parameters</t>
   </si>
@@ -307,6 +307,9 @@
     <t>Game Rules</t>
   </si>
   <si>
+    <t>Pre Game Rules:</t>
+  </si>
+  <si>
     <t>When picking ships at start of turn player must have at least 1 ship that can have a Captain and players picked ships must equal the ship total game points</t>
   </si>
   <si>
@@ -322,10 +325,82 @@
     <t>A player gets 1 free mulligan but if they choose to mulligan anymore times than that they reduce the amount of cards drawn from strategy deck by 1 each time. Down to a minimum of 1 card from their strategy deck and 2 from their leader deck</t>
   </si>
   <si>
+    <t>A crew /leader deck can only contain cards of Type Captain, Leuitenant and Crew</t>
+  </si>
+  <si>
+    <t>The strategy deck has every other card</t>
+  </si>
+  <si>
+    <t>You Strategy and card decks can only contain 4 duplicates of any card</t>
+  </si>
+  <si>
+    <t>First Turn Rules:</t>
+  </si>
+  <si>
+    <t>Pick a random Player to go first, since they started they don't draw a card from either the crew or strategy decks at the start of turn.</t>
+  </si>
+  <si>
+    <t>After the first player, Players can draw either 1 card from the strategy deck, or they can choose the see the top 3 cards of the crew deck and then get to pick 1. The rest get sent to the bottom of the crew deck.</t>
+  </si>
+  <si>
+    <t>In Game Rules</t>
+  </si>
+  <si>
     <t>Max player hand size is 8 (unless card in play says otherwise)</t>
   </si>
   <si>
-    <t>The strategy deck has every other card</t>
+    <t>A player can only place Crew cards to their ship with an available crew slot unless stated otherwise</t>
+  </si>
+  <si>
+    <t>A crew member first placed on to a ship can't be used in a gun slot, however they can be used to tap for anything else</t>
+  </si>
+  <si>
+    <t>A player can only play 1 crew member and 1 Captain/Leuitenant per their turn</t>
+  </si>
+  <si>
+    <t>Each players turn consist of the following phases</t>
+  </si>
+  <si>
+    <t>Untap Phase</t>
+  </si>
+  <si>
+    <t>This is where the player untaps all their cards unless stated otherwise</t>
+  </si>
+  <si>
+    <t>Any of your ships shield damaged, restore 100 shield</t>
+  </si>
+  <si>
+    <t>Draw Phase</t>
+  </si>
+  <si>
+    <t>This is where the player chooses to draw from their Strategy or Crew Deck</t>
+  </si>
+  <si>
+    <t>Players can draw either 1 card from the strategy deck, or they can choose the see the top 3 cards of the crew deck and then get to pick 1. The rest get sent to the bottom of the crew deck.</t>
+  </si>
+  <si>
+    <t>Strategy Phase</t>
+  </si>
+  <si>
+    <t>This is where the player can play their cards, tap to gain department resourse or tap cards to use gun slots</t>
+  </si>
+  <si>
+    <t>End Phase</t>
+  </si>
+  <si>
+    <t>At this phase if the player has cards greater than their max hand size then they must discard back down to that size</t>
+  </si>
+  <si>
+    <t>Any department resource not used does NOT get transferred to later turns</t>
+  </si>
+  <si>
+    <t>In Game Rules Continued</t>
+  </si>
+  <si>
+    <t>During the phases players can activate certain types of cards on other players turns</t>
+  </si>
+  <si>
+    <t>A ship can only hold x amount of crew members where x is equal to the ships crew slots</t>
   </si>
   <si>
     <t>A ship can only hold x amount of Captains where x is equal to ships Captains slots</t>
@@ -334,27 +409,96 @@
     <t>A ship can only hold x amount of Leuitenant where x is equal to ships Leuitenant slots</t>
   </si>
   <si>
+    <t>If player wants to draw from crew/leader deck and there are no cards left in players crew/leader deck then shuffle the crew/leader cards from stasis back to that deck spot and draw</t>
+  </si>
+  <si>
+    <t>If there are less than 3 cards in the crew/eader deck then they draw the rest of the deck, shuffle the stasis pile back to the deck position and draw up to the 3 cards. Then continue process of picking 1 card and putting rest to the stasis pile</t>
+  </si>
+  <si>
+    <t>If there are no cards left in the strategy deck during the draw phase that player loses and is out of the game</t>
+  </si>
+  <si>
+    <t>A player can only have 1 admiral card in play on their side of the battlefield</t>
+  </si>
+  <si>
+    <t>When a strategy card has been played and doesn’t stay on the field, then that card gets sent to the junkyard</t>
+  </si>
+  <si>
+    <t>Cards in the Junkyard can't be played unless stated otherwise</t>
+  </si>
+  <si>
+    <t>Crew cards in the stasis pile can't be played unless stated otherwise</t>
+  </si>
+  <si>
+    <t>Crew Cards</t>
+  </si>
+  <si>
+    <t>A Crew Card can have various tap abilities, the standard abilities they get are as follows unless stated otherwise:</t>
+  </si>
+  <si>
+    <t>Crew can tap to provide department resource</t>
+  </si>
+  <si>
+    <t>Crew can tap to use a gun slot on assigned ship</t>
+  </si>
+  <si>
+    <t>Crew can tap to move from one ship to another ship the player owns</t>
+  </si>
+  <si>
+    <t>When a crew card is destroyed send it to the stasis pile</t>
+  </si>
+  <si>
+    <t>A rank 1 crew card can be played for free</t>
+  </si>
+  <si>
+    <t>Crew cards higher than Rank 1 will require at least a sacrifice of a crew card currently in play that you own with a Rank lower than the crew card trying to play</t>
+  </si>
+  <si>
+    <t>Captain and Leuitenant cards cost department resource to play</t>
+  </si>
+  <si>
+    <t>Gun Slots/Attacking Player Ships</t>
+  </si>
+  <si>
     <t>A crew type card has a 1 to 1 relationship when being tapped to a gun slot. Meaning you can't tap more than 1 crew card type to the same gun slot on the same turn.</t>
   </si>
   <si>
+    <t>Some cards might allow a crew card to tap more than one gun slot</t>
+  </si>
+  <si>
     <t>When crew type card is being used to a gun slot, it will deal damage to the players ship shield, if the players ship shield is at 0 or deactivated then it will deal damage to the players ship hull</t>
   </si>
   <si>
+    <t>Taking Damage</t>
+  </si>
+  <si>
+    <t>When a ship takes hull damage, sacrifice 1 crew member from ship. Only do this once per strategy phase</t>
+  </si>
+  <si>
+    <t>Ship Destroyed</t>
+  </si>
+  <si>
+    <t>Once a players ship hull reaches 0 it is destroyed</t>
+  </si>
+  <si>
     <t>Once a players ship is destroyed remove the ship card from play</t>
   </si>
   <si>
+    <t>All ship upgrades attached to destroyed ship are sent to the junkyard</t>
+  </si>
+  <si>
+    <t>Each ship will have had assigned amount of escape pods. The player owning the destroyed ship may pick to move that amount of crew with their attachments from the destroyed ship to another ship they own</t>
+  </si>
+  <si>
+    <t>The rest of the crew and crew attachment cards are sent to stasis and the junkyard</t>
+  </si>
+  <si>
     <t>Once all of a players ship is destroyed they lose and are out of the game</t>
   </si>
   <si>
     <t>When only 1 player remains in the game they win</t>
   </si>
   <si>
-    <t>If there are no cards left in the strategy deck during the draw phase that player loses and is out of the game</t>
-  </si>
-  <si>
-    <t>A player can only have 1 admiral card in play on their side of the battlefield</t>
-  </si>
-  <si>
     <t>Controlled deck is the battlefield conditions which affects the battlefield</t>
   </si>
   <si>
@@ -518,148 +662,13 @@
   </si>
   <si>
     <t>No. of</t>
-  </si>
-  <si>
-    <t>Pre Game Rules:</t>
-  </si>
-  <si>
-    <t>Pick a random Player to go first, since they started they don't draw a card from either the crew or strategy decks at the start of turn.</t>
-  </si>
-  <si>
-    <t>A crew member first placed on to a ship can't be used in a gun slot, however they can be used to tap for anything else</t>
-  </si>
-  <si>
-    <t>A crew /leader deck can only contain cards of Type Captain, Leuitenant and Crew</t>
-  </si>
-  <si>
-    <t>First Turn Rules:</t>
-  </si>
-  <si>
-    <t>After the first player, Players can draw either 1 card from the strategy deck, or they can choose the see the top 3 cards of the crew deck and then get to pick 1. The rest get sent to the bottom of the crew deck.</t>
-  </si>
-  <si>
-    <t>In Game Rules</t>
-  </si>
-  <si>
-    <t>A player can only place Crew cards to their ship with an available crew slot unless stated otherwise</t>
-  </si>
-  <si>
-    <t>A player can only play 1 crew member and 1 Captain/Leuitenant per their turn</t>
-  </si>
-  <si>
-    <t>Each players turn consist of the following phases</t>
-  </si>
-  <si>
-    <t>Untap Phase</t>
-  </si>
-  <si>
-    <t>This is where the player untaps all their cards unless stated otherwise</t>
-  </si>
-  <si>
-    <t>Draw Phase</t>
-  </si>
-  <si>
-    <t>This is where the player chooses to draw from their Strategy or Crew Deck</t>
-  </si>
-  <si>
-    <t>Strategy Phase</t>
-  </si>
-  <si>
-    <t>This is where the player can play their cards, tap to gain department resourse or tap cards to use gun slots</t>
-  </si>
-  <si>
-    <t>End Phase</t>
-  </si>
-  <si>
-    <t>At this phase if the player has cards greater than their max hand size then they must discard back down to that size</t>
-  </si>
-  <si>
-    <t>In Game Rules Continued</t>
-  </si>
-  <si>
-    <t>Any department resource not used does NOT get transferred to later turns</t>
-  </si>
-  <si>
-    <t>During the phases players can activate certain types of cards on other players turns</t>
-  </si>
-  <si>
-    <t>Players can draw either 1 card from the strategy deck, or they can choose the see the top 3 cards of the crew deck and then get to pick 1. The rest get sent to the bottom of the crew deck.</t>
-  </si>
-  <si>
-    <t>A ship can only hold x amount of crew members where x is equal to the ships crew slots</t>
-  </si>
-  <si>
-    <t>Some cards might allow a crew card to tap more than one gun slot</t>
-  </si>
-  <si>
-    <t>Gun Slots/Attacking Player Ships</t>
-  </si>
-  <si>
-    <t>Ship Destroyed</t>
-  </si>
-  <si>
-    <t>Once a players ship hull reaches 0 it is destroyed</t>
-  </si>
-  <si>
-    <t>Crew Cards</t>
-  </si>
-  <si>
-    <t>A Crew Card can have various tap abilities, the standard abilities they get are as follows unless stated otherwise:</t>
-  </si>
-  <si>
-    <t>Crew can tap to provide department resource</t>
-  </si>
-  <si>
-    <t>Crew can tap to move from one ship to another ship the player owns</t>
-  </si>
-  <si>
-    <t>Crew can tap to use a gun slot on assigned ship</t>
-  </si>
-  <si>
-    <t>All ship upgrades attached to destroyed ship are sent to the junkyard</t>
-  </si>
-  <si>
-    <t>Each ship will have had assigned amount of escape pods. The player owning the destroyed ship may pick to move that amount of crew with their attachments from the destroyed ship to another ship they own</t>
-  </si>
-  <si>
-    <t>The rest of the crew and crew attachment cards are sent to stasis and the junkyard</t>
-  </si>
-  <si>
-    <t>If player wants to draw from crew/leader deck and there are no cards left in players crew/leader deck then shuffle the crew/leader cards from stasis back to that deck spot and draw</t>
-  </si>
-  <si>
-    <t>If there are less than 3 cards in the crew/eader deck then they draw the rest of the deck, shuffle the stasis pile back to the deck position and draw up to the 3 cards. Then continue process of picking 1 card and putting rest to the stasis pile</t>
-  </si>
-  <si>
-    <t>When a strategy card has been played and doesn’t stay on the field, then that card gets sent to the junkyard</t>
-  </si>
-  <si>
-    <t>Cards in the Junkyard can't be played unless stated otherwise</t>
-  </si>
-  <si>
-    <t>When a crew card is destroyed send it to the stasis pile</t>
-  </si>
-  <si>
-    <t>Crew cards in the stasis pile can't be played unless stated otherwise</t>
-  </si>
-  <si>
-    <t>A rank 1 crew card can be played for free</t>
-  </si>
-  <si>
-    <t>Captain and Leuitenant cards cost department resource to play</t>
-  </si>
-  <si>
-    <t>Crew cards higher than Rank 1 will require at least a sacrifice of a crew card currently in play that you own with a Rank lower than the crew card trying to play</t>
-  </si>
-  <si>
-    <t>You Strategy and card decks can only contain 4 duplicates of any card</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1031,7 +1040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1150,6 +1159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1158,6 +1168,14 @@
     <dxf>
       <fill>
         <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
@@ -1252,23 +1270,15 @@
     <dxf>
       <fill>
         <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1380,6 +1390,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1398,13 +1415,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1720,6 +1730,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1756,13 +1773,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1813,6 +1823,9 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1834,6 +1847,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1844,10 +1858,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1892,9 +1902,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1938,6 +1945,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2010,9 +2020,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2027,6 +2034,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2063,6 +2073,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2072,6 +2083,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -2184,24 +2204,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2229,6 +2231,14 @@
     <dxf>
       <fill>
         <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -2333,6 +2343,14 @@
     <dxf>
       <fill>
         <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
@@ -2425,6 +2443,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <bgColor indexed="65"/>
@@ -2442,26 +2461,17 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2505,6 +2515,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2566,15 +2585,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2710,12 +2720,12 @@
   <autoFilter ref="A9:G14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="128" totalsRowDxfId="127"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="126" totalsRowDxfId="125"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="124" totalsRowDxfId="123"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="122" totalsRowDxfId="121"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="120" totalsRowDxfId="119"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="118" totalsRowDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="128"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="126"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="123" totalsRowDxfId="124"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="121" totalsRowDxfId="122"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="119" totalsRowDxfId="120"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2725,23 +2735,23 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="TblFltCrewSizes" displayName="TblFltCrewSizes" ref="A17:G21" totalsRowCount="1" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A17:G20" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="A" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="12" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="A" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="11">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[A])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="B" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="B" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="9">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[B])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="C" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="C" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="7">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[C])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="D" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="D" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="5">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[D])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="E" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="E" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="3">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[E])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2751,26 +2761,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="TblFleetShipValues" displayName="TblFleetShipValues" ref="J9:Q15" totalsRowCount="1" headerRowDxfId="116" dataDxfId="115" totalsRowDxfId="114">
   <autoFilter ref="J9:Q14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Option" totalsRowLabel="Total " dataDxfId="113" totalsRowDxfId="112"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="110">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Option" totalsRowLabel="Total " dataDxfId="112" totalsRowDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="111">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH(TblFleetShipValues[[#This Row],[Option]],TblBattlefieldFlt[Option],0),MATCH(TblFleetShipValues[[#Headers],[A]],TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipPoints[Points],MATCH(TblFleetShipValues[[#This Row],[Option]],TblShipPoints[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="109" totalsRowDxfId="108">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="109">
       <calculatedColumnFormula>C10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="107" totalsRowDxfId="106">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="106" totalsRowDxfId="107">
       <calculatedColumnFormula>D10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="105" totalsRowDxfId="104">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="104" totalsRowDxfId="105">
       <calculatedColumnFormula>E10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="103" totalsRowDxfId="102">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="103">
       <calculatedColumnFormula>F10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="101" totalsRowDxfId="100">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="100" totalsRowDxfId="101">
       <calculatedColumnFormula>G10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Name" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Name" dataDxfId="98" totalsRowDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2793,26 +2803,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TblAdjFleetRolesValues" displayName="TblAdjFleetRolesValues" ref="A24:H30" totalsRowCount="1" headerRowDxfId="91" dataDxfId="90" totalsRowDxfId="89">
   <autoFilter ref="A24:H29" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="86" totalsRowDxfId="85">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="87" totalsRowDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="85" totalsRowDxfId="86">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(B$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="84" totalsRowDxfId="83">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="84">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(C$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="82" totalsRowDxfId="81">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="82">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(D$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="80" totalsRowDxfId="79">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="80">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(E$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="78" totalsRowDxfId="77">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="78">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(F$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="76" totalsRowDxfId="75">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="76">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(G$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Name" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Name" dataDxfId="73" totalsRowDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2823,11 +2833,11 @@
   <autoFilter ref="A32:G42" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Option" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="70">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="70" totalsRowDxfId="71">
       <calculatedColumnFormula>K10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="68" totalsRowDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="67"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="D" totalsRowFunction="sum" totalsRowDxfId="65"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="E" totalsRowFunction="sum" totalsRowDxfId="64"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="F" totalsRowFunction="sum" totalsRowDxfId="63"/>
@@ -2841,25 +2851,25 @@
   <autoFilter ref="J24:Q29" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="59">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(K$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="57">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(L$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="55">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(M$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="53">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(N$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="51">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(O$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="49">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(P$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Name" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Name" dataDxfId="46" totalsRowDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2870,11 +2880,11 @@
   <autoFilter ref="J32:P42" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Option" totalsRowLabel="Total" totalsRowDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="43">
       <calculatedColumnFormula>T10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="39"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="D" totalsRowFunction="sum" totalsRowDxfId="37"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="E" totalsRowFunction="sum" totalsRowDxfId="36"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="F" totalsRowFunction="sum" totalsRowDxfId="35"/>
@@ -2884,7 +2894,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="TblShipCrew" displayName="TblShipCrew" ref="D2:L7" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="TblShipCrew" displayName="TblShipCrew" ref="D2:L7" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" headerRowBorderDxfId="31" tableBorderDxfId="32">
   <autoFilter ref="D2:L7" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Ships" dataDxfId="30"/>
@@ -2912,7 +2922,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="TblShipPoints" displayName="TblShipPoints" ref="A2:B7" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="TblShipPoints" displayName="TblShipPoints" ref="A2:B7" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
   <autoFilter ref="A2:B7" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Ships" dataDxfId="17"/>
@@ -3225,7 +3235,7 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="15.42578125" customWidth="1"/>
@@ -3243,7 +3253,7 @@
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -3260,7 +3270,7 @@
       <c r="O1" s="47"/>
       <c r="P1" s="47"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -3307,7 +3317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
@@ -3360,7 +3370,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
@@ -3401,7 +3411,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
@@ -3442,7 +3452,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
@@ -3483,7 +3493,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3524,7 +3534,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="47" t="s">
         <v>18</v>
       </c>
@@ -3545,7 +3555,7 @@
       <c r="P8" s="47"/>
       <c r="Q8" s="47"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -3593,7 +3603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3637,7 +3647,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3683,7 +3693,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3731,7 +3741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3777,7 +3787,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3825,7 +3835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -3882,7 +3892,7 @@
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="47" t="s">
         <v>35</v>
       </c>
@@ -3900,7 +3910,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -3933,7 +3943,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -3972,7 +3982,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -4011,7 +4021,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -4050,7 +4060,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -4087,7 +4097,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -4107,7 +4117,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="47" t="s">
         <v>40</v>
       </c>
@@ -4130,7 +4140,7 @@
       <c r="P23" s="47"/>
       <c r="Q23" s="47"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
@@ -4181,7 +4191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -4244,7 +4254,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -4307,7 +4317,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -4370,7 +4380,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -4433,7 +4443,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -4496,7 +4506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -4555,7 +4565,7 @@
       </c>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31" s="47" t="s">
         <v>47</v>
       </c>
@@ -4576,7 +4586,7 @@
       <c r="O31" s="47"/>
       <c r="P31" s="47"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -4621,7 +4631,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -4678,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -4735,7 +4745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -4792,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -4849,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -4906,7 +4916,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -4963,7 +4973,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -5020,7 +5030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -5077,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -5134,7 +5144,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -5191,7 +5201,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -5248,17 +5258,17 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2">
       <c r="B51" s="1"/>
     </row>
   </sheetData>
@@ -5302,7 +5312,7 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -5313,12 +5323,12 @@
     <col min="13" max="13" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22">
       <c r="M1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22">
       <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
@@ -5359,7 +5369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22">
       <c r="B3" s="25" t="s">
         <v>13</v>
       </c>
@@ -5420,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22">
       <c r="B4" s="26" t="s">
         <v>14</v>
       </c>
@@ -5481,7 +5491,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22">
       <c r="B5" s="27" t="s">
         <v>15</v>
       </c>
@@ -5535,7 +5545,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22">
       <c r="B6" s="26" t="s">
         <v>16</v>
       </c>
@@ -5589,7 +5599,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22">
       <c r="B7" s="27" t="s">
         <v>17</v>
       </c>
@@ -5636,7 +5646,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22">
       <c r="L8">
         <v>6</v>
       </c>
@@ -5662,7 +5672,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22">
       <c r="L9">
         <v>7</v>
       </c>
@@ -5681,7 +5691,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22">
       <c r="B10" t="s">
         <v>56</v>
       </c>
@@ -5703,7 +5713,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22">
       <c r="B11" s="19" t="s">
         <v>57</v>
       </c>
@@ -5737,7 +5747,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="2:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" ht="75">
       <c r="B12" s="20" t="s">
         <v>62</v>
       </c>
@@ -5764,7 +5774,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22">
       <c r="L13">
         <v>11</v>
       </c>
@@ -5776,7 +5786,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22">
       <c r="L14">
         <v>12</v>
       </c>
@@ -5788,7 +5798,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22">
       <c r="B15" s="21" t="s">
         <v>2</v>
       </c>
@@ -5805,7 +5815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22">
       <c r="B16" s="22" t="s">
         <v>13</v>
       </c>
@@ -5822,7 +5832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" s="23" t="s">
         <v>14</v>
       </c>
@@ -5839,7 +5849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" s="22" t="s">
         <v>15</v>
       </c>
@@ -5856,7 +5866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" s="23" t="s">
         <v>16</v>
       </c>
@@ -5873,7 +5883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12">
       <c r="B20" s="22" t="s">
         <v>17</v>
       </c>
@@ -5890,17 +5900,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12">
       <c r="L21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="L22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="B23" s="36" t="s">
         <v>20</v>
       </c>
@@ -5926,7 +5936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="B24" s="38" t="s">
         <v>13</v>
       </c>
@@ -5942,7 +5952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="B25" s="40" t="s">
         <v>14</v>
       </c>
@@ -5960,7 +5970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12">
       <c r="B26" s="38" t="s">
         <v>15</v>
       </c>
@@ -5980,7 +5990,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="B27" s="40" t="s">
         <v>16</v>
       </c>
@@ -5998,7 +6008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12">
       <c r="B28" s="38" t="s">
         <v>17</v>
       </c>
@@ -6018,7 +6028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12">
       <c r="C29">
         <f>C24*G3*F3</f>
         <v>1000</v>
@@ -6057,9 +6067,9 @@
       <selection activeCell="P25" sqref="P24:Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19">
       <c r="D1">
         <v>38</v>
       </c>
@@ -6082,7 +6092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19">
       <c r="J2" t="s">
         <v>58</v>
       </c>
@@ -6090,7 +6100,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19">
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
@@ -6123,7 +6133,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19">
       <c r="B4" s="45" t="s">
         <v>69</v>
       </c>
@@ -6146,7 +6156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19">
       <c r="B5" s="43" t="s">
         <v>70</v>
       </c>
@@ -6169,7 +6179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19">
       <c r="B6" s="45" t="s">
         <v>71</v>
       </c>
@@ -6192,7 +6202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19">
       <c r="B7" s="6" t="s">
         <v>72</v>
       </c>
@@ -6215,7 +6225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19">
       <c r="G8" s="6" t="s">
         <v>13</v>
       </c>
@@ -6238,7 +6248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19">
       <c r="N10" s="19" t="s">
         <v>57</v>
       </c>
@@ -6255,7 +6265,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19">
       <c r="C15" s="44" t="s">
         <v>17</v>
       </c>
@@ -6272,19 +6282,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19">
       <c r="P16">
         <f ca="1">RANDBETWEEN(0,123)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
       <c r="P17" s="46">
         <f ca="1">RANDBETWEEN(0,6)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
       <c r="C18" s="44" t="s">
         <v>17</v>
       </c>
@@ -6301,12 +6311,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16">
       <c r="L19" s="45" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16">
       <c r="E20" s="44" t="s">
         <v>17</v>
       </c>
@@ -6317,12 +6327,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16">
       <c r="L21" s="45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -6337,7 +6347,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16">
       <c r="E24">
         <v>64</v>
       </c>
@@ -6360,7 +6370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16">
       <c r="K25" t="s">
         <v>58</v>
       </c>
@@ -6375,325 +6385,340 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EC53A5-8F19-4711-93EA-0F4CBD261EC8}">
-  <dimension ref="B2:B73"/>
+  <dimension ref="B2:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2">
       <c r="B2" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2">
       <c r="B3" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
       <c r="B13" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
       <c r="B24" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>88</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -6710,56 +6735,56 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -6775,194 +6800,194 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4">
       <c r="B2" s="32" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="106.5" customHeight="1">
       <c r="B3" s="50" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="120" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="120">
       <c r="B4" s="53"/>
       <c r="C4" s="52"/>
       <c r="D4" s="29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="60">
       <c r="B5" s="53"/>
       <c r="C5" s="52"/>
       <c r="D5" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="75">
       <c r="B6" s="53"/>
       <c r="C6" s="52"/>
       <c r="D6" s="30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="90">
       <c r="B7" s="50" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="90">
       <c r="B8" s="53"/>
       <c r="C8" s="52"/>
       <c r="D8" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="75">
       <c r="B9" s="50" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="30">
       <c r="B10" s="51"/>
       <c r="C10" s="49"/>
       <c r="D10" s="31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="76.5" customHeight="1">
       <c r="B11" s="50" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="30">
       <c r="B12" s="53"/>
       <c r="C12" s="52"/>
       <c r="D12" s="30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="45">
       <c r="B13" s="50" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="30">
       <c r="B14" s="53"/>
       <c r="C14" s="52"/>
       <c r="D14" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="45">
       <c r="B15" s="53"/>
       <c r="C15" s="52"/>
       <c r="D15" s="30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="60">
       <c r="B16" s="53"/>
       <c r="C16" s="52"/>
       <c r="D16" s="30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="45">
       <c r="B17" s="50" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="45">
       <c r="B18" s="53"/>
       <c r="C18" s="52"/>
       <c r="D18" s="30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="60.75" customHeight="1">
       <c r="B19" s="50" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="30">
       <c r="B20" s="53"/>
       <c r="C20" s="52"/>
       <c r="D20" s="30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="45">
       <c r="B21" s="50" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="30">
       <c r="B22" s="51"/>
       <c r="C22" s="49"/>
       <c r="D22" s="31" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -6996,7 +7021,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -7006,33 +7031,33 @@
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="47" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="F2" s="47" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="G2" s="47"/>
       <c r="H2" s="47"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7048,54 +7073,54 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="B5">
         <f>SUM(C10:C14)</f>
         <v>5000</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="G5">
         <f>SUM(H10:H14)</f>
         <v>7500</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="B6">
         <f>SUM(C17:C19)</f>
         <v>2000</v>
       </c>
       <c r="F6" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="G6">
         <f>SUM(H17:H19)</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="C7" s="17"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="C8" s="17"/>
       <c r="H8" s="17"/>
       <c r="Q8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>3</v>
@@ -7104,7 +7129,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>3</v>
@@ -7121,7 +7146,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="17" t="s">
         <v>13</v>
       </c>
@@ -7156,7 +7181,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="17" t="s">
         <v>14</v>
       </c>
@@ -7193,7 +7218,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
@@ -7230,7 +7255,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="17" t="s">
         <v>16</v>
       </c>
@@ -7265,7 +7290,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="17" t="s">
         <v>17</v>
       </c>
@@ -7289,27 +7314,27 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="17" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="17" t="s">
         <v>4</v>
       </c>
@@ -7333,7 +7358,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="17" t="s">
         <v>5</v>
       </c>
@@ -7357,7 +7382,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="17" t="s">
         <v>6</v>
       </c>

--- a/ShipCardGameCalcs.xlsx
+++ b/ShipCardGameCalcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CAF5471-AA79-41FB-8CC4-B0B4A5BB074C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0467AE46-17F3-4346-8506-05E8CC4D416A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,7 +367,7 @@
     <t>This is where the player untaps all their cards unless stated otherwise</t>
   </si>
   <si>
-    <t>Any of your ships shield damaged, restore 100 shield</t>
+    <t>All player ships shield damaged, restore 100 shield</t>
   </si>
   <si>
     <t>Draw Phase</t>
@@ -1040,7 +1040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1159,7 +1159,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6285,7 +6284,7 @@
     <row r="16" spans="2:19">
       <c r="P16">
         <f ca="1">RANDBETWEEN(0,123)</f>
-        <v>49</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="2:16">
@@ -6387,8 +6386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EC53A5-8F19-4711-93EA-0F4CBD261EC8}">
   <dimension ref="B2:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:XFD69"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6677,7 +6676,7 @@
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="54" t="s">
+      <c r="B68" t="s">
         <v>130</v>
       </c>
     </row>

--- a/ShipCardGameCalcs.xlsx
+++ b/ShipCardGameCalcs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0467AE46-17F3-4346-8506-05E8CC4D416A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57862236-6CE4-4D3E-9525-D568A7EBB5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,7 +487,7 @@
     <t>All ship upgrades attached to destroyed ship are sent to the junkyard</t>
   </si>
   <si>
-    <t>Each ship will have had assigned amount of escape pods. The player owning the destroyed ship may pick to move that amount of crew with their attachments from the destroyed ship to another ship they own</t>
+    <t>Each ship will have had assigned amount of escape pods. The player owning the destroyed ship may pick to move that amount of crew with their attachments from the destroyed ship to another ship they own as long as there is space left on the ship</t>
   </si>
   <si>
     <t>The rest of the crew and crew attachment cards are sent to stasis and the junkyard</t>
@@ -6284,13 +6284,13 @@
     <row r="16" spans="2:19">
       <c r="P16">
         <f ca="1">RANDBETWEEN(0,123)</f>
-        <v>104</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:16">
       <c r="P17" s="46">
         <f ca="1">RANDBETWEEN(0,6)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -6386,8 +6386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EC53A5-8F19-4711-93EA-0F4CBD261EC8}">
   <dimension ref="B2:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ShipCardGameCalcs.xlsx
+++ b/ShipCardGameCalcs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57862236-6CE4-4D3E-9525-D568A7EBB5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BB1DCC-95A0-442C-A428-8C62AA11E512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
@@ -668,7 +668,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1167,14 +1167,6 @@
     <dxf>
       <fill>
         <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
@@ -1269,15 +1261,23 @@
     <dxf>
       <fill>
         <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1389,13 +1389,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1414,6 +1407,13 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1729,13 +1729,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1772,6 +1765,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1822,9 +1822,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1846,7 +1843,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1857,6 +1853,10 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1901,6 +1901,9 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1944,9 +1947,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2019,6 +2019,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2033,9 +2036,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2072,6 +2072,15 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -2202,7 +2211,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2230,14 +2238,6 @@
     <dxf>
       <fill>
         <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -2342,14 +2342,6 @@
     <dxf>
       <fill>
         <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
@@ -2442,6 +2434,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -2457,20 +2466,11 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2514,6 +2514,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2581,9 +2584,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2719,12 +2719,12 @@
   <autoFilter ref="A9:G14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="128"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="126"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="123" totalsRowDxfId="124"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="121" totalsRowDxfId="122"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="119" totalsRowDxfId="120"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="118"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="128" totalsRowDxfId="127"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="126" totalsRowDxfId="125"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="122" totalsRowDxfId="121"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="120" totalsRowDxfId="119"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="118" totalsRowDxfId="117"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2734,23 +2734,23 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="TblFltCrewSizes" displayName="TblFltCrewSizes" ref="A17:G21" totalsRowCount="1" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A17:G20" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="12" totalsRowDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="A" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="A" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[A])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="B" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="9">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="B" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[B])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="C" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="7">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="C" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[C])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="D" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="5">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="D" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[D])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="E" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="3">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="E" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[E])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2760,26 +2760,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="TblFleetShipValues" displayName="TblFleetShipValues" ref="J9:Q15" totalsRowCount="1" headerRowDxfId="116" dataDxfId="115" totalsRowDxfId="114">
   <autoFilter ref="J9:Q14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Option" totalsRowLabel="Total " dataDxfId="112" totalsRowDxfId="113"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="111">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Option" totalsRowLabel="Total " dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="110">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH(TblFleetShipValues[[#This Row],[Option]],TblBattlefieldFlt[Option],0),MATCH(TblFleetShipValues[[#Headers],[A]],TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipPoints[Points],MATCH(TblFleetShipValues[[#This Row],[Option]],TblShipPoints[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="109">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="109" totalsRowDxfId="108">
       <calculatedColumnFormula>C10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="106" totalsRowDxfId="107">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="107" totalsRowDxfId="106">
       <calculatedColumnFormula>D10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="104" totalsRowDxfId="105">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="105" totalsRowDxfId="104">
       <calculatedColumnFormula>E10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="103">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="103" totalsRowDxfId="102">
       <calculatedColumnFormula>F10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="100" totalsRowDxfId="101">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="101" totalsRowDxfId="100">
       <calculatedColumnFormula>G10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Name" dataDxfId="98" totalsRowDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Name" dataDxfId="99" totalsRowDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2802,26 +2802,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TblAdjFleetRolesValues" displayName="TblAdjFleetRolesValues" ref="A24:H30" totalsRowCount="1" headerRowDxfId="91" dataDxfId="90" totalsRowDxfId="89">
   <autoFilter ref="A24:H29" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="87" totalsRowDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="85" totalsRowDxfId="86">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="86" totalsRowDxfId="85">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(B$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="84">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="84" totalsRowDxfId="83">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(C$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="82">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="82" totalsRowDxfId="81">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(D$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="80">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="80" totalsRowDxfId="79">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(E$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="78">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="78" totalsRowDxfId="77">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(F$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="76">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="76" totalsRowDxfId="75">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(G$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Name" dataDxfId="73" totalsRowDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Name" dataDxfId="74" totalsRowDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2832,11 +2832,11 @@
   <autoFilter ref="A32:G42" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Option" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="70" totalsRowDxfId="71">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="70">
       <calculatedColumnFormula>K10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="68" totalsRowDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="D" totalsRowFunction="sum" totalsRowDxfId="65"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="E" totalsRowFunction="sum" totalsRowDxfId="64"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="F" totalsRowFunction="sum" totalsRowDxfId="63"/>
@@ -2850,25 +2850,25 @@
   <autoFilter ref="J24:Q29" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="59">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(K$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="57">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(L$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="55">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(M$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="53">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(N$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="51">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(O$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="49">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(P$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Name" dataDxfId="46" totalsRowDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Name" dataDxfId="47" totalsRowDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2879,11 +2879,11 @@
   <autoFilter ref="J32:P42" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Option" totalsRowLabel="Total" totalsRowDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="43">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>T10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="D" totalsRowFunction="sum" totalsRowDxfId="37"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="E" totalsRowFunction="sum" totalsRowDxfId="36"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="F" totalsRowFunction="sum" totalsRowDxfId="35"/>
@@ -2893,7 +2893,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="TblShipCrew" displayName="TblShipCrew" ref="D2:L7" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" headerRowBorderDxfId="31" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="TblShipCrew" displayName="TblShipCrew" ref="D2:L7" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
   <autoFilter ref="D2:L7" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Ships" dataDxfId="30"/>
@@ -2921,7 +2921,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="TblShipPoints" displayName="TblShipPoints" ref="A2:B7" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="TblShipPoints" displayName="TblShipPoints" ref="A2:B7" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
   <autoFilter ref="A2:B7" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Ships" dataDxfId="17"/>
@@ -3234,7 +3234,7 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="15.42578125" customWidth="1"/>
@@ -3252,7 +3252,7 @@
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -3269,7 +3269,7 @@
       <c r="O1" s="47"/>
       <c r="P1" s="47"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>18</v>
       </c>
@@ -3554,7 +3554,7 @@
       <c r="P8" s="47"/>
       <c r="Q8" s="47"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>35</v>
       </c>
@@ -3909,7 +3909,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -3981,7 +3981,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -4020,7 +4020,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -4059,7 +4059,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -4096,7 +4096,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -4116,7 +4116,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>40</v>
       </c>
@@ -4139,7 +4139,7 @@
       <c r="P23" s="47"/>
       <c r="Q23" s="47"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
         <v>47</v>
       </c>
@@ -4585,7 +4585,7 @@
       <c r="O31" s="47"/>
       <c r="P31" s="47"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -5257,17 +5257,17 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
     </row>
   </sheetData>
@@ -5307,11 +5307,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91273792-62E9-442E-9CC7-E8C6E6BD4008}">
   <dimension ref="B1:V29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -5322,12 +5322,12 @@
     <col min="13" max="13" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="M1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="2:22">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:22">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>13</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:22">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
         <v>14</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:22">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
         <v>15</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="2:22">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
         <v>16</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="2:22">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
         <v>17</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="2:22">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L8">
         <v>6</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="2:22">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L9">
         <v>7</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="2:22">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>56</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="2:22">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
         <v>57</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="2:22" ht="75">
+    <row r="12" spans="2:22" ht="75" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>62</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="2:22">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L13">
         <v>11</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="2:22">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L14">
         <v>12</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="2:22">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
         <v>2</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:22">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
         <v>13</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
         <v>14</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
         <v>15</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
         <v>16</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>17</v>
       </c>
@@ -5899,17 +5899,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="36" t="s">
         <v>20</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="38" t="s">
         <v>13</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="40" t="s">
         <v>14</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="38" t="s">
         <v>15</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="40" t="s">
         <v>16</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="38" t="s">
         <v>17</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C29">
         <f>C24*G3*F3</f>
         <v>1000</v>
@@ -6066,9 +6066,9 @@
       <selection activeCell="P25" sqref="P24:Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:19">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D1">
         <v>38</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:19">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
         <v>58</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:19">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
@@ -6132,7 +6132,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="2:19">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="45" t="s">
         <v>69</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:19">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="43" t="s">
         <v>70</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:19">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="45" t="s">
         <v>71</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:19">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>72</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:19">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G8" s="6" t="s">
         <v>13</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:19">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="N10" s="19" t="s">
         <v>57</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="2:19">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C15" s="44" t="s">
         <v>17</v>
       </c>
@@ -6281,19 +6281,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:19">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="P16">
         <f ca="1">RANDBETWEEN(0,123)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P17" s="46">
         <f ca="1">RANDBETWEEN(0,6)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C18" s="44" t="s">
         <v>17</v>
       </c>
@@ -6310,12 +6310,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="L19" s="45" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E20" s="44" t="s">
         <v>17</v>
       </c>
@@ -6326,12 +6326,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="L21" s="45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -6346,7 +6346,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E24">
         <v>64</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K25" t="s">
         <v>58</v>
       </c>
@@ -6386,336 +6386,336 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EC53A5-8F19-4711-93EA-0F4CBD261EC8}">
   <dimension ref="B2:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>138</v>
       </c>
@@ -6734,54 +6734,54 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>148</v>
       </c>
@@ -6799,14 +6799,14 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="32" t="s">
         <v>149</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="106.5" customHeight="1">
+    <row r="3" spans="2:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="50" t="s">
         <v>152</v>
       </c>
@@ -6828,28 +6828,28 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="120">
+    <row r="4" spans="2:4" ht="120" x14ac:dyDescent="0.25">
       <c r="B4" s="53"/>
       <c r="C4" s="52"/>
       <c r="D4" s="29" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="60">
+    <row r="5" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="53"/>
       <c r="C5" s="52"/>
       <c r="D5" s="30" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="75">
+    <row r="6" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="53"/>
       <c r="C6" s="52"/>
       <c r="D6" s="30" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="90">
+    <row r="7" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="50" t="s">
         <v>158</v>
       </c>
@@ -6860,14 +6860,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="90">
+    <row r="8" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B8" s="53"/>
       <c r="C8" s="52"/>
       <c r="D8" s="30" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="75">
+    <row r="9" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="50" t="s">
         <v>162</v>
       </c>
@@ -6878,14 +6878,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30">
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="51"/>
       <c r="C10" s="49"/>
       <c r="D10" s="31" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="76.5" customHeight="1">
+    <row r="11" spans="2:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="50" t="s">
         <v>166</v>
       </c>
@@ -6896,14 +6896,14 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="30">
+    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="53"/>
       <c r="C12" s="52"/>
       <c r="D12" s="30" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="45">
+    <row r="13" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="50" t="s">
         <v>170</v>
       </c>
@@ -6914,28 +6914,28 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="30">
+    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="53"/>
       <c r="C14" s="52"/>
       <c r="D14" s="30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="45">
+    <row r="15" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="53"/>
       <c r="C15" s="52"/>
       <c r="D15" s="30" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="60">
+    <row r="16" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="53"/>
       <c r="C16" s="52"/>
       <c r="D16" s="30" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="45">
+    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="50" t="s">
         <v>176</v>
       </c>
@@ -6946,14 +6946,14 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="45">
+    <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="53"/>
       <c r="C18" s="52"/>
       <c r="D18" s="30" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="60.75" customHeight="1">
+    <row r="19" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="50" t="s">
         <v>180</v>
       </c>
@@ -6964,14 +6964,14 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="30">
+    <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="53"/>
       <c r="C20" s="52"/>
       <c r="D20" s="30" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="45">
+    <row r="21" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="50" t="s">
         <v>184</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="30">
+    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="51"/>
       <c r="C22" s="49"/>
       <c r="D22" s="31" t="s">
@@ -7020,7 +7020,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -7030,7 +7030,7 @@
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>188</v>
       </c>
@@ -7042,7 +7042,7 @@
       <c r="G2" s="47"/>
       <c r="H2" s="47"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>190</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>191</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>192</v>
       </c>
@@ -7104,17 +7104,17 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C7" s="17"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C8" s="17"/>
       <c r="H8" s="17"/>
       <c r="Q8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>2</v>
       </c>
@@ -7145,7 +7145,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>13</v>
       </c>
@@ -7180,7 +7180,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>14</v>
       </c>
@@ -7217,7 +7217,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
@@ -7254,7 +7254,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>16</v>
       </c>
@@ -7289,7 +7289,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>17</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>152</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>4</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>5</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>6</v>
       </c>

--- a/ShipCardGameCalcs.xlsx
+++ b/ShipCardGameCalcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BB1DCC-95A0-442C-A428-8C62AA11E512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDE9412-D2BF-4730-BF55-A39F428F72A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="198">
   <si>
     <t>Ship Parameters</t>
   </si>
@@ -364,27 +364,18 @@
     <t>Untap Phase</t>
   </si>
   <si>
-    <t>This is where the player untaps all their cards unless stated otherwise</t>
-  </si>
-  <si>
     <t>All player ships shield damaged, restore 100 shield</t>
   </si>
   <si>
     <t>Draw Phase</t>
   </si>
   <si>
-    <t>This is where the player chooses to draw from their Strategy or Crew Deck</t>
-  </si>
-  <si>
     <t>Players can draw either 1 card from the strategy deck, or they can choose the see the top 3 cards of the crew deck and then get to pick 1. The rest get sent to the bottom of the crew deck.</t>
   </si>
   <si>
     <t>Strategy Phase</t>
   </si>
   <si>
-    <t>This is where the player can play their cards, tap to gain department resourse or tap cards to use gun slots</t>
-  </si>
-  <si>
     <t>End Phase</t>
   </si>
   <si>
@@ -472,9 +463,6 @@
     <t>Taking Damage</t>
   </si>
   <si>
-    <t>When a ship takes hull damage, sacrifice 1 crew member from ship. Only do this once per strategy phase</t>
-  </si>
-  <si>
     <t>Ship Destroyed</t>
   </si>
   <si>
@@ -662,6 +650,30 @@
   </si>
   <si>
     <t>No. of</t>
+  </si>
+  <si>
+    <t>Battle Phase</t>
+  </si>
+  <si>
+    <t>Reaction Phase</t>
+  </si>
+  <si>
+    <t>This is where any player can play cards to react to the battle phase, such as playing a tactic card to change the ships target</t>
+  </si>
+  <si>
+    <t>When a ship takes hull damage, sacrifice either 1 crew member card or ship attachment card from the ship. Only do this once per strategy phase</t>
+  </si>
+  <si>
+    <t>Current player taps to use gun slots, announcing targets</t>
+  </si>
+  <si>
+    <t>Current player can play their cards, tap to gain department resourse or tap cards to use gun slots</t>
+  </si>
+  <si>
+    <t>Current player chooses to draw from their Strategy or Crew Deck</t>
+  </si>
+  <si>
+    <t>Current player untaps all their cards unless stated otherwise</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1052,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1159,6 +1171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5307,7 +5320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91273792-62E9-442E-9CC7-E8C6E6BD4008}">
   <dimension ref="B1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -6284,13 +6297,13 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="P16">
         <f ca="1">RANDBETWEEN(0,123)</f>
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P17" s="46">
         <f ca="1">RANDBETWEEN(0,6)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -6384,10 +6397,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EC53A5-8F19-4711-93EA-0F4CBD261EC8}">
-  <dimension ref="B2:B77"/>
+  <dimension ref="B2:B83"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="L67" sqref="L67"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6497,227 +6510,250 @@
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>94</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>101</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>102</v>
+      <c r="B36" s="54" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>103</v>
+      <c r="B37" s="54"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>105</v>
+      <c r="B39" s="54" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>106</v>
+      <c r="B41" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>110</v>
+      <c r="B45" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>115</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
-        <v>116</v>
+      <c r="B52" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>122</v>
+      <c r="B58" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>124</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="3" t="s">
-        <v>125</v>
+      <c r="B62" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>130</v>
+      <c r="B68" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="3" t="s">
-        <v>131</v>
+      <c r="B70" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>134</v>
+      <c r="B73" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>137</v>
+      <c r="B76" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>138</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -6738,52 +6774,52 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -6795,7 +6831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CADF2F4-A124-44BC-8A72-4CE3F16F5D04}">
   <dimension ref="B2:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -6808,185 +6844,185 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="32" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="50" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="120" x14ac:dyDescent="0.25">
       <c r="B4" s="53"/>
       <c r="C4" s="52"/>
       <c r="D4" s="29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="53"/>
       <c r="C5" s="52"/>
       <c r="D5" s="30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="53"/>
       <c r="C6" s="52"/>
       <c r="D6" s="30" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="50" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B8" s="53"/>
       <c r="C8" s="52"/>
       <c r="D8" s="30" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="50" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="51"/>
       <c r="C10" s="49"/>
       <c r="D10" s="31" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="50" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="53"/>
       <c r="C12" s="52"/>
       <c r="D12" s="30" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="50" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="53"/>
       <c r="C14" s="52"/>
       <c r="D14" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="53"/>
       <c r="C15" s="52"/>
       <c r="D15" s="30" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="53"/>
       <c r="C16" s="52"/>
       <c r="D16" s="30" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="50" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="53"/>
       <c r="C18" s="52"/>
       <c r="D18" s="30" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="50" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="53"/>
       <c r="C20" s="52"/>
       <c r="D20" s="30" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="50" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="51"/>
       <c r="C22" s="49"/>
       <c r="D22" s="31" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -7032,25 +7068,25 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="F2" s="47" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G2" s="47"/>
       <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>26</v>
@@ -7074,14 +7110,14 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B5">
         <f>SUM(C10:C14)</f>
         <v>5000</v>
       </c>
       <c r="F5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G5">
         <f>SUM(H10:H14)</f>
@@ -7090,14 +7126,14 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B6">
         <f>SUM(C17:C19)</f>
         <v>2000</v>
       </c>
       <c r="F6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G6">
         <f>SUM(H17:H19)</f>
@@ -7119,7 +7155,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>3</v>
@@ -7128,7 +7164,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>3</v>
@@ -7315,19 +7351,19 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>

--- a/ShipCardGameCalcs.xlsx
+++ b/ShipCardGameCalcs.xlsx
@@ -1,28 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDE9412-D2BF-4730-BF55-A39F428F72A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46FE794F-886C-463B-B0ED-03A30A33612D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
     <sheet name="Ships and Crew Details" sheetId="3" r:id="rId2"/>
     <sheet name="Game Setup" sheetId="7" r:id="rId3"/>
     <sheet name="Game Rules and Turn Example" sheetId="4" r:id="rId4"/>
-    <sheet name="Ideas" sheetId="6" r:id="rId5"/>
-    <sheet name="Card Details" sheetId="5" r:id="rId6"/>
-    <sheet name="Comparison" sheetId="2" r:id="rId7"/>
+    <sheet name="Game Rules version 2" sheetId="8" r:id="rId5"/>
+    <sheet name="Ideas" sheetId="6" r:id="rId6"/>
+    <sheet name="Card Details" sheetId="5" r:id="rId7"/>
+    <sheet name="Comparison" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="246">
   <si>
     <t>Ship Parameters</t>
   </si>
@@ -364,18 +368,39 @@
     <t>Untap Phase</t>
   </si>
   <si>
+    <t>Current player untaps all their cards unless stated otherwise</t>
+  </si>
+  <si>
     <t>All player ships shield damaged, restore 100 shield</t>
   </si>
   <si>
     <t>Draw Phase</t>
   </si>
   <si>
+    <t>Current player chooses to draw from their Strategy or Crew Deck</t>
+  </si>
+  <si>
     <t>Players can draw either 1 card from the strategy deck, or they can choose the see the top 3 cards of the crew deck and then get to pick 1. The rest get sent to the bottom of the crew deck.</t>
   </si>
   <si>
     <t>Strategy Phase</t>
   </si>
   <si>
+    <t>Current player can play their cards, tap to gain department resourse or tap cards to use gun slots</t>
+  </si>
+  <si>
+    <t>Battle Phase</t>
+  </si>
+  <si>
+    <t>Current player taps to use gun slots, announcing targets</t>
+  </si>
+  <si>
+    <t>Reaction Phase</t>
+  </si>
+  <si>
+    <t>This is where any player can play cards to react to the battle phase, such as playing a tactic card to change the ships target</t>
+  </si>
+  <si>
     <t>End Phase</t>
   </si>
   <si>
@@ -463,6 +488,9 @@
     <t>Taking Damage</t>
   </si>
   <si>
+    <t>When a ship takes hull damage, sacrifice either 1 crew member card or ship attachment card from the ship. Only do this once per strategy phase</t>
+  </si>
+  <si>
     <t>Ship Destroyed</t>
   </si>
   <si>
@@ -487,6 +515,156 @@
     <t>When only 1 player remains in the game they win</t>
   </si>
   <si>
+    <t>Game Rules Version 2</t>
+  </si>
+  <si>
+    <t>In this version we have given each player dice to represent each of their chosen departments in their deck</t>
+  </si>
+  <si>
+    <t>By doing this means that players aren't fully reliant on their crew cards for resource</t>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>Players agree amount of ship points in the game, for example 2000 points</t>
+  </si>
+  <si>
+    <t>Players choose their ships up to the amount of points, with 2000 points player A could have 1 Capital Ship, whereas Player B could have 1 Cruiser and 1 Frigate</t>
+  </si>
+  <si>
+    <t>Note that when picking your ship layout you must have at least 1 ship that can hold a captain</t>
+  </si>
+  <si>
+    <t>Players will have 2 decks each, one being a Strategy card deck and the other being a crew card deck.</t>
+  </si>
+  <si>
+    <t>A strategy deck will consist of 40 cards</t>
+  </si>
+  <si>
+    <t>A crew deck will consist of 30 cards</t>
+  </si>
+  <si>
+    <t>Then players will have d20's (dice with 20 sides) to represent each department used in their decks. For example if Player A has Research and Handling departments in their deck then they will have 2 d20s.</t>
+  </si>
+  <si>
+    <t>There are a total of 5 different departments, Handling, Research, Engineer, Assault and Medic</t>
+  </si>
+  <si>
+    <t>Players will start by shuffling each of their decks, once shuffled their opponent will cut each deck.</t>
+  </si>
+  <si>
+    <t>Below is an example layout of the play area also known as the "Space Zone"</t>
+  </si>
+  <si>
+    <t>The Space Field is where players place their chosen ship cards and play all their cards</t>
+  </si>
+  <si>
+    <t>The Junkyard Zone are where Strategy cards go after they have been played (Note that some Strategy cards can stay on the Ships Zone)</t>
+  </si>
+  <si>
+    <t>The Stasis Zone are where Crew cards go after they have been played and destroyed</t>
+  </si>
+  <si>
+    <t>Player A</t>
+  </si>
+  <si>
+    <t>Space FIeld</t>
+  </si>
+  <si>
+    <t>Junkyard Zone</t>
+  </si>
+  <si>
+    <t>Stasis Zone</t>
+  </si>
+  <si>
+    <t>Department Dice</t>
+  </si>
+  <si>
+    <t>Player B</t>
+  </si>
+  <si>
+    <t>Players will now draw 2 cards from their crew deck and 3 from their strategy deck</t>
+  </si>
+  <si>
+    <t>Each player may choose to have 1 free mulligen, after that if they mulligen anymore times then they reduce the amount of cards they get to keep in their hand by 1 each time. Down to a minimum of 1 strategy card and 1 crew card</t>
+  </si>
+  <si>
+    <t>Now the players will randomly pick which player goes first</t>
+  </si>
+  <si>
+    <t>Once players have setup each of their sides they are ready to play.</t>
+  </si>
+  <si>
+    <t>Game Start</t>
+  </si>
+  <si>
+    <t>There are different phases during each players turns which run in the following order which only the current player does on their turn:</t>
+  </si>
+  <si>
+    <t>Here you untap any cards out on the space field unless stated otherwise</t>
+  </si>
+  <si>
+    <t>Crew Hire Phase</t>
+  </si>
+  <si>
+    <t>Increment 1 of your department dice by 1 (Note you start off at 0 and a department dice goes up to a max of 20 each)</t>
+  </si>
+  <si>
+    <t>Choose to draw from either the strategy deck or crew deck, note in a 1v1 the first player does not draw any cards on their first turn</t>
+  </si>
+  <si>
+    <t>You can start playing any amount of cards as long they meet the card cost, except for tier 1 crew cards as only 1 tier 1 crew card can be played on your turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Also there can only ever be 1 admiral card on your side of the space field at any one time. Certain cards can also be played during your opponents turn at different phases.</t>
+  </si>
+  <si>
+    <t>To pay for the cost to play cards you will need to either tap a crew card or use some of your department dice resource by decreasing the department dice. You can use the  combination of crew cards and department dice</t>
+  </si>
+  <si>
+    <t>Note that when using the department dice you don't regain what you had next turn.</t>
+  </si>
+  <si>
+    <t>You can only assign crew cards to a ship if there is a free crew slot available</t>
+  </si>
+  <si>
+    <t>If you have any tier 1,2 or 3 crew members untapped they can be used to tap and assigned to a gun slot and fire at an enemy ship.</t>
+  </si>
+  <si>
+    <t>If for example a ship has 3 gun slots, then only 3 crew cards can be assigned to a gun slot</t>
+  </si>
+  <si>
+    <t>Once you have assigned all targets, the assigned player can react with cards and use other ships to maneuver in front of the targeted ship making them the target (this requires at least 1 tier 1,2 or 3 crew member on that ship to tap).</t>
+  </si>
+  <si>
+    <t>Damage Phase</t>
+  </si>
+  <si>
+    <t>Calculate all the damage from the battle and reaction phase and remove any destroyed ship cards out of play.</t>
+  </si>
+  <si>
+    <t>When damaging ships players will first have to take out the ships shields before then taking out the ships hull.</t>
+  </si>
+  <si>
+    <t>Once the ships hull reaches 0 at any point it is destroyed</t>
+  </si>
+  <si>
+    <t>All other cards attached to the ship are sent to either Stasis or Junkyard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you have the last remaining ship/s in play, you win. </t>
+  </si>
+  <si>
+    <t>Otherwise if you have more cards in your hand than your current max hand size then reduce down to your max hand size.</t>
+  </si>
+  <si>
+    <t>You keep any unspent dice department resource NOT crew card resource</t>
+  </si>
+  <si>
+    <t>Now the turn gets moved to the next player on your left and they start their untap phase.</t>
+  </si>
+  <si>
     <t>Controlled deck is the battlefield conditions which affects the battlefield</t>
   </si>
   <si>
@@ -634,12 +812,6 @@
     <t>Crew Attachment cards can only be played on your turn</t>
   </si>
   <si>
-    <t>Player A</t>
-  </si>
-  <si>
-    <t>Player B</t>
-  </si>
-  <si>
     <t>Fleet Option</t>
   </si>
   <si>
@@ -650,37 +822,13 @@
   </si>
   <si>
     <t>No. of</t>
-  </si>
-  <si>
-    <t>Battle Phase</t>
-  </si>
-  <si>
-    <t>Reaction Phase</t>
-  </si>
-  <si>
-    <t>This is where any player can play cards to react to the battle phase, such as playing a tactic card to change the ships target</t>
-  </si>
-  <si>
-    <t>When a ship takes hull damage, sacrifice either 1 crew member card or ship attachment card from the ship. Only do this once per strategy phase</t>
-  </si>
-  <si>
-    <t>Current player taps to use gun slots, announcing targets</t>
-  </si>
-  <si>
-    <t>Current player can play their cards, tap to gain department resourse or tap cards to use gun slots</t>
-  </si>
-  <si>
-    <t>Current player chooses to draw from their Strategy or Crew Deck</t>
-  </si>
-  <si>
-    <t>Current player untaps all their cards unless stated otherwise</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,8 +885,24 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -787,8 +951,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1048,11 +1218,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1171,7 +1365,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1180,6 +1407,14 @@
     <dxf>
       <fill>
         <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
@@ -1274,23 +1509,15 @@
     <dxf>
       <fill>
         <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1402,6 +1629,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1420,13 +1654,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1742,6 +1969,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1778,13 +2012,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1835,6 +2062,9 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1856,6 +2086,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1866,10 +2097,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1914,9 +2141,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1960,6 +2184,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2032,9 +2259,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2049,6 +2273,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2085,6 +2312,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2094,7 +2322,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2104,6 +2331,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2113,7 +2341,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2123,6 +2350,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2132,7 +2360,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2142,6 +2369,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2151,7 +2379,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2161,6 +2388,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2170,7 +2398,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2180,6 +2407,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2189,7 +2417,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2199,6 +2426,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2208,7 +2436,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2216,14 +2443,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2251,6 +2470,14 @@
     <dxf>
       <fill>
         <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -2355,6 +2582,14 @@
     <dxf>
       <fill>
         <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
@@ -2447,6 +2682,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <bgColor indexed="65"/>
@@ -2464,26 +2700,17 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2527,9 +2754,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2597,6 +2821,9 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2732,12 +2959,12 @@
   <autoFilter ref="A9:G14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="128" totalsRowDxfId="127"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="126" totalsRowDxfId="125"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="124" totalsRowDxfId="123"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="122" totalsRowDxfId="121"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="120" totalsRowDxfId="119"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="118" totalsRowDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="128"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="126"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="123" totalsRowDxfId="124"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="121" totalsRowDxfId="122"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="119" totalsRowDxfId="120"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2747,23 +2974,23 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="TblFltCrewSizes" displayName="TblFltCrewSizes" ref="A17:G21" totalsRowCount="1" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A17:G20" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="A" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="12" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="A" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="11">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[A])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="B" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="B" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="9">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[B])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="C" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="C" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="7">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[C])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="D" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="D" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="5">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[D])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="E" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="E" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="3">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[E])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2773,26 +3000,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="TblFleetShipValues" displayName="TblFleetShipValues" ref="J9:Q15" totalsRowCount="1" headerRowDxfId="116" dataDxfId="115" totalsRowDxfId="114">
   <autoFilter ref="J9:Q14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Option" totalsRowLabel="Total " dataDxfId="113" totalsRowDxfId="112"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="110">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Option" totalsRowLabel="Total " dataDxfId="112" totalsRowDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="111">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH(TblFleetShipValues[[#This Row],[Option]],TblBattlefieldFlt[Option],0),MATCH(TblFleetShipValues[[#Headers],[A]],TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipPoints[Points],MATCH(TblFleetShipValues[[#This Row],[Option]],TblShipPoints[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="109" totalsRowDxfId="108">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="109">
       <calculatedColumnFormula>C10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="107" totalsRowDxfId="106">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="106" totalsRowDxfId="107">
       <calculatedColumnFormula>D10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="105" totalsRowDxfId="104">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="104" totalsRowDxfId="105">
       <calculatedColumnFormula>E10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="103" totalsRowDxfId="102">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="103">
       <calculatedColumnFormula>F10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="101" totalsRowDxfId="100">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="100" totalsRowDxfId="101">
       <calculatedColumnFormula>G10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Name" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Name" dataDxfId="98" totalsRowDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2815,26 +3042,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TblAdjFleetRolesValues" displayName="TblAdjFleetRolesValues" ref="A24:H30" totalsRowCount="1" headerRowDxfId="91" dataDxfId="90" totalsRowDxfId="89">
   <autoFilter ref="A24:H29" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="86" totalsRowDxfId="85">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="87" totalsRowDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="85" totalsRowDxfId="86">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(B$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="84" totalsRowDxfId="83">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="84">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(C$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="82" totalsRowDxfId="81">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="82">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(D$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="80" totalsRowDxfId="79">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="80">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(E$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="78" totalsRowDxfId="77">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="78">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(F$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="76" totalsRowDxfId="75">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="76">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(G$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Name" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Name" dataDxfId="73" totalsRowDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2845,11 +3072,11 @@
   <autoFilter ref="A32:G42" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Option" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="70">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="70" totalsRowDxfId="71">
       <calculatedColumnFormula>K10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="68" totalsRowDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="67"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="D" totalsRowFunction="sum" totalsRowDxfId="65"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="E" totalsRowFunction="sum" totalsRowDxfId="64"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="F" totalsRowFunction="sum" totalsRowDxfId="63"/>
@@ -2863,25 +3090,25 @@
   <autoFilter ref="J24:Q29" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="59">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(K$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="57">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(L$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="55">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(M$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="53">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(N$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="51">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(O$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="49">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(P$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Name" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Name" dataDxfId="46" totalsRowDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2892,11 +3119,11 @@
   <autoFilter ref="J32:P42" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Option" totalsRowLabel="Total" totalsRowDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="43">
       <calculatedColumnFormula>T10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="39"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="D" totalsRowFunction="sum" totalsRowDxfId="37"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="E" totalsRowFunction="sum" totalsRowDxfId="36"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="F" totalsRowFunction="sum" totalsRowDxfId="35"/>
@@ -2906,7 +3133,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="TblShipCrew" displayName="TblShipCrew" ref="D2:L7" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="TblShipCrew" displayName="TblShipCrew" ref="D2:L7" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" headerRowBorderDxfId="31" tableBorderDxfId="32">
   <autoFilter ref="D2:L7" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Ships" dataDxfId="30"/>
@@ -2934,7 +3161,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="TblShipPoints" displayName="TblShipPoints" ref="A2:B7" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="TblShipPoints" displayName="TblShipPoints" ref="A2:B7" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
   <autoFilter ref="A2:B7" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Ships" dataDxfId="17"/>
@@ -3247,7 +3474,7 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="15.42578125" customWidth="1"/>
@@ -3265,7 +3492,7 @@
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -3282,7 +3509,7 @@
       <c r="O1" s="47"/>
       <c r="P1" s="47"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -3329,7 +3556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
@@ -3382,7 +3609,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
@@ -3423,7 +3650,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
@@ -3464,7 +3691,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
@@ -3505,7 +3732,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3546,7 +3773,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="47" t="s">
         <v>18</v>
       </c>
@@ -3567,7 +3794,7 @@
       <c r="P8" s="47"/>
       <c r="Q8" s="47"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -3615,7 +3842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3659,7 +3886,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3705,7 +3932,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3753,7 +3980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3799,7 +4026,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3847,7 +4074,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -3904,7 +4131,7 @@
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="47" t="s">
         <v>35</v>
       </c>
@@ -3922,7 +4149,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -3955,7 +4182,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -3994,7 +4221,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -4033,7 +4260,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -4072,7 +4299,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -4109,7 +4336,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -4129,7 +4356,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="47" t="s">
         <v>40</v>
       </c>
@@ -4152,7 +4379,7 @@
       <c r="P23" s="47"/>
       <c r="Q23" s="47"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
@@ -4203,7 +4430,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -4266,7 +4493,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -4329,7 +4556,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -4392,7 +4619,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -4455,7 +4682,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -4518,7 +4745,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -4577,7 +4804,7 @@
       </c>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31" s="47" t="s">
         <v>47</v>
       </c>
@@ -4598,7 +4825,7 @@
       <c r="O31" s="47"/>
       <c r="P31" s="47"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -4643,7 +4870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -4700,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -4757,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -4814,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -4871,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -4928,7 +5155,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -4985,7 +5212,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -5042,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -5099,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -5156,7 +5383,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -5213,7 +5440,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -5270,17 +5497,17 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2">
       <c r="B51" s="1"/>
     </row>
   </sheetData>
@@ -5321,10 +5548,10 @@
   <dimension ref="B1:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -5335,12 +5562,12 @@
     <col min="13" max="13" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22">
       <c r="M1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22">
       <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
@@ -5381,7 +5608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22">
       <c r="B3" s="25" t="s">
         <v>13</v>
       </c>
@@ -5442,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22">
       <c r="B4" s="26" t="s">
         <v>14</v>
       </c>
@@ -5503,7 +5730,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22">
       <c r="B5" s="27" t="s">
         <v>15</v>
       </c>
@@ -5557,7 +5784,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22">
       <c r="B6" s="26" t="s">
         <v>16</v>
       </c>
@@ -5611,7 +5838,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22">
       <c r="B7" s="27" t="s">
         <v>17</v>
       </c>
@@ -5658,7 +5885,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22">
       <c r="L8">
         <v>6</v>
       </c>
@@ -5684,7 +5911,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22">
       <c r="L9">
         <v>7</v>
       </c>
@@ -5703,7 +5930,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22">
       <c r="B10" t="s">
         <v>56</v>
       </c>
@@ -5725,7 +5952,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22">
       <c r="B11" s="19" t="s">
         <v>57</v>
       </c>
@@ -5759,7 +5986,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="2:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" ht="75">
       <c r="B12" s="20" t="s">
         <v>62</v>
       </c>
@@ -5786,7 +6013,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22">
       <c r="L13">
         <v>11</v>
       </c>
@@ -5798,7 +6025,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22">
       <c r="L14">
         <v>12</v>
       </c>
@@ -5810,7 +6037,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22">
       <c r="B15" s="21" t="s">
         <v>2</v>
       </c>
@@ -5827,7 +6054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22">
       <c r="B16" s="22" t="s">
         <v>13</v>
       </c>
@@ -5844,7 +6071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" s="23" t="s">
         <v>14</v>
       </c>
@@ -5861,7 +6088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" s="22" t="s">
         <v>15</v>
       </c>
@@ -5878,7 +6105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" s="23" t="s">
         <v>16</v>
       </c>
@@ -5895,7 +6122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12">
       <c r="B20" s="22" t="s">
         <v>17</v>
       </c>
@@ -5912,17 +6139,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12">
       <c r="L21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="L22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="B23" s="36" t="s">
         <v>20</v>
       </c>
@@ -5948,7 +6175,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="B24" s="38" t="s">
         <v>13</v>
       </c>
@@ -5964,7 +6191,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="B25" s="40" t="s">
         <v>14</v>
       </c>
@@ -5982,7 +6209,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12">
       <c r="B26" s="38" t="s">
         <v>15</v>
       </c>
@@ -6002,7 +6229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="B27" s="40" t="s">
         <v>16</v>
       </c>
@@ -6020,7 +6247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12">
       <c r="B28" s="38" t="s">
         <v>17</v>
       </c>
@@ -6040,7 +6267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12">
       <c r="C29">
         <f>C24*G3*F3</f>
         <v>1000</v>
@@ -6079,9 +6306,9 @@
       <selection activeCell="P25" sqref="P24:Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19">
       <c r="D1">
         <v>38</v>
       </c>
@@ -6104,7 +6331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19">
       <c r="J2" t="s">
         <v>58</v>
       </c>
@@ -6112,7 +6339,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19">
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
@@ -6145,7 +6372,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19">
       <c r="B4" s="45" t="s">
         <v>69</v>
       </c>
@@ -6168,7 +6395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19">
       <c r="B5" s="43" t="s">
         <v>70</v>
       </c>
@@ -6191,7 +6418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19">
       <c r="B6" s="45" t="s">
         <v>71</v>
       </c>
@@ -6214,7 +6441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19">
       <c r="B7" s="6" t="s">
         <v>72</v>
       </c>
@@ -6237,7 +6464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19">
       <c r="G8" s="6" t="s">
         <v>13</v>
       </c>
@@ -6260,7 +6487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19">
       <c r="N10" s="19" t="s">
         <v>57</v>
       </c>
@@ -6277,7 +6504,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19">
       <c r="C15" s="44" t="s">
         <v>17</v>
       </c>
@@ -6294,19 +6521,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19">
       <c r="P16">
         <f ca="1">RANDBETWEEN(0,123)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
       <c r="P17" s="46">
         <f ca="1">RANDBETWEEN(0,6)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
       <c r="C18" s="44" t="s">
         <v>17</v>
       </c>
@@ -6323,12 +6550,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16">
       <c r="L19" s="45" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16">
       <c r="E20" s="44" t="s">
         <v>17</v>
       </c>
@@ -6339,12 +6566,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16">
       <c r="L21" s="45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -6359,7 +6586,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16">
       <c r="E24">
         <v>64</v>
       </c>
@@ -6382,7 +6609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16">
       <c r="K25" t="s">
         <v>58</v>
       </c>
@@ -6399,361 +6626,358 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EC53A5-8F19-4711-93EA-0F4CBD261EC8}">
   <dimension ref="B2:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2">
       <c r="B2" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2">
       <c r="B3" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2">
       <c r="B13" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2">
       <c r="B21" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2">
       <c r="B24" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="54" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="54"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
       <c r="B38" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="54" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
       <c r="B41" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
       <c r="B45" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
       <c r="B58" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
       <c r="B68" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
       <c r="B73" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
       <c r="B76" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -6763,6 +6987,458 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93013FD4-B940-4A70-A7DA-BF82FD0F616E}">
+  <dimension ref="A2:K81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="23.25">
+      <c r="B2" s="54" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="18.75">
+      <c r="B7" s="68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="55"/>
+      <c r="D23" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="58" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="55"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="B28" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="56"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="55"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="58" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="57"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="57"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="B37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="B38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="B39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="B40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="18.75">
+      <c r="B43" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="B44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="B46" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="B47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D29:I34"/>
+    <mergeCell ref="D23:I28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6016CF9E-E144-48D8-959F-618B8D85D284}">
   <dimension ref="B2:B11"/>
   <sheetViews>
@@ -6770,56 +7446,56 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6827,202 +7503,202 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CADF2F4-A124-44BC-8A72-4CE3F16F5D04}">
   <dimension ref="B2:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4">
       <c r="B2" s="32" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="106.5" customHeight="1">
       <c r="B3" s="50" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="120" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="120">
       <c r="B4" s="53"/>
       <c r="C4" s="52"/>
       <c r="D4" s="29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="60">
       <c r="B5" s="53"/>
       <c r="C5" s="52"/>
       <c r="D5" s="30" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="75">
       <c r="B6" s="53"/>
       <c r="C6" s="52"/>
       <c r="D6" s="30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="90">
       <c r="B7" s="50" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="90">
       <c r="B8" s="53"/>
       <c r="C8" s="52"/>
       <c r="D8" s="30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="75">
       <c r="B9" s="50" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="30">
       <c r="B10" s="51"/>
       <c r="C10" s="49"/>
       <c r="D10" s="31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="76.5" customHeight="1">
       <c r="B11" s="50" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="30">
       <c r="B12" s="53"/>
       <c r="C12" s="52"/>
       <c r="D12" s="30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="45">
       <c r="B13" s="50" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="30">
       <c r="B14" s="53"/>
       <c r="C14" s="52"/>
       <c r="D14" s="30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="45">
       <c r="B15" s="53"/>
       <c r="C15" s="52"/>
       <c r="D15" s="30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="60">
       <c r="B16" s="53"/>
       <c r="C16" s="52"/>
       <c r="D16" s="30" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="45">
       <c r="B17" s="50" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="45">
       <c r="B18" s="53"/>
       <c r="C18" s="52"/>
       <c r="D18" s="30" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="60.75" customHeight="1">
       <c r="B19" s="50" t="s">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="30">
       <c r="B20" s="53"/>
       <c r="C20" s="52"/>
       <c r="D20" s="30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="45">
       <c r="B21" s="50" t="s">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="30">
       <c r="B22" s="51"/>
       <c r="C22" s="49"/>
       <c r="D22" s="31" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -7048,7 +7724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:S19"/>
   <sheetViews>
@@ -7056,7 +7732,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -7066,33 +7742,33 @@
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="47" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="F2" s="47" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="G2" s="47"/>
       <c r="H2" s="47"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7108,54 +7784,54 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="B5">
         <f>SUM(C10:C14)</f>
         <v>5000</v>
       </c>
       <c r="F5" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="G5">
         <f>SUM(H10:H14)</f>
         <v>7500</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="B6">
         <f>SUM(C17:C19)</f>
         <v>2000</v>
       </c>
       <c r="F6" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="G6">
         <f>SUM(H17:H19)</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="C7" s="17"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="C8" s="17"/>
       <c r="H8" s="17"/>
       <c r="Q8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>3</v>
@@ -7164,7 +7840,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>3</v>
@@ -7181,7 +7857,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="17" t="s">
         <v>13</v>
       </c>
@@ -7216,7 +7892,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="17" t="s">
         <v>14</v>
       </c>
@@ -7253,7 +7929,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
@@ -7290,7 +7966,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="17" t="s">
         <v>16</v>
       </c>
@@ -7325,7 +8001,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="17" t="s">
         <v>17</v>
       </c>
@@ -7349,27 +8025,27 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="17" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="17" t="s">
         <v>4</v>
       </c>
@@ -7393,7 +8069,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="17" t="s">
         <v>5</v>
       </c>
@@ -7417,7 +8093,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="17" t="s">
         <v>6</v>
       </c>

--- a/ShipCardGameCalcs.xlsx
+++ b/ShipCardGameCalcs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27230"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46FE794F-886C-463B-B0ED-03A30A33612D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C940714-625D-4C48-A3A9-03623713CFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Game Rules version 2" sheetId="8" r:id="rId5"/>
     <sheet name="Ideas" sheetId="6" r:id="rId6"/>
     <sheet name="Card Details" sheetId="5" r:id="rId7"/>
-    <sheet name="Comparison" sheetId="2" r:id="rId8"/>
+    <sheet name="Card Mechanics" sheetId="9" r:id="rId8"/>
+    <sheet name="Comparison" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="261">
   <si>
     <t>Ship Parameters</t>
   </si>
@@ -749,13 +750,13 @@
     <t>Event</t>
   </si>
   <si>
-    <t>Research project cards are ways for the player to potentially change the tide of battle with either basic card drawing to removing a ships upgrade.</t>
+    <t>Event cards are ways for the player to potentially change the tide of battle with either basic card drawing to removing a ships upgrade.</t>
   </si>
   <si>
     <t>You can play as many Research Project cards as long you can pay their cost</t>
   </si>
   <si>
-    <t>Research Project cards can only be played on your turn</t>
+    <t>Can only be played on your turn</t>
   </si>
   <si>
     <t>Ship Upgrade</t>
@@ -767,9 +768,6 @@
     <t>You can play as manyShip Upgrade cards as long you can pay their cost</t>
   </si>
   <si>
-    <t>Ship Upgrade cards can only be played on your turn</t>
-  </si>
-  <si>
     <t>You can't move a ship upgrade from one ship to another once attached</t>
   </si>
   <si>
@@ -797,9 +795,6 @@
     <t>You can play a many On Going Event cards as long as you can pay their cost</t>
   </si>
   <si>
-    <t>On Going Event cards can only be played on your turn</t>
-  </si>
-  <si>
     <t>Crew Attachment</t>
   </si>
   <si>
@@ -809,7 +804,58 @@
     <t>You can play a many Crew Attachment cards as long as you can pay their cost</t>
   </si>
   <si>
-    <t>Crew Attachment cards can only be played on your turn</t>
+    <t>Private Mission</t>
+  </si>
+  <si>
+    <t>Played to the field that has a mission only the player who played it can do and gain the rewards for</t>
+  </si>
+  <si>
+    <t>You can play as many Private Mission cards as long as you can pay their cost</t>
+  </si>
+  <si>
+    <t>Once the mission is complete then remove private mission card from field and send to the scrapyard</t>
+  </si>
+  <si>
+    <t>Galaxy Mission</t>
+  </si>
+  <si>
+    <t>Played to the field that has a mission that any player can do and gain the rewards for</t>
+  </si>
+  <si>
+    <t>Dangerous Mission</t>
+  </si>
+  <si>
+    <t>Played to the field that has a mission only the player who played it can do and gain the rewards for, however after a certain amount of turns it will have consequences</t>
+  </si>
+  <si>
+    <t>If the missions runs out of turns the it will activate the consequence affect and then get sent to the scrapyard</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>Piercing Round</t>
+  </si>
+  <si>
+    <t>Deals damage straight to hull from gun slot</t>
+  </si>
+  <si>
+    <t>Corrosion</t>
+  </si>
+  <si>
+    <t>Deals damage straight to hull over time</t>
+  </si>
+  <si>
+    <t>Swarm</t>
+  </si>
+  <si>
+    <t>Create X pod ship/s with 100 hull and can tap to deal 100 damage to enemy ship</t>
+  </si>
+  <si>
+    <t>Infection</t>
+  </si>
+  <si>
+    <t>Sacrifice 1 crew</t>
   </si>
   <si>
     <t>Fleet Option</t>
@@ -1246,7 +1292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1344,8 +1390,41 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1365,40 +1444,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3493,21 +3550,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="N1" s="47" t="s">
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="N1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="9" t="s">
@@ -3774,25 +3831,25 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="J8" s="47" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="J8" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="8" t="s">
@@ -4132,15 +4189,15 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -4357,27 +4414,27 @@
       <c r="R22" s="4"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="47" t="s">
+      <c r="J23" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="8" t="s">
@@ -4805,25 +4862,25 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="47" t="s">
+      <c r="J31" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
@@ -6524,13 +6581,13 @@
     <row r="16" spans="2:19">
       <c r="P16">
         <f ca="1">RANDBETWEEN(0,123)</f>
-        <v>76</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="2:16">
       <c r="P17" s="46">
         <f ca="1">RANDBETWEEN(0,6)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -6990,8 +7047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93013FD4-B940-4A70-A7DA-BF82FD0F616E}">
   <dimension ref="A2:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7001,7 +7058,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="23.25">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="47" t="s">
         <v>143</v>
       </c>
     </row>
@@ -7016,7 +7073,7 @@
       </c>
     </row>
     <row r="7" spans="2:2" ht="18.75">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="51" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7089,173 +7146,173 @@
       <c r="A23" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="59" t="s">
+      <c r="C23" s="48"/>
+      <c r="D23" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="58" t="s">
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="50" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="58" t="s">
+      <c r="C26" s="48"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="50" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="55"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="48"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="59" t="s">
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="58" t="s">
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="50" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="58" t="s">
+      <c r="C31" s="48"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="50" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>165</v>
       </c>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="58" t="s">
+      <c r="C34" s="48"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="50" t="s">
         <v>70</v>
       </c>
     </row>
@@ -7280,7 +7337,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="18.75">
-      <c r="B43" s="68" t="s">
+      <c r="B43" s="51" t="s">
         <v>170</v>
       </c>
     </row>
@@ -7415,7 +7472,7 @@
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="69" t="s">
+      <c r="B79" s="52" t="s">
         <v>190</v>
       </c>
     </row>
@@ -7505,10 +7562,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CADF2F4-A124-44BC-8A72-4CE3F16F5D04}">
-  <dimension ref="B2:D22"/>
+  <dimension ref="B2:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D32" sqref="B29:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7530,10 +7587,10 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="106.5" customHeight="1">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="63" t="s">
         <v>207</v>
       </c>
       <c r="D3" s="28" t="s">
@@ -7541,31 +7598,31 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="120">
-      <c r="B4" s="53"/>
-      <c r="C4" s="52"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="29" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="60">
-      <c r="B5" s="53"/>
-      <c r="C5" s="52"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="30" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="75">
-      <c r="B6" s="53"/>
-      <c r="C6" s="52"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="30" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="90">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="65" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="63" t="s">
         <v>213</v>
       </c>
       <c r="D7" s="28" t="s">
@@ -7573,17 +7630,17 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="90">
-      <c r="B8" s="53"/>
-      <c r="C8" s="52"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="30" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="75">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="63" t="s">
         <v>217</v>
       </c>
       <c r="D9" s="28" t="s">
@@ -7591,118 +7648,206 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="30">
-      <c r="B10" s="51"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="31" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="76.5" customHeight="1">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="65" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="63" t="s">
         <v>221</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="30">
-      <c r="B12" s="53"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="30" t="s">
+    <row r="12" spans="2:4" ht="30.75">
+      <c r="B12" s="68"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="31" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="45">
-      <c r="B13" s="50" t="s">
+    <row r="13" spans="2:4" ht="45.75">
+      <c r="B13" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="63" t="s">
         <v>225</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="30">
-      <c r="B14" s="53"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="30" t="s">
+    <row r="14" spans="2:4" ht="30.75">
+      <c r="B14" s="68"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="45.75">
+      <c r="B15" s="68"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="30" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="45">
-      <c r="B15" s="53"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="30" t="s">
+    <row r="16" spans="2:4" ht="60">
+      <c r="B16" s="68"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="30" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="60">
-      <c r="B16" s="53"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="30" t="s">
+    <row r="17" spans="2:4" ht="45">
+      <c r="B17" s="65" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="45">
-      <c r="B17" s="50" t="s">
+      <c r="C17" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="D17" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="D17" s="28" t="s">
+    </row>
+    <row r="18" spans="2:4" ht="45">
+      <c r="B18" s="68"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="30" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="45">
-      <c r="B18" s="53"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="30" t="s">
+    <row r="19" spans="2:4" ht="60.75" customHeight="1">
+      <c r="B19" s="65" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="60.75" customHeight="1">
-      <c r="B19" s="50" t="s">
+      <c r="C19" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="D19" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="D19" s="28" t="s">
+    </row>
+    <row r="20" spans="2:4" ht="30.75">
+      <c r="B20" s="68"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="45.75">
+      <c r="B21" s="65" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" ht="30">
-      <c r="B20" s="53"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="30" t="s">
+      <c r="C21" s="63" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" ht="45">
-      <c r="B21" s="50" t="s">
+      <c r="D21" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="C21" s="48" t="s">
+    </row>
+    <row r="22" spans="2:4" ht="30.75">
+      <c r="B22" s="68"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="62.25" customHeight="1">
+      <c r="B23" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="C23" s="63" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="30">
-      <c r="B22" s="51"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="31" t="s">
+      <c r="D23" s="28" t="s">
         <v>241</v>
       </c>
     </row>
+    <row r="24" spans="2:4" ht="62.25" customHeight="1">
+      <c r="B24" s="68"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="30.75">
+      <c r="B25" s="66"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="45.75">
+      <c r="B26" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="60.75">
+      <c r="B27" s="68"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="30.75">
+      <c r="B28" s="68"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="45.75">
+      <c r="B29" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>246</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="60.75">
+      <c r="B30" s="71"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="30.75">
+      <c r="B31" s="71"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="60.75">
+      <c r="B32" s="72"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="31" t="s">
+        <v>247</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="22">
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C19:C20"/>
@@ -7725,6 +7870,65 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1914FF74-0E8B-4E92-8BDD-103E839E1854}">
+  <dimension ref="B3:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" ht="23.25">
+      <c r="B3" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:S19"/>
   <sheetViews>
@@ -7743,26 +7947,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="F2" s="47" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>26</v>
@@ -7786,14 +7990,14 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="B5">
         <f>SUM(C10:C14)</f>
         <v>5000</v>
       </c>
       <c r="F5" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="G5">
         <f>SUM(H10:H14)</f>
@@ -7802,14 +8006,14 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="B6">
         <f>SUM(C17:C19)</f>
         <v>2000</v>
       </c>
       <c r="F6" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="G6">
         <f>SUM(H17:H19)</f>
@@ -7831,7 +8035,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>3</v>
@@ -7840,7 +8044,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>3</v>
@@ -8030,7 +8234,7 @@
         <v>206</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -8039,7 +8243,7 @@
         <v>206</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>

--- a/ShipCardGameCalcs.xlsx
+++ b/ShipCardGameCalcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C940714-625D-4C48-A3A9-03623713CFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A0DFE89-4D13-4BBE-8BF3-FD4398C4F847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
@@ -843,7 +843,7 @@
     <t>Corrosion</t>
   </si>
   <si>
-    <t>Deals damage straight to hull over time</t>
+    <t>Deals damage straight to hull at the start of target players turn</t>
   </si>
   <si>
     <t>Swarm</t>
@@ -1292,7 +1292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1429,22 +1429,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1455,6 +1443,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6581,7 +6578,7 @@
     <row r="16" spans="2:19">
       <c r="P16">
         <f ca="1">RANDBETWEEN(0,123)</f>
-        <v>113</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:16">
@@ -7564,7 +7561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CADF2F4-A124-44BC-8A72-4CE3F16F5D04}">
   <dimension ref="B2:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="D32" sqref="B29:D32"/>
     </sheetView>
   </sheetViews>
@@ -7587,7 +7584,7 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="106.5" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="69" t="s">
         <v>206</v>
       </c>
       <c r="C3" s="63" t="s">
@@ -7598,28 +7595,28 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="120">
-      <c r="B4" s="68"/>
-      <c r="C4" s="67"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="29" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="60">
-      <c r="B5" s="68"/>
-      <c r="C5" s="67"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="30" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="75">
-      <c r="B6" s="68"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="30" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="90">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="69" t="s">
         <v>212</v>
       </c>
       <c r="C7" s="63" t="s">
@@ -7630,14 +7627,14 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="90">
-      <c r="B8" s="68"/>
-      <c r="C8" s="67"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="30" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="75">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="69" t="s">
         <v>216</v>
       </c>
       <c r="C9" s="63" t="s">
@@ -7648,14 +7645,14 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="30">
-      <c r="B10" s="66"/>
-      <c r="C10" s="64"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="31" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="76.5" customHeight="1">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="69" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="63" t="s">
@@ -7666,14 +7663,14 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="30.75">
-      <c r="B12" s="68"/>
-      <c r="C12" s="67"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="31" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="45.75">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="69" t="s">
         <v>224</v>
       </c>
       <c r="C13" s="63" t="s">
@@ -7684,28 +7681,28 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="30.75">
-      <c r="B14" s="68"/>
-      <c r="C14" s="67"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="31" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="45.75">
-      <c r="B15" s="68"/>
-      <c r="C15" s="67"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="30" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="60">
-      <c r="B16" s="68"/>
-      <c r="C16" s="67"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="30" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="45">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="69" t="s">
         <v>229</v>
       </c>
       <c r="C17" s="63" t="s">
@@ -7716,14 +7713,14 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="45">
-      <c r="B18" s="68"/>
-      <c r="C18" s="67"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="30" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="60.75" customHeight="1">
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="69" t="s">
         <v>233</v>
       </c>
       <c r="C19" s="63" t="s">
@@ -7734,14 +7731,14 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="30.75">
-      <c r="B20" s="68"/>
-      <c r="C20" s="67"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="31" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="45.75">
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="69" t="s">
         <v>236</v>
       </c>
       <c r="C21" s="63" t="s">
@@ -7752,14 +7749,14 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="30.75">
-      <c r="B22" s="68"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="31" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="62.25" customHeight="1">
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="69" t="s">
         <v>239</v>
       </c>
       <c r="C23" s="63" t="s">
@@ -7770,21 +7767,21 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="62.25" customHeight="1">
-      <c r="B24" s="68"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="30" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="30.75">
-      <c r="B25" s="66"/>
-      <c r="C25" s="64"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="30" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="45.75">
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="69" t="s">
         <v>243</v>
       </c>
       <c r="C26" s="63" t="s">
@@ -7795,21 +7792,21 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="60.75">
-      <c r="B27" s="68"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="30" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75">
-      <c r="B28" s="68"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="30" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="45.75">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="66" t="s">
         <v>245</v>
       </c>
       <c r="C29" s="63" t="s">
@@ -7820,34 +7817,28 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="60.75">
-      <c r="B30" s="71"/>
-      <c r="C30" s="69"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="30" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="30.75">
-      <c r="B31" s="71"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="30" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="60.75">
-      <c r="B32" s="72"/>
-      <c r="C32" s="64"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="31" t="s">
         <v>247</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B26:B28"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C19:C20"/>
@@ -7864,6 +7855,12 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7873,8 +7870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1914FF74-0E8B-4E92-8BDD-103E839E1854}">
   <dimension ref="B3:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ShipCardGameCalcs.xlsx
+++ b/ShipCardGameCalcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A0DFE89-4D13-4BBE-8BF3-FD4398C4F847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4EFA6C7-89AA-4E42-B8B0-9C8437321480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="288">
   <si>
     <t>Ship Parameters</t>
   </si>
@@ -288,6 +288,21 @@
     <t>Points towards cards based around enemy crew</t>
   </si>
   <si>
+    <t>Starter Recommended</t>
+  </si>
+  <si>
+    <t>Medic/Research</t>
+  </si>
+  <si>
+    <t>Research/Engineering</t>
+  </si>
+  <si>
+    <t>Assault/Handling</t>
+  </si>
+  <si>
+    <t>Engineering/Medic</t>
+  </si>
+  <si>
     <t>Assault</t>
   </si>
   <si>
@@ -603,10 +618,13 @@
     <t>There are different phases during each players turns which run in the following order which only the current player does on their turn:</t>
   </si>
   <si>
-    <t>Here you untap any cards out on the space field unless stated otherwise</t>
-  </si>
-  <si>
-    <t>Crew Hire Phase</t>
+    <t>Disengage Phase</t>
+  </si>
+  <si>
+    <t>Here you Disengage (Turn any cards back to an upright position) any cards out on the space field unless stated otherwise and can choose to deploy to a different owned ship</t>
+  </si>
+  <si>
+    <t>Resource Allocation Phase</t>
   </si>
   <si>
     <t>Increment 1 of your department dice by 1 (Note you start off at 0 and a department dice goes up to a max of 20 each)</t>
@@ -621,7 +639,7 @@
     <t xml:space="preserve"> Also there can only ever be 1 admiral card on your side of the space field at any one time. Certain cards can also be played during your opponents turn at different phases.</t>
   </si>
   <si>
-    <t>To pay for the cost to play cards you will need to either tap a crew card or use some of your department dice resource by decreasing the department dice. You can use the  combination of crew cards and department dice</t>
+    <t>To pay for the cost to play cards you will need to either Engage a crew card or use some of your department dice resource by decreasing the department dice. You can use the  combination of crew cards and department dice</t>
   </si>
   <si>
     <t>Note that when using the department dice you don't regain what you had next turn.</t>
@@ -630,13 +648,13 @@
     <t>You can only assign crew cards to a ship if there is a free crew slot available</t>
   </si>
   <si>
-    <t>If you have any tier 1,2 or 3 crew members untapped they can be used to tap and assigned to a gun slot and fire at an enemy ship.</t>
+    <t>If you have any tier 1,2 or 3 crew members Disengagedthey can be used to Engage and assigned to a gun slot and fire at an enemy ship.</t>
   </si>
   <si>
     <t>If for example a ship has 3 gun slots, then only 3 crew cards can be assigned to a gun slot</t>
   </si>
   <si>
-    <t>Once you have assigned all targets, the assigned player can react with cards and use other ships to maneuver in front of the targeted ship making them the target (this requires at least 1 tier 1,2 or 3 crew member on that ship to tap).</t>
+    <t>Once you have assigned all targets, the assigned player can react with cards and use other ships to maneuver in front of the targeted ship making them the target (this requires at least 1 tier 1,2 or 3 crew member on that ship to Engage).</t>
   </si>
   <si>
     <t>Damage Phase</t>
@@ -663,7 +681,7 @@
     <t>You keep any unspent dice department resource NOT crew card resource</t>
   </si>
   <si>
-    <t>Now the turn gets moved to the next player on your left and they start their untap phase.</t>
+    <t>Now the turn gets moved to the next player on your left and they start their Disengage phase.</t>
   </si>
   <si>
     <t>Controlled deck is the battlefield conditions which affects the battlefield</t>
@@ -714,10 +732,10 @@
     <t>A crew card can only be played to fill A ships service slot. Only one crew card can be played per turn.</t>
   </si>
   <si>
-    <t>On tap a crew type card can be used to either provide a given department point used to play other cards or activate card abilities. Amount and Department point/s are defined on the card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any crew card can be tapped and assigned to their ships gun slot and shoot an enemy target ship </t>
+    <t>On Engage, a crew type card can be used to either provide a given department point used to play other cards or activate card abilities. Amount and Department point/s are defined on the card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any crew card can be Engaged and assigned to their ships gun slot and shoot an enemy target ship </t>
   </si>
   <si>
     <t>Crew cards will have a given Rank, Rank 1 can be played for free to a ship. Ranks higher than 1 will require a cost to be played</t>
@@ -834,12 +852,18 @@
     <t>Detail</t>
   </si>
   <si>
+    <t>Department Specific</t>
+  </si>
+  <si>
     <t>Piercing Round</t>
   </si>
   <si>
     <t>Deals damage straight to hull from gun slot</t>
   </si>
   <si>
+    <t>Engineering</t>
+  </si>
+  <si>
     <t>Corrosion</t>
   </si>
   <si>
@@ -855,7 +879,64 @@
     <t>Infection</t>
   </si>
   <si>
-    <t>Sacrifice 1 crew</t>
+    <t>Enemy ship Sacrifice 1 crew</t>
+  </si>
+  <si>
+    <t>Medic</t>
+  </si>
+  <si>
+    <t>Engage</t>
+  </si>
+  <si>
+    <t>To Engage a card the player must turn the card 90 degrees. Once this is done the card can't engage again until they are turned back facing the correct way. This can happen during the Disengage phase</t>
+  </si>
+  <si>
+    <t>Disengage</t>
+  </si>
+  <si>
+    <t>Turn card back to upright position</t>
+  </si>
+  <si>
+    <t>Sacrifice</t>
+  </si>
+  <si>
+    <t>Send target crew to Stasis</t>
+  </si>
+  <si>
+    <t>Evasion</t>
+  </si>
+  <si>
+    <t>Evade attack when targetted</t>
+  </si>
+  <si>
+    <t>Formation</t>
+  </si>
+  <si>
+    <t>When multiple of your ships attack</t>
+  </si>
+  <si>
+    <t>Repair</t>
+  </si>
+  <si>
+    <t>Repair ship by X amount</t>
+  </si>
+  <si>
+    <t>Invade</t>
+  </si>
+  <si>
+    <t>Disable enemy crew</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Draw/scry from Strategy deck</t>
+  </si>
+  <si>
+    <t>Revive</t>
+  </si>
+  <si>
+    <t>Return target crew from stasis</t>
   </si>
   <si>
     <t>Fleet Option</t>
@@ -1292,7 +1373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1396,6 +1477,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3547,21 +3631,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="N1" s="53" t="s">
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="N1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="9" t="s">
@@ -3828,25 +3912,25 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="J8" s="53" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="J8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="8" t="s">
@@ -4186,15 +4270,15 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -4411,27 +4495,27 @@
       <c r="R22" s="4"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="53" t="s">
+      <c r="J23" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="8" t="s">
@@ -4859,25 +4943,25 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="53" t="s">
+      <c r="J31" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
@@ -5599,10 +5683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91273792-62E9-442E-9CC7-E8C6E6BD4008}">
-  <dimension ref="B1:V29"/>
+  <dimension ref="B1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6345,6 +6429,31 @@
       <c r="H29">
         <f>(H26*G5*F5)+(H28*G7*F7)</f>
         <v>1500</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -6390,7 +6499,7 @@
         <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:19">
@@ -6400,7 +6509,7 @@
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
@@ -6428,7 +6537,7 @@
     </row>
     <row r="4" spans="2:19">
       <c r="B4" s="45" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N4" s="25" t="s">
         <v>13</v>
@@ -6451,7 +6560,7 @@
     </row>
     <row r="5" spans="2:19">
       <c r="B5" s="43" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N5" s="26" t="s">
         <v>14</v>
@@ -6474,7 +6583,7 @@
     </row>
     <row r="6" spans="2:19">
       <c r="B6" s="45" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N6" s="27" t="s">
         <v>15</v>
@@ -6497,7 +6606,7 @@
     </row>
     <row r="7" spans="2:19">
       <c r="B7" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="N7" s="26" t="s">
         <v>16</v>
@@ -6578,13 +6687,13 @@
     <row r="16" spans="2:19">
       <c r="P16">
         <f ca="1">RANDBETWEEN(0,123)</f>
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:16">
       <c r="P17" s="46">
         <f ca="1">RANDBETWEEN(0,6)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -6601,12 +6710,12 @@
         <v>17</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="2:16">
       <c r="L19" s="45" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:16">
@@ -6617,12 +6726,12 @@
         <v>17</v>
       </c>
       <c r="L20" s="43" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:16">
       <c r="L21" s="45" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="2:16">
@@ -6632,7 +6741,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -6668,7 +6777,7 @@
         <v>58</v>
       </c>
       <c r="L25" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -6680,8 +6789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EC53A5-8F19-4711-93EA-0F4CBD261EC8}">
   <dimension ref="B2:B83"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6691,347 +6800,347 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="21" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -7044,8 +7153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93013FD4-B940-4A70-A7DA-BF82FD0F616E}">
   <dimension ref="A2:K81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L71" sqref="L71"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7056,431 +7165,436 @@
   <sheetData>
     <row r="2" spans="2:2" ht="23.25">
       <c r="B2" s="47" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="18.75">
       <c r="B7" s="51" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="B17" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="B18" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="B19" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="B20" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C23" s="48"/>
-      <c r="D23" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="56"/>
+      <c r="D23" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="57"/>
       <c r="J23" s="48"/>
       <c r="K23" s="50" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="60"/>
       <c r="J24" s="48"/>
       <c r="K24" s="48"/>
     </row>
     <row r="25" spans="1:11">
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="59"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
       <c r="J25" s="48"/>
       <c r="K25" s="48"/>
     </row>
     <row r="26" spans="1:11">
       <c r="B26" s="50" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C26" s="48"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="60"/>
       <c r="J26" s="48"/>
       <c r="K26" s="50" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="59"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="60"/>
       <c r="J27" s="48"/>
       <c r="K27" s="48"/>
     </row>
     <row r="28" spans="1:11">
       <c r="B28" s="50" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C28" s="49"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="63"/>
       <c r="J28" s="49"/>
       <c r="K28" s="48"/>
     </row>
     <row r="29" spans="1:11">
       <c r="B29" s="48"/>
       <c r="C29" s="48"/>
-      <c r="D29" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="56"/>
+      <c r="D29" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="57"/>
       <c r="J29" s="48"/>
       <c r="K29" s="50" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="B30" s="48"/>
       <c r="C30" s="48"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="60"/>
       <c r="J30" s="48"/>
       <c r="K30" s="48"/>
     </row>
     <row r="31" spans="1:11">
       <c r="B31" s="50" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C31" s="48"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="59"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="60"/>
       <c r="J31" s="48"/>
       <c r="K31" s="50" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="59"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="60"/>
       <c r="J32" s="48"/>
       <c r="K32" s="48"/>
     </row>
     <row r="33" spans="1:11">
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="59"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="60"/>
       <c r="J33" s="48"/>
       <c r="K33" s="48"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B34" s="50" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C34" s="48"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="63"/>
       <c r="J34" s="48"/>
       <c r="K34" s="50" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="B37" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="B38" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="B40" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="18.75">
       <c r="B43" s="51" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="B44" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="B46" s="3" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="B47" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="B48" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="3" t="s">
-        <v>96</v>
+      <c r="B50" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="3" t="s">
-        <v>99</v>
+      <c r="B53" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" t="s">
-        <v>176</v>
+      <c r="B56" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="3" t="s">
-        <v>101</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" t="s">
-        <v>181</v>
+      <c r="B63" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>182</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="52" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -7504,52 +7618,52 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -7561,8 +7675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CADF2F4-A124-44BC-8A72-4CE3F16F5D04}">
   <dimension ref="B2:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D32" sqref="B29:D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7574,267 +7688,267 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="32" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="106.5" customHeight="1">
-      <c r="B3" s="69" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>207</v>
+      <c r="B3" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>213</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="120">
-      <c r="B4" s="70"/>
-      <c r="C4" s="64"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="106.5">
+      <c r="B4" s="71"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="29" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="60">
-      <c r="B5" s="70"/>
-      <c r="C5" s="64"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="60.75">
+      <c r="B5" s="71"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="30" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="75">
-      <c r="B6" s="70"/>
-      <c r="C6" s="64"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="30" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="90">
-      <c r="B7" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>213</v>
+      <c r="B7" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>219</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="90">
-      <c r="B8" s="70"/>
-      <c r="C8" s="64"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="30" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="75">
-      <c r="B9" s="69" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>217</v>
+      <c r="B9" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>223</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="30">
-      <c r="B10" s="71"/>
-      <c r="C10" s="65"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="31" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="76.5" customHeight="1">
-      <c r="B11" s="69" t="s">
-        <v>220</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>221</v>
+      <c r="B11" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>227</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="30.75">
-      <c r="B12" s="70"/>
-      <c r="C12" s="64"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="31" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="45.75">
-      <c r="B13" s="69" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>225</v>
+      <c r="B13" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>231</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="30.75">
-      <c r="B14" s="70"/>
-      <c r="C14" s="64"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="31" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="45.75">
-      <c r="B15" s="70"/>
-      <c r="C15" s="64"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="30" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="60">
-      <c r="B16" s="70"/>
-      <c r="C16" s="64"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="30" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="45">
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="45">
+      <c r="B18" s="71"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="60.75" customHeight="1">
+      <c r="B19" s="70" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="30.75">
+      <c r="B20" s="71"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="C17" s="63" t="s">
-        <v>230</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="45">
-      <c r="B18" s="70"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="30" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="60.75" customHeight="1">
-      <c r="B19" s="69" t="s">
-        <v>233</v>
-      </c>
-      <c r="C19" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="30.75">
-      <c r="B20" s="70"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="31" t="s">
-        <v>223</v>
-      </c>
     </row>
     <row r="21" spans="2:4" ht="45.75">
-      <c r="B21" s="69" t="s">
-        <v>236</v>
-      </c>
-      <c r="C21" s="63" t="s">
-        <v>237</v>
+      <c r="B21" s="70" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>243</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="30.75">
-      <c r="B22" s="70"/>
-      <c r="C22" s="64"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="31" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="62.25" customHeight="1">
-      <c r="B23" s="69" t="s">
-        <v>239</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>240</v>
+      <c r="B23" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>246</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="62.25" customHeight="1">
-      <c r="B24" s="70"/>
-      <c r="C24" s="64"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="30" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="30.75">
-      <c r="B25" s="71"/>
-      <c r="C25" s="65"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="30" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="45.75">
-      <c r="B26" s="69" t="s">
-        <v>243</v>
-      </c>
-      <c r="C26" s="63" t="s">
-        <v>244</v>
+      <c r="B26" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>250</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="60.75">
-      <c r="B27" s="70"/>
-      <c r="C27" s="64"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="30" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75">
-      <c r="B28" s="70"/>
-      <c r="C28" s="64"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="30" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="45.75">
-      <c r="B29" s="66" t="s">
-        <v>245</v>
-      </c>
-      <c r="C29" s="63" t="s">
-        <v>246</v>
+      <c r="B29" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>252</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="60.75">
-      <c r="B30" s="67"/>
-      <c r="C30" s="64"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="30" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="30.75">
-      <c r="B31" s="67"/>
-      <c r="C31" s="64"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="30" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="60.75">
-      <c r="B32" s="68"/>
-      <c r="C32" s="65"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="31" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -7868,10 +7982,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1914FF74-0E8B-4E92-8BDD-103E839E1854}">
-  <dimension ref="B3:C7"/>
+  <dimension ref="B3:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7880,45 +7994,189 @@
     <col min="3" max="3" width="73.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="23.25">
+    <row r="3" spans="2:4" ht="23.25">
       <c r="B3" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
+        <v>254</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" s="3" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
+        <v>257</v>
+      </c>
+      <c r="D4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
+        <v>260</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" s="3" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
+        <v>262</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" s="3" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C7" t="s">
-        <v>256</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="D7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="45.75">
+      <c r="B8" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7944,26 +8202,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="F2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="F2" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>26</v>
@@ -7987,14 +8245,14 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="B5">
         <f>SUM(C10:C14)</f>
         <v>5000</v>
       </c>
       <c r="F5" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="G5">
         <f>SUM(H10:H14)</f>
@@ -8003,14 +8261,14 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="B6">
         <f>SUM(C17:C19)</f>
         <v>2000</v>
       </c>
       <c r="F6" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="G6">
         <f>SUM(H17:H19)</f>
@@ -8032,7 +8290,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>3</v>
@@ -8041,7 +8299,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>3</v>
@@ -8228,19 +8486,19 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="17" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>

--- a/ShipCardGameCalcs.xlsx
+++ b/ShipCardGameCalcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4EFA6C7-89AA-4E42-B8B0-9C8437321480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C10CB07-5693-44A5-B180-0F0EDA992F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="Ideas" sheetId="6" r:id="rId6"/>
     <sheet name="Card Details" sheetId="5" r:id="rId7"/>
     <sheet name="Card Mechanics" sheetId="9" r:id="rId8"/>
-    <sheet name="Comparison" sheetId="2" r:id="rId9"/>
+    <sheet name="Species" sheetId="10" r:id="rId9"/>
+    <sheet name="Comparison" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="325">
   <si>
     <t>Ship Parameters</t>
   </si>
@@ -648,7 +649,7 @@
     <t>You can only assign crew cards to a ship if there is a free crew slot available</t>
   </si>
   <si>
-    <t>If you have any tier 1,2 or 3 crew members Disengagedthey can be used to Engage and assigned to a gun slot and fire at an enemy ship.</t>
+    <t>If you have any tier 1,2 or 3 crew members Disengaged they can be used to Engage and assigned to a gun slot and fire at an enemy ship.</t>
   </si>
   <si>
     <t>If for example a ship has 3 gun slots, then only 3 crew cards can be assigned to a gun slot</t>
@@ -747,7 +748,7 @@
     <t xml:space="preserve">Captain and Leuitenant cards will have their own unique benefits and abilities to their assigned ship. </t>
   </si>
   <si>
-    <t>A Captain and Leuitenant card can only be played to fill a Captain or Leuitenant slot. Only one Captain or Leuitenant card can be played per turn.</t>
+    <t>A Captain and Leuitenant card can only be played to fill a Captain or Leuitenant slot. Only one Captain or Leuitenant card can be played per turn. You can't have duplicates in your deck.</t>
   </si>
   <si>
     <t>A captain and leuitenant triggered and payed abilities can only be used for their assigned ship or for ships that can't have a captain or leuitenant</t>
@@ -762,7 +763,7 @@
     <t>There can only be one admiral card in play at any one time on your side of the battlefield as long as you can pay their cost</t>
   </si>
   <si>
-    <t>Admiral cards can only be played on your turn</t>
+    <t>Admiral cards can only be played on your turn and you can't have duplicates in your deck</t>
   </si>
   <si>
     <t>Event</t>
@@ -849,12 +850,33 @@
     <t>If the missions runs out of turns the it will activate the consequence affect and then get sent to the scrapyard</t>
   </si>
   <si>
+    <t>Ship</t>
+  </si>
+  <si>
+    <t>Each player will have Ships at the start of the game on the space field. The objective of the game is to destroy the opponents ships before they destroy yours.</t>
+  </si>
+  <si>
+    <t>You can have any amount of ships as long as the total points worth is not greater than the agreed play points</t>
+  </si>
+  <si>
+    <t>You must have at least one ship that can hold a Captain</t>
+  </si>
+  <si>
+    <t>To destroy a ship you have to deplete their Hull to 0.</t>
+  </si>
+  <si>
+    <t>You can only hit a ships Hull if its Shield has been depleted to 0 first, unless stated otherwise</t>
+  </si>
+  <si>
     <t>Detail</t>
   </si>
   <si>
     <t>Department Specific</t>
   </si>
   <si>
+    <t>Department Type Overview</t>
+  </si>
+  <si>
     <t>Piercing Round</t>
   </si>
   <si>
@@ -864,39 +886,57 @@
     <t>Engineering</t>
   </si>
   <si>
+    <t>Department</t>
+  </si>
+  <si>
     <t>Corrosion</t>
   </si>
   <si>
     <t>Deals damage straight to hull at the start of target players turn</t>
   </si>
   <si>
+    <t>Like to have the most upgraded ships out there. Using ship upgrades and advance technology to bypass the enemy ships shields and keep their ship under repair. They aren't one for early game but late game they can be tough to overcome</t>
+  </si>
+  <si>
     <t>Swarm</t>
   </si>
   <si>
     <t>Create X pod ship/s with 100 hull and can tap to deal 100 damage to enemy ship</t>
   </si>
   <si>
+    <t>One to keep the enemy under pressure invading their ships during the early game. They will call for help from their swarm and become burtal in the early game, however during the late game they fall off.</t>
+  </si>
+  <si>
     <t>Infection</t>
   </si>
   <si>
-    <t>Enemy ship Sacrifice 1 crew</t>
+    <t>Target Enemy ship Sacrifice 1 crew at the start of their Disengage Phase</t>
   </si>
   <si>
     <t>Medic</t>
   </si>
   <si>
+    <t>Keeping the enemy crew down to a minimum and able to revive their own. They will use disease to their advantage against enemy ships and stasis. Known for having the most "unique" crew with all their upgrades they have a lot up their sleeves. They strive in the mid game</t>
+  </si>
+  <si>
     <t>Engage</t>
   </si>
   <si>
     <t>To Engage a card the player must turn the card 90 degrees. Once this is done the card can't engage again until they are turned back facing the correct way. This can happen during the Disengage phase</t>
   </si>
   <si>
+    <t>Being most knowledgable to get the cards they want when they need it using it to deal a lot of damage with cosmic cards. They are known for their mid/late game</t>
+  </si>
+  <si>
     <t>Disengage</t>
   </si>
   <si>
     <t>Turn card back to upright position</t>
   </si>
   <si>
+    <t>The tricksters of departments, maneuvering out the way of potential threat and normally played with a widespread of ships. Their formation and tactics are like no other when flying their ships on the space field. They strive in the early/mid game but fall off in the late game</t>
+  </si>
+  <si>
     <t>Sacrifice</t>
   </si>
   <si>
@@ -918,25 +958,98 @@
     <t>Repair</t>
   </si>
   <si>
-    <t>Repair ship by X amount</t>
+    <t>Repair ship/s by X amount</t>
   </si>
   <si>
     <t>Invade</t>
   </si>
   <si>
-    <t>Disable enemy crew</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>Draw/scry from Strategy deck</t>
+    <t>Disable enemy crew card/s on target ship/s</t>
   </si>
   <si>
     <t>Revive</t>
   </si>
   <si>
-    <t>Return target crew from stasis</t>
+    <t>Return target crew card from stasis and assign to target ship</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>View cards on top of your Strategy deck, pick X amount to place in your hand and put the rest in any order on top of your strategy deck</t>
+  </si>
+  <si>
+    <t>Disease spread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal damage to enemy ship based off cards in their stasis. </t>
+  </si>
+  <si>
+    <t>Cosmic Knowledge</t>
+  </si>
+  <si>
+    <t>Deal damage to enemy ship based off Event and on Going Event cards played this turn</t>
+  </si>
+  <si>
+    <t>Counter Attack</t>
+  </si>
+  <si>
+    <t>For each attack evaded this turn deal X amount of damage to target ship</t>
+  </si>
+  <si>
+    <t>Mutiny</t>
+  </si>
+  <si>
+    <t>If you control all crew slots on enemy ship for X amount of turns then you take control of that ship.</t>
+  </si>
+  <si>
+    <t>Powering Up</t>
+  </si>
+  <si>
+    <t>Target ship gains X amount of shield at start of your Disengage Phase</t>
+  </si>
+  <si>
+    <t>Discard</t>
+  </si>
+  <si>
+    <t>Send card/s from your hand to the Junkyard/Stasis</t>
+  </si>
+  <si>
+    <t>Special features</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Humans have had their fair share off space wars against their own which has also meant for eventual peace across their systems. Since then most are very open to various species in their crew but some still hold strength and prefer to stick to their own.</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>A lot of robots respect and work for the species that created them and are one of the most advanced in thei ship understanding. But there are some who left and rebelled against their masters, looking to convert any none Robots species as their own</t>
+  </si>
+  <si>
+    <t>Engage: Repair ship by 100</t>
+  </si>
+  <si>
+    <t>Cyborg</t>
+  </si>
+  <si>
+    <t>Some species have needed to under go so much operation that they are more machine than what they once were. These have become known as cyborgs and are known for being very multitalented in departments.</t>
+  </si>
+  <si>
+    <t>Engage: Get +1 to one of two different departments. For example "Enters Engaged or attached ship takes 200 damage
+Engage: Medic or Handling + 1"</t>
+  </si>
+  <si>
+    <t>Krileon</t>
+  </si>
+  <si>
+    <t>These huge crab like species are known for their size and brute strength. Having huge claws they normally frighten most at first sight, however having as an ally can really change the tides of a battle.</t>
+  </si>
+  <si>
+    <t>Engage: Engage 1 enemy crew member until start of your next turn</t>
   </si>
   <si>
     <t>Fleet Option</t>
@@ -1085,7 +1198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1369,11 +1482,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1481,6 +1620,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1516,8 +1658,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1528,20 +1679,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="140">
+  <dxfs count="144">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -3072,13 +3261,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="TableStyleMedium2 2" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="139"/>
-      <tableStyleElement type="headerRow" dxfId="138"/>
-      <tableStyleElement type="totalRow" dxfId="137"/>
-      <tableStyleElement type="firstColumn" dxfId="136"/>
-      <tableStyleElement type="lastColumn" dxfId="135"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="134"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="133"/>
+      <tableStyleElement type="wholeTable" dxfId="143"/>
+      <tableStyleElement type="headerRow" dxfId="142"/>
+      <tableStyleElement type="totalRow" dxfId="141"/>
+      <tableStyleElement type="firstColumn" dxfId="140"/>
+      <tableStyleElement type="lastColumn" dxfId="139"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="138"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="137"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3093,204 +3282,215 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TblBattlefieldFlt" displayName="TblBattlefieldFlt" ref="A9:G15" totalsRowCount="1" headerRowDxfId="132" dataDxfId="131" totalsRowDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TblBattlefieldFlt" displayName="TblBattlefieldFlt" ref="A9:G15" totalsRowCount="1" headerRowDxfId="136" dataDxfId="135" totalsRowDxfId="134">
   <autoFilter ref="A9:G14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="128"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="126"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="123" totalsRowDxfId="124"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="121" totalsRowDxfId="122"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="119" totalsRowDxfId="120"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="118"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="131" totalsRowDxfId="132"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="129" totalsRowDxfId="130"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="128"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="126"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="123" totalsRowDxfId="124"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="121" totalsRowDxfId="122"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="TblFltCrewSizes" displayName="TblFltCrewSizes" ref="A17:G21" totalsRowCount="1" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="TblFltCrewSizes" displayName="TblFltCrewSizes" ref="A17:G21" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A17:G20" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="12" totalsRowDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="A" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="16" totalsRowDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="A" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="15">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[A])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="B" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="9">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="B" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="13">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[B])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="C" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="7">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="C" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="11">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[C])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="D" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="5">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="D" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="9">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[D])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="E" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="3">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="E" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="7">
       <totalsRowFormula>SUBTOTAL(109,TblFltCrewSizes[E])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{186E891F-CC1D-4ED6-98A6-972A212A6308}" name="Table3" displayName="Table3" ref="I4:J9" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="I4:J9" xr:uid="{186E891F-CC1D-4ED6-98A6-972A212A6308}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C81D7C06-9F89-4717-99F4-FA4E60C3BBF7}" name="Department"/>
+    <tableColumn id="2" xr3:uid="{EE9AB412-432D-45A0-92A5-DA3A84572278}" name="Description" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="TblFleetShipValues" displayName="TblFleetShipValues" ref="J9:Q15" totalsRowCount="1" headerRowDxfId="116" dataDxfId="115" totalsRowDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="TblFleetShipValues" displayName="TblFleetShipValues" ref="J9:Q15" totalsRowCount="1" headerRowDxfId="120" dataDxfId="119" totalsRowDxfId="118">
   <autoFilter ref="J9:Q14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Option" totalsRowLabel="Total " dataDxfId="112" totalsRowDxfId="113"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="111">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Option" totalsRowLabel="Total " dataDxfId="116" totalsRowDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="114" totalsRowDxfId="115">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH(TblFleetShipValues[[#This Row],[Option]],TblBattlefieldFlt[Option],0),MATCH(TblFleetShipValues[[#Headers],[A]],TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipPoints[Points],MATCH(TblFleetShipValues[[#This Row],[Option]],TblShipPoints[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="109">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="112" totalsRowDxfId="113">
       <calculatedColumnFormula>C10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="106" totalsRowDxfId="107">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="111">
       <calculatedColumnFormula>D10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="104" totalsRowDxfId="105">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="109">
       <calculatedColumnFormula>E10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="103">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="106" totalsRowDxfId="107">
       <calculatedColumnFormula>F10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="100" totalsRowDxfId="101">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="104" totalsRowDxfId="105">
       <calculatedColumnFormula>G10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Name" dataDxfId="98" totalsRowDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Name" dataDxfId="102" totalsRowDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TblRoleControlValues" displayName="TblRoleControlValues" ref="N2:Q3" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TblRoleControlValues" displayName="TblRoleControlValues" ref="N2:Q3" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
   <autoFilter ref="N2:Q3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Generic" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Service" dataDxfId="94"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Lieutenant" dataDxfId="93"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Captain" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Generic" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Service" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Lieutenant" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Captain" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TblAdjFleetRolesValues" displayName="TblAdjFleetRolesValues" ref="A24:H30" totalsRowCount="1" headerRowDxfId="91" dataDxfId="90" totalsRowDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TblAdjFleetRolesValues" displayName="TblAdjFleetRolesValues" ref="A24:H30" totalsRowCount="1" headerRowDxfId="95" dataDxfId="94" totalsRowDxfId="93">
   <autoFilter ref="A24:H29" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="87" totalsRowDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="85" totalsRowDxfId="86">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="91" totalsRowDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="89" totalsRowDxfId="90">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(B$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="84">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="87" totalsRowDxfId="88">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(C$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="82">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="85" totalsRowDxfId="86">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(D$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="80">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="84">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(E$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="78">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="82">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(F$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="76">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="80">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A25,TblBattlefieldFlt[Option],0),MATCH(G$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Adjusted],MATCH($A25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Name" dataDxfId="73" totalsRowDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Name" dataDxfId="77" totalsRowDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="TblCombinedAdjFltValues" displayName="TblCombinedAdjFltValues" ref="A32:G43" totalsRowCount="1" headerRowDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="TblCombinedAdjFltValues" displayName="TblCombinedAdjFltValues" ref="A32:G43" totalsRowCount="1" headerRowDxfId="76">
   <autoFilter ref="A32:G42" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Option" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="70" totalsRowDxfId="71">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="74" totalsRowDxfId="75">
       <calculatedColumnFormula>K10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="68" totalsRowDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="D" totalsRowFunction="sum" totalsRowDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="E" totalsRowFunction="sum" totalsRowDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="F" totalsRowFunction="sum" totalsRowDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="72" totalsRowDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="70" totalsRowDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="D" totalsRowFunction="sum" totalsRowDxfId="69"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="E" totalsRowFunction="sum" totalsRowDxfId="68"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="F" totalsRowFunction="sum" totalsRowDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="TblGenFleetRolesValues" displayName="TblGenFleetRolesValues" ref="J24:Q30" totalsRowCount="1" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="TblGenFleetRolesValues" displayName="TblGenFleetRolesValues" ref="J24:Q30" totalsRowCount="1" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="J24:Q29" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="59">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Option" totalsRowLabel="Total" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="63">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(K$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="57">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="61">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(L$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="55">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="59">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(M$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="53">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="D" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="57">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(N$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="51">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="E" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="55">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(O$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="49">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="F" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="53">
       <calculatedColumnFormula>(INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($J25,TblBattlefieldFlt[Option],0),MATCH(P$24,TblBattlefieldFlt[[#Headers],[A]:[F]],0)))*(INDEX(TblShipCrew[Generic (500)],MATCH($J25,TblShipCrew[Ships],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Name" dataDxfId="46" totalsRowDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Name" dataDxfId="50" totalsRowDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="TblCombinedGenFltValues" displayName="TblCombinedGenFltValues" ref="J32:P43" totalsRowCount="1" headerRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="TblCombinedGenFltValues" displayName="TblCombinedGenFltValues" ref="J32:P43" totalsRowCount="1" headerRowDxfId="49">
   <autoFilter ref="J32:P42" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Option" totalsRowLabel="Total" totalsRowDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="43">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Option" totalsRowLabel="Total" totalsRowDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="A" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="47">
       <calculatedColumnFormula>T10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="D" totalsRowFunction="sum" totalsRowDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="E" totalsRowFunction="sum" totalsRowDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="F" totalsRowFunction="sum" totalsRowDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="B" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="C" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="D" totalsRowFunction="sum" totalsRowDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="E" totalsRowFunction="sum" totalsRowDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="F" totalsRowFunction="sum" totalsRowDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="TblShipCrew" displayName="TblShipCrew" ref="D2:L7" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" headerRowBorderDxfId="31" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="TblShipCrew" displayName="TblShipCrew" ref="D2:L7" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" headerRowBorderDxfId="35" tableBorderDxfId="36">
   <autoFilter ref="D2:L7" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Ships" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Service" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Lieutenant" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Captain" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Service Value" dataDxfId="26">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Ships" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Service" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Lieutenant" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Captain" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Service Value" dataDxfId="30">
       <calculatedColumnFormula>TblShipCrew[[#This Row],[Service]]*TblRoleControlValues[Service]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Lt Value" dataDxfId="25">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Lt Value" dataDxfId="29">
       <calculatedColumnFormula>TblShipCrew[[#This Row],[Lieutenant]]*TblRoleControlValues[Lieutenant]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Cpt Value" dataDxfId="24">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Cpt Value" dataDxfId="28">
       <calculatedColumnFormula>TblShipCrew[[#This Row],[Captain]]*TblRoleControlValues[Captain]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Adjusted" dataDxfId="23">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Adjusted" dataDxfId="27">
       <calculatedColumnFormula>SUM(TblShipCrew[[#This Row],[Service Value]:[Cpt Value]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="Generic (500)" dataDxfId="22">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="Generic (500)" dataDxfId="26">
       <calculatedColumnFormula>SUM(TblShipCrew[[#This Row],[Service]:[Captain]])*TblRoleControlValues[Generic]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3299,11 +3499,11 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="TblShipPoints" displayName="TblShipPoints" ref="A2:B7" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="TblShipPoints" displayName="TblShipPoints" ref="A2:B7" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23">
   <autoFilter ref="A2:B7" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Ships" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Points" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Ships" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Points" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3631,21 +3831,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="N1" s="54" t="s">
+      <c r="A1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="N1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="9" t="s">
@@ -3912,25 +4112,25 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="J8" s="54" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="J8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="8" t="s">
@@ -4270,15 +4470,15 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -4495,27 +4695,27 @@
       <c r="R22" s="4"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="54" t="s">
+      <c r="J23" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="8" t="s">
@@ -4943,25 +5143,25 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="54" t="s">
+      <c r="J31" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
@@ -5681,6 +5881,408 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:S19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19">
+      <c r="A2" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="F2" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>INDEX(TblCombinedAdjFltValues[[#Totals],[A]:[F]],MATCH(Comparison!$B$3,TblCombinedAdjFltValues[[#Headers],[A]:[F]]))</f>
+        <v>7000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f>INDEX(TblCombinedAdjFltValues[[#Totals],[A]:[F]],MATCH(Comparison!$G$3,TblCombinedAdjFltValues[[#Headers],[A]:[F]]))</f>
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5">
+        <f>SUM(C10:C14)</f>
+        <v>5000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G5">
+        <f>SUM(H10:H14)</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B6">
+        <f>SUM(C17:C19)</f>
+        <v>2000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G6">
+        <f>SUM(H17:H19)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="C7" s="17"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="C8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="Q8" s="3"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="7"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="18">
+        <f>INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A10,TblBattlefieldFlt[Option],0),MATCH($B$3,TblBattlefieldFlt[[#Headers],[A]:[F]],0))</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="17">
+        <f>INDEX(TblShipPoints[Points],MATCH(A10,TblShipPoints[Ships],0))*B10</f>
+        <v>5000</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="18">
+        <f>INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($F10,TblBattlefieldFlt[Option],0),MATCH($G$3,TblBattlefieldFlt[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="17">
+        <f>INDEX(TblShipPoints[Points],MATCH(F10,TblShipPoints[Ships],0))*G10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="7"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="18">
+        <f>INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A11,TblBattlefieldFlt[Option],0),MATCH($B$3,TblBattlefieldFlt[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="17">
+        <f>INDEX(TblShipPoints[Points],MATCH(A11,TblShipPoints[Ships],0))*B11</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="18">
+        <f>INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($F11,TblBattlefieldFlt[Option],0),MATCH($G$3,TblBattlefieldFlt[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
+        <f>INDEX(TblShipPoints[Points],MATCH(F11,TblShipPoints[Ships],0))*G11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="7"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="18">
+        <f>INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A12,TblBattlefieldFlt[Option],0),MATCH($B$3,TblBattlefieldFlt[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="17">
+        <f>INDEX(TblShipPoints[Points],MATCH(A12,TblShipPoints[Ships],0))*B12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="18">
+        <f>INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($F12,TblBattlefieldFlt[Option],0),MATCH($G$3,TblBattlefieldFlt[[#Headers],[A]:[F]],0))</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="17">
+        <f>INDEX(TblShipPoints[Points],MATCH(F12,TblShipPoints[Ships],0))*G12</f>
+        <v>2500</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="7"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="18">
+        <f>INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A13,TblBattlefieldFlt[Option],0),MATCH($B$3,TblBattlefieldFlt[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="17">
+        <f>INDEX(TblShipPoints[Points],MATCH(A13,TblShipPoints[Ships],0))*B13</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="18">
+        <f>INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($F13,TblBattlefieldFlt[Option],0),MATCH($G$3,TblBattlefieldFlt[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="17">
+        <f>INDEX(TblShipPoints[Points],MATCH(F13,TblShipPoints[Ships],0))*G13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="7"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="18">
+        <f>INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A14,TblBattlefieldFlt[Option],0),MATCH($B$3,TblBattlefieldFlt[[#Headers],[A]:[F]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="17">
+        <f>INDEX(TblShipPoints[Points],MATCH(A14,TblShipPoints[Ships],0))*B14</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="18">
+        <f>INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($F14,TblBattlefieldFlt[Option],0),MATCH($G$3,TblBattlefieldFlt[[#Headers],[A]:[F]],0))</f>
+        <v>10</v>
+      </c>
+      <c r="H14" s="17">
+        <f>INDEX(TblShipPoints[Points],MATCH(F14,TblShipPoints[Ships],0))*G14</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="18">
+        <f>SUMPRODUCT($B$10:$B$14,TblShipCrew[Service])</f>
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <f>TblRoleControlValues[Service]*B17</f>
+        <v>1100</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="18">
+        <f>SUMPRODUCT($G$10:$G$14,TblShipCrew[Service])</f>
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <f>TblRoleControlValues[Service]*G17</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="18">
+        <f>SUMPRODUCT($B$10:$B$14,TblShipCrew[Lieutenant])</f>
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <f>TblRoleControlValues[Lieutenant]*B18</f>
+        <v>600</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="18">
+        <f>SUMPRODUCT($G$10:$G$14,TblShipCrew[Lieutenant])</f>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f>TblRoleControlValues[Lieutenant]*G18</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="18">
+        <f>SUMPRODUCT($B$10:$B$14,TblShipCrew[Captain])</f>
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f>TblRoleControlValues[Captain]*B19</f>
+        <v>300</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="18">
+        <f>SUMPRODUCT($G$10:$G$14,TblShipCrew[Captain])</f>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f>TblRoleControlValues[Captain]*G19</f>
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91273792-62E9-442E-9CC7-E8C6E6BD4008}">
   <dimension ref="B1:V32"/>
@@ -6687,7 +7289,7 @@
     <row r="16" spans="2:19">
       <c r="P16">
         <f ca="1">RANDBETWEEN(0,123)</f>
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:16">
@@ -7153,8 +7755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93013FD4-B940-4A70-A7DA-BF82FD0F616E}">
   <dimension ref="A2:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:B65"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7256,14 +7858,14 @@
         <v>75</v>
       </c>
       <c r="C23" s="48"/>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="58"/>
       <c r="J23" s="48"/>
       <c r="K23" s="50" t="s">
         <v>167</v>
@@ -7272,24 +7874,24 @@
     <row r="24" spans="1:11">
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="60"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="61"/>
       <c r="J24" s="48"/>
       <c r="K24" s="48"/>
     </row>
     <row r="25" spans="1:11">
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="61"/>
       <c r="J25" s="48"/>
       <c r="K25" s="48"/>
     </row>
@@ -7298,12 +7900,12 @@
         <v>77</v>
       </c>
       <c r="C26" s="48"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="60"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="61"/>
       <c r="J26" s="48"/>
       <c r="K26" s="50" t="s">
         <v>168</v>
@@ -7312,12 +7914,12 @@
     <row r="27" spans="1:11">
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="60"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="48"/>
       <c r="K27" s="48"/>
     </row>
@@ -7326,26 +7928,26 @@
         <v>169</v>
       </c>
       <c r="C28" s="49"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="63"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
       <c r="J28" s="49"/>
       <c r="K28" s="48"/>
     </row>
     <row r="29" spans="1:11">
       <c r="B29" s="48"/>
       <c r="C29" s="48"/>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58"/>
       <c r="J29" s="48"/>
       <c r="K29" s="50" t="s">
         <v>169</v>
@@ -7354,12 +7956,12 @@
     <row r="30" spans="1:11">
       <c r="B30" s="48"/>
       <c r="C30" s="48"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="60"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="61"/>
       <c r="J30" s="48"/>
       <c r="K30" s="48"/>
     </row>
@@ -7368,12 +7970,12 @@
         <v>168</v>
       </c>
       <c r="C31" s="48"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="60"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="61"/>
       <c r="J31" s="48"/>
       <c r="K31" s="50" t="s">
         <v>77</v>
@@ -7382,24 +7984,24 @@
     <row r="32" spans="1:11">
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="60"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="61"/>
       <c r="J32" s="48"/>
       <c r="K32" s="48"/>
     </row>
     <row r="33" spans="1:11">
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="60"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="61"/>
       <c r="J33" s="48"/>
       <c r="K33" s="48"/>
     </row>
@@ -7411,12 +8013,12 @@
         <v>167</v>
       </c>
       <c r="C34" s="48"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="63"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
       <c r="J34" s="48"/>
       <c r="K34" s="50" t="s">
         <v>75</v>
@@ -7673,10 +8275,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CADF2F4-A124-44BC-8A72-4CE3F16F5D04}">
-  <dimension ref="B2:D32"/>
+  <dimension ref="B2:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7698,10 +8300,10 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="106.5" customHeight="1">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="65" t="s">
         <v>213</v>
       </c>
       <c r="D3" s="28" t="s">
@@ -7709,31 +8311,31 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="106.5">
-      <c r="B4" s="71"/>
-      <c r="C4" s="65"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="29" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="60.75">
-      <c r="B5" s="71"/>
-      <c r="C5" s="65"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="30" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="75">
-      <c r="B6" s="71"/>
-      <c r="C6" s="65"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="30" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="90">
-      <c r="B7" s="70" t="s">
+    <row r="7" spans="2:4" ht="106.5">
+      <c r="B7" s="67" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="65" t="s">
         <v>219</v>
       </c>
       <c r="D7" s="28" t="s">
@@ -7741,35 +8343,35 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="90">
-      <c r="B8" s="71"/>
-      <c r="C8" s="65"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="30" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="75">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="65" t="s">
         <v>223</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30">
-      <c r="B10" s="72"/>
-      <c r="C10" s="66"/>
+    <row r="10" spans="2:4" ht="60.75">
+      <c r="B10" s="70"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="31" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="76.5" customHeight="1">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="65" t="s">
         <v>227</v>
       </c>
       <c r="D11" s="28" t="s">
@@ -7777,17 +8379,17 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="30.75">
-      <c r="B12" s="71"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="45.75">
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="65" t="s">
         <v>231</v>
       </c>
       <c r="D13" s="28" t="s">
@@ -7795,31 +8397,31 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="30.75">
-      <c r="B14" s="71"/>
-      <c r="C14" s="65"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="45.75">
-      <c r="B15" s="71"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="60">
-      <c r="B16" s="71"/>
-      <c r="C16" s="65"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="30" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="45">
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="65" t="s">
         <v>236</v>
       </c>
       <c r="D17" s="28" t="s">
@@ -7827,17 +8429,17 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="45">
-      <c r="B18" s="71"/>
-      <c r="C18" s="65"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="30" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="60.75" customHeight="1">
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="67" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="65" t="s">
         <v>240</v>
       </c>
       <c r="D19" s="28" t="s">
@@ -7845,17 +8447,17 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="30.75">
-      <c r="B20" s="71"/>
-      <c r="C20" s="65"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="45.75">
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="67" t="s">
         <v>242</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="65" t="s">
         <v>243</v>
       </c>
       <c r="D21" s="28" t="s">
@@ -7863,17 +8465,17 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="30.75">
-      <c r="B22" s="71"/>
-      <c r="C22" s="65"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="66"/>
       <c r="D22" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="62.25" customHeight="1">
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="65" t="s">
         <v>246</v>
       </c>
       <c r="D23" s="28" t="s">
@@ -7881,24 +8483,24 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="62.25" customHeight="1">
-      <c r="B24" s="71"/>
-      <c r="C24" s="65"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="30" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="30.75">
-      <c r="B25" s="72"/>
-      <c r="C25" s="66"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="30" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="45.75">
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="67" t="s">
         <v>249</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="65" t="s">
         <v>250</v>
       </c>
       <c r="D26" s="28" t="s">
@@ -7906,24 +8508,24 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="60.75">
-      <c r="B27" s="71"/>
-      <c r="C27" s="65"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="30" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75">
-      <c r="B28" s="71"/>
-      <c r="C28" s="65"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="30" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="45.75">
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="71" t="s">
         <v>251</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="65" t="s">
         <v>252</v>
       </c>
       <c r="D29" s="28" t="s">
@@ -7931,28 +8533,85 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="60.75">
-      <c r="B30" s="68"/>
-      <c r="C30" s="65"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="30" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="30.75">
-      <c r="B31" s="68"/>
-      <c r="C31" s="65"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="30" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="60.75">
-      <c r="B32" s="69"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="31" t="s">
+      <c r="B32" s="72"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="30" t="s">
         <v>253</v>
       </c>
     </row>
+    <row r="33" spans="2:4" ht="76.5" customHeight="1">
+      <c r="B33" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>255</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="30.75">
+      <c r="B34" s="72"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="30.75">
+      <c r="B35" s="72"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="60.75">
+      <c r="B36" s="72"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="137.25">
+      <c r="B37" s="72"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="45.75">
+      <c r="B38" s="73"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="D39" s="53"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C19:C20"/>
@@ -7969,12 +8628,6 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7982,16 +8635,306 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1914FF74-0E8B-4E92-8BDD-103E839E1854}">
-  <dimension ref="B3:D29"/>
+  <dimension ref="B3:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="73.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" ht="23.25">
+      <c r="B3" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I4" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="J4" s="79" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="121.5">
+      <c r="B5" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="J5" s="77" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="91.5">
+      <c r="B6" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="77" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="137.25">
+      <c r="B7" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" t="s">
+        <v>275</v>
+      </c>
+      <c r="I7" s="75" t="s">
+        <v>275</v>
+      </c>
+      <c r="J7" s="77" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="76.5">
+      <c r="B8" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="I8" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="77" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="137.25">
+      <c r="B9" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" t="s">
+        <v>281</v>
+      </c>
+      <c r="I9" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="77" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" t="s">
+        <v>292</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C15" t="s">
+        <v>294</v>
+      </c>
+      <c r="D15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="30.75">
+      <c r="B16" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18" t="s">
+        <v>300</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19" t="s">
+        <v>302</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="30.75">
+      <c r="B20" s="80" t="s">
+        <v>303</v>
+      </c>
+      <c r="C20" s="81" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C21" t="s">
+        <v>306</v>
+      </c>
+      <c r="D21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CDE875-88F5-4F85-ACCD-AF4C3075C97E}">
+  <dimension ref="B3:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="23.25">
@@ -7999,588 +8942,161 @@
         <v>27</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C5" t="s">
         <v>260</v>
       </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C7" t="s">
-        <v>264</v>
-      </c>
-      <c r="D7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="45.75">
-      <c r="B8" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>267</v>
-      </c>
+      <c r="D3" s="47" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="91.5">
+      <c r="B4" s="74" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" s="54"/>
+    </row>
+    <row r="5" spans="2:4" ht="91.5">
+      <c r="B5" s="74" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="76.5">
+      <c r="B6" s="74" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="76.5">
+      <c r="B7" s="74" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C9" t="s">
-        <v>269</v>
-      </c>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C10" t="s">
-        <v>271</v>
-      </c>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="54"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C11" t="s">
-        <v>273</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="54"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C12" t="s">
-        <v>275</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="54"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D13" t="s">
-        <v>258</v>
-      </c>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="54"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C14" t="s">
-        <v>279</v>
-      </c>
-      <c r="D14" t="s">
-        <v>72</v>
-      </c>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C15" t="s">
-        <v>281</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C16" t="s">
-        <v>283</v>
-      </c>
-      <c r="D16" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="3"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="54"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="54"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="54"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="54"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="54"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="54"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="54"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="54"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="54"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="C25" s="74"/>
+      <c r="D25" s="54"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="C26" s="74"/>
+      <c r="D26" s="54"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="C27" s="74"/>
+      <c r="D27" s="54"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="D28" s="54"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="D29" s="54"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="D30" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:S19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:19">
-      <c r="A2" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="F2" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f>INDEX(TblCombinedAdjFltValues[[#Totals],[A]:[F]],MATCH(Comparison!$B$3,TblCombinedAdjFltValues[[#Headers],[A]:[F]]))</f>
-        <v>7000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <f>INDEX(TblCombinedAdjFltValues[[#Totals],[A]:[F]],MATCH(Comparison!$G$3,TblCombinedAdjFltValues[[#Headers],[A]:[F]]))</f>
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5">
-        <f>SUM(C10:C14)</f>
-        <v>5000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G5">
-        <f>SUM(H10:H14)</f>
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6">
-        <f>SUM(C17:C19)</f>
-        <v>2000</v>
-      </c>
-      <c r="F6" t="s">
-        <v>286</v>
-      </c>
-      <c r="G6">
-        <f>SUM(H17:H19)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="C7" s="17"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="C8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="Q8" s="3"/>
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="18">
-        <f>INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A10,TblBattlefieldFlt[Option],0),MATCH($B$3,TblBattlefieldFlt[[#Headers],[A]:[F]],0))</f>
-        <v>1</v>
-      </c>
-      <c r="C10" s="17">
-        <f>INDEX(TblShipPoints[Points],MATCH(A10,TblShipPoints[Ships],0))*B10</f>
-        <v>5000</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="18">
-        <f>INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($F10,TblBattlefieldFlt[Option],0),MATCH($G$3,TblBattlefieldFlt[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="17">
-        <f>INDEX(TblShipPoints[Points],MATCH(F10,TblShipPoints[Ships],0))*G10</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="7"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="18">
-        <f>INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A11,TblBattlefieldFlt[Option],0),MATCH($B$3,TblBattlefieldFlt[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="17">
-        <f>INDEX(TblShipPoints[Points],MATCH(A11,TblShipPoints[Ships],0))*B11</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="18">
-        <f>INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($F11,TblBattlefieldFlt[Option],0),MATCH($G$3,TblBattlefieldFlt[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="17">
-        <f>INDEX(TblShipPoints[Points],MATCH(F11,TblShipPoints[Ships],0))*G11</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="18">
-        <f>INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A12,TblBattlefieldFlt[Option],0),MATCH($B$3,TblBattlefieldFlt[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="17">
-        <f>INDEX(TblShipPoints[Points],MATCH(A12,TblShipPoints[Ships],0))*B12</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="18">
-        <f>INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($F12,TblBattlefieldFlt[Option],0),MATCH($G$3,TblBattlefieldFlt[[#Headers],[A]:[F]],0))</f>
-        <v>1</v>
-      </c>
-      <c r="H12" s="17">
-        <f>INDEX(TblShipPoints[Points],MATCH(F12,TblShipPoints[Ships],0))*G12</f>
-        <v>2500</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="7"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="18">
-        <f>INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A13,TblBattlefieldFlt[Option],0),MATCH($B$3,TblBattlefieldFlt[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="17">
-        <f>INDEX(TblShipPoints[Points],MATCH(A13,TblShipPoints[Ships],0))*B13</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="18">
-        <f>INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($F13,TblBattlefieldFlt[Option],0),MATCH($G$3,TblBattlefieldFlt[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="17">
-        <f>INDEX(TblShipPoints[Points],MATCH(F13,TblShipPoints[Ships],0))*G13</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="7"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="18">
-        <f>INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($A14,TblBattlefieldFlt[Option],0),MATCH($B$3,TblBattlefieldFlt[[#Headers],[A]:[F]],0))</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="17">
-        <f>INDEX(TblShipPoints[Points],MATCH(A14,TblShipPoints[Ships],0))*B14</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="18">
-        <f>INDEX(TblBattlefieldFlt[[A]:[F]],MATCH($F14,TblBattlefieldFlt[Option],0),MATCH($G$3,TblBattlefieldFlt[[#Headers],[A]:[F]],0))</f>
-        <v>10</v>
-      </c>
-      <c r="H14" s="17">
-        <f>INDEX(TblShipPoints[Points],MATCH(F14,TblShipPoints[Ships],0))*G14</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="H16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="18">
-        <f>SUMPRODUCT($B$10:$B$14,TblShipCrew[Service])</f>
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <f>TblRoleControlValues[Service]*B17</f>
-        <v>1100</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="18">
-        <f>SUMPRODUCT($G$10:$G$14,TblShipCrew[Service])</f>
-        <v>15</v>
-      </c>
-      <c r="H17">
-        <f>TblRoleControlValues[Service]*G17</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="18">
-        <f>SUMPRODUCT($B$10:$B$14,TblShipCrew[Lieutenant])</f>
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <f>TblRoleControlValues[Lieutenant]*B18</f>
-        <v>600</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="18">
-        <f>SUMPRODUCT($G$10:$G$14,TblShipCrew[Lieutenant])</f>
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <f>TblRoleControlValues[Lieutenant]*G18</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="18">
-        <f>SUMPRODUCT($B$10:$B$14,TblShipCrew[Captain])</f>
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <f>TblRoleControlValues[Captain]*B19</f>
-        <v>300</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="18">
-        <f>SUMPRODUCT($G$10:$G$14,TblShipCrew[Captain])</f>
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <f>TblRoleControlValues[Captain]*G19</f>
-        <v>300</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="F2:H2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ShipCardGameCalcs.xlsx
+++ b/ShipCardGameCalcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C10CB07-5693-44A5-B180-0F0EDA992F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D33C5C3D-8994-4A59-9ADC-34F4C96C60A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="331">
   <si>
     <t>Ship Parameters</t>
   </si>
@@ -940,7 +940,7 @@
     <t>Sacrifice</t>
   </si>
   <si>
-    <t>Send target crew to Stasis</t>
+    <t>Send target crew they control to Stasis</t>
   </si>
   <si>
     <t>Evasion</t>
@@ -982,7 +982,7 @@
     <t>Disease spread</t>
   </si>
   <si>
-    <t xml:space="preserve">Deal damage to enemy ship based off cards in their stasis. </t>
+    <t>Deal X damage to assigned ship when this crew member is Engaged</t>
   </si>
   <si>
     <t>Cosmic Knowledge</t>
@@ -1000,7 +1000,7 @@
     <t>Mutiny</t>
   </si>
   <si>
-    <t>If you control all crew slots on enemy ship for X amount of turns then you take control of that ship.</t>
+    <t>You may send up to X crew from assigned ship to invade target enemy ship on your turn. First fill up empty crew slots, if all crew slots are filled then replace enemy filled crew slots. You cannot Engage this crew while on enemy ship.</t>
   </si>
   <si>
     <t>Powering Up</t>
@@ -1013,6 +1013,24 @@
   </si>
   <si>
     <t>Send card/s from your hand to the Junkyard/Stasis</t>
+  </si>
+  <si>
+    <t>Parasitic Disruption</t>
+  </si>
+  <si>
+    <t>When this crew member is Engaged, card owner may pick a negative affect</t>
+  </si>
+  <si>
+    <t>Resistance</t>
+  </si>
+  <si>
+    <t>Target can't be affected by Mutiny and can Engage to send X enemy crew on your ship to stasis</t>
+  </si>
+  <si>
+    <t>Shield Depletion</t>
+  </si>
+  <si>
+    <t>Reduce target ships shield to 0</t>
   </si>
   <si>
     <t>Special features</t>
@@ -1512,7 +1530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1623,6 +1641,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1658,17 +1685,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1679,21 +1697,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3831,21 +3842,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="N1" s="55" t="s">
+      <c r="A1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="N1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="9" t="s">
@@ -4112,25 +4123,25 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="J8" s="55" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="J8" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="8" t="s">
@@ -4470,15 +4481,15 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -4695,27 +4706,27 @@
       <c r="R22" s="4"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="55" t="s">
+      <c r="J23" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="8" t="s">
@@ -5143,25 +5154,25 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="55" t="s">
+      <c r="J31" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
@@ -5900,26 +5911,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="F2" s="55" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="F2" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>26</v>
@@ -5943,14 +5954,14 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B5">
         <f>SUM(C10:C14)</f>
         <v>5000</v>
       </c>
       <c r="F5" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="G5">
         <f>SUM(H10:H14)</f>
@@ -5959,14 +5970,14 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B6">
         <f>SUM(C17:C19)</f>
         <v>2000</v>
       </c>
       <c r="F6" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="G6">
         <f>SUM(H17:H19)</f>
@@ -5988,7 +5999,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>3</v>
@@ -5997,7 +6008,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>3</v>
@@ -6187,7 +6198,7 @@
         <v>212</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -6196,7 +6207,7 @@
         <v>212</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>
@@ -7289,13 +7300,13 @@
     <row r="16" spans="2:19">
       <c r="P16">
         <f ca="1">RANDBETWEEN(0,123)</f>
-        <v>77</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:16">
       <c r="P17" s="46">
         <f ca="1">RANDBETWEEN(0,6)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -7755,7 +7766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93013FD4-B940-4A70-A7DA-BF82FD0F616E}">
   <dimension ref="A2:K81"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
@@ -7858,14 +7869,14 @@
         <v>75</v>
       </c>
       <c r="C23" s="48"/>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="58"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="63"/>
       <c r="J23" s="48"/>
       <c r="K23" s="50" t="s">
         <v>167</v>
@@ -7874,24 +7885,24 @@
     <row r="24" spans="1:11">
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="61"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66"/>
       <c r="J24" s="48"/>
       <c r="K24" s="48"/>
     </row>
     <row r="25" spans="1:11">
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="61"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="66"/>
       <c r="J25" s="48"/>
       <c r="K25" s="48"/>
     </row>
@@ -7900,12 +7911,12 @@
         <v>77</v>
       </c>
       <c r="C26" s="48"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="61"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="66"/>
       <c r="J26" s="48"/>
       <c r="K26" s="50" t="s">
         <v>168</v>
@@ -7914,12 +7925,12 @@
     <row r="27" spans="1:11">
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="61"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="48"/>
       <c r="K27" s="48"/>
     </row>
@@ -7928,26 +7939,26 @@
         <v>169</v>
       </c>
       <c r="C28" s="49"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="64"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="69"/>
       <c r="J28" s="49"/>
       <c r="K28" s="48"/>
     </row>
     <row r="29" spans="1:11">
       <c r="B29" s="48"/>
       <c r="C29" s="48"/>
-      <c r="D29" s="56" t="s">
+      <c r="D29" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="58"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="63"/>
       <c r="J29" s="48"/>
       <c r="K29" s="50" t="s">
         <v>169</v>
@@ -7956,12 +7967,12 @@
     <row r="30" spans="1:11">
       <c r="B30" s="48"/>
       <c r="C30" s="48"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="61"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="66"/>
       <c r="J30" s="48"/>
       <c r="K30" s="48"/>
     </row>
@@ -7970,12 +7981,12 @@
         <v>168</v>
       </c>
       <c r="C31" s="48"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="61"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="66"/>
       <c r="J31" s="48"/>
       <c r="K31" s="50" t="s">
         <v>77</v>
@@ -7984,24 +7995,24 @@
     <row r="32" spans="1:11">
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="61"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="66"/>
       <c r="J32" s="48"/>
       <c r="K32" s="48"/>
     </row>
     <row r="33" spans="1:11">
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="61"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="66"/>
       <c r="J33" s="48"/>
       <c r="K33" s="48"/>
     </row>
@@ -8013,12 +8024,12 @@
         <v>167</v>
       </c>
       <c r="C34" s="48"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="69"/>
       <c r="J34" s="48"/>
       <c r="K34" s="50" t="s">
         <v>75</v>
@@ -8300,10 +8311,10 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="106.5" customHeight="1">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="76" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="70" t="s">
         <v>213</v>
       </c>
       <c r="D3" s="28" t="s">
@@ -8311,31 +8322,31 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="106.5">
-      <c r="B4" s="68"/>
-      <c r="C4" s="66"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="29" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="60.75">
-      <c r="B5" s="68"/>
-      <c r="C5" s="66"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="30" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="75">
-      <c r="B6" s="68"/>
-      <c r="C6" s="66"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="30" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="106.5">
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="76" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="70" t="s">
         <v>219</v>
       </c>
       <c r="D7" s="28" t="s">
@@ -8343,17 +8354,17 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="90">
-      <c r="B8" s="68"/>
-      <c r="C8" s="66"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="71"/>
       <c r="D8" s="30" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="75">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="70" t="s">
         <v>223</v>
       </c>
       <c r="D9" s="28" t="s">
@@ -8361,17 +8372,17 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="60.75">
-      <c r="B10" s="70"/>
-      <c r="C10" s="69"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="31" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="76.5" customHeight="1">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="76" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="70" t="s">
         <v>227</v>
       </c>
       <c r="D11" s="28" t="s">
@@ -8379,17 +8390,17 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="30.75">
-      <c r="B12" s="68"/>
-      <c r="C12" s="66"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="45.75">
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="70" t="s">
         <v>231</v>
       </c>
       <c r="D13" s="28" t="s">
@@ -8397,31 +8408,31 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="30.75">
-      <c r="B14" s="68"/>
-      <c r="C14" s="66"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="45.75">
-      <c r="B15" s="68"/>
-      <c r="C15" s="66"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="60">
-      <c r="B16" s="68"/>
-      <c r="C16" s="66"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="30" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="45">
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="70" t="s">
         <v>236</v>
       </c>
       <c r="D17" s="28" t="s">
@@ -8429,17 +8440,17 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="45">
-      <c r="B18" s="68"/>
-      <c r="C18" s="66"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="30" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="60.75" customHeight="1">
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="70" t="s">
         <v>240</v>
       </c>
       <c r="D19" s="28" t="s">
@@ -8447,17 +8458,17 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="30.75">
-      <c r="B20" s="68"/>
-      <c r="C20" s="66"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="45.75">
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="70" t="s">
         <v>243</v>
       </c>
       <c r="D21" s="28" t="s">
@@ -8465,17 +8476,17 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="30.75">
-      <c r="B22" s="68"/>
-      <c r="C22" s="66"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="62.25" customHeight="1">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="70" t="s">
         <v>246</v>
       </c>
       <c r="D23" s="28" t="s">
@@ -8483,24 +8494,24 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="62.25" customHeight="1">
-      <c r="B24" s="68"/>
-      <c r="C24" s="66"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="30" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="30.75">
-      <c r="B25" s="70"/>
-      <c r="C25" s="69"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="30" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="45.75">
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="76" t="s">
         <v>249</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="70" t="s">
         <v>250</v>
       </c>
       <c r="D26" s="28" t="s">
@@ -8508,24 +8519,24 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="60.75">
-      <c r="B27" s="68"/>
-      <c r="C27" s="66"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="30" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75">
-      <c r="B28" s="68"/>
-      <c r="C28" s="66"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="30" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="45.75">
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="73" t="s">
         <v>251</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="70" t="s">
         <v>252</v>
       </c>
       <c r="D29" s="28" t="s">
@@ -8533,31 +8544,31 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="60.75">
-      <c r="B30" s="72"/>
-      <c r="C30" s="66"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="30" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="30.75">
-      <c r="B31" s="72"/>
-      <c r="C31" s="66"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="71"/>
       <c r="D31" s="30" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="60.75">
-      <c r="B32" s="72"/>
-      <c r="C32" s="76"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="30" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="76.5" customHeight="1">
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="70" t="s">
         <v>255</v>
       </c>
       <c r="D33" s="28" t="s">
@@ -8565,36 +8576,36 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="30.75">
-      <c r="B34" s="72"/>
-      <c r="C34" s="76"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="71"/>
       <c r="D34" s="30" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="30.75">
-      <c r="B35" s="72"/>
-      <c r="C35" s="76"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="71"/>
       <c r="D35" s="30" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="60.75">
-      <c r="B36" s="72"/>
-      <c r="C36" s="76"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="71"/>
       <c r="D36" s="30" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="137.25">
-      <c r="B37" s="72"/>
-      <c r="C37" s="76"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="71"/>
       <c r="D37" s="30" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="45.75">
-      <c r="B38" s="73"/>
-      <c r="C38" s="69"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="31" t="s">
         <v>194</v>
       </c>
@@ -8604,14 +8615,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B26:B28"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C19:C20"/>
@@ -8628,6 +8631,14 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8637,8 +8648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1914FF74-0E8B-4E92-8BDD-103E839E1854}">
   <dimension ref="B3:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8673,10 +8684,10 @@
       <c r="D4" t="s">
         <v>265</v>
       </c>
-      <c r="I4" s="78" t="s">
+      <c r="I4" s="56" t="s">
         <v>266</v>
       </c>
-      <c r="J4" s="79" t="s">
+      <c r="J4" s="57" t="s">
         <v>210</v>
       </c>
     </row>
@@ -8690,10 +8701,10 @@
       <c r="D5" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" t="s">
         <v>265</v>
       </c>
-      <c r="J5" s="77" t="s">
+      <c r="J5" s="53" t="s">
         <v>269</v>
       </c>
     </row>
@@ -8707,10 +8718,10 @@
       <c r="D6" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="75" t="s">
+      <c r="I6" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="77" t="s">
+      <c r="J6" s="53" t="s">
         <v>272</v>
       </c>
     </row>
@@ -8724,10 +8735,10 @@
       <c r="D7" t="s">
         <v>275</v>
       </c>
-      <c r="I7" s="75" t="s">
+      <c r="I7" t="s">
         <v>275</v>
       </c>
-      <c r="J7" s="77" t="s">
+      <c r="J7" s="53" t="s">
         <v>276</v>
       </c>
     </row>
@@ -8738,10 +8749,10 @@
       <c r="C8" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="I8" s="75" t="s">
+      <c r="I8" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="77" t="s">
+      <c r="J8" s="53" t="s">
         <v>279</v>
       </c>
     </row>
@@ -8752,10 +8763,10 @@
       <c r="C9" t="s">
         <v>281</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="77" t="s">
+      <c r="J9" s="53" t="s">
         <v>282</v>
       </c>
     </row>
@@ -8866,11 +8877,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="30.75">
-      <c r="B20" s="80" t="s">
+    <row r="20" spans="2:4" ht="45.75">
+      <c r="B20" s="58" t="s">
         <v>303</v>
       </c>
-      <c r="C20" s="81" t="s">
+      <c r="C20" s="59" t="s">
         <v>304</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -8897,13 +8908,31 @@
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C23" t="s">
+        <v>310</v>
+      </c>
+      <c r="D23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="30.75">
+      <c r="B24" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C25" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3"/>
@@ -8926,7 +8955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CDE875-88F5-4F85-ACCD-AF4C3075C97E}">
   <dimension ref="B3:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -8945,146 +8974,146 @@
         <v>260</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="91.5">
-      <c r="B4" s="74" t="s">
-        <v>310</v>
+      <c r="B4" s="55" t="s">
+        <v>316</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D4" s="54"/>
     </row>
     <row r="5" spans="2:4" ht="91.5">
-      <c r="B5" s="74" t="s">
-        <v>312</v>
+      <c r="B5" s="55" t="s">
+        <v>318</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="76.5">
-      <c r="B6" s="74" t="s">
-        <v>315</v>
+      <c r="B6" s="55" t="s">
+        <v>321</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="76.5">
-      <c r="B7" s="74" t="s">
-        <v>318</v>
+      <c r="B7" s="55" t="s">
+        <v>324</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="54"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="54"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="54"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="54"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="54"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="54"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="54"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="54"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="54"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="54"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="54"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="54"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="54"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="54"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="54"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="54"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="54"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="74"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="54"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" s="74"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="54"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" s="74"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="54"/>
     </row>
     <row r="28" spans="2:4">

--- a/ShipCardGameCalcs.xlsx
+++ b/ShipCardGameCalcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D33C5C3D-8994-4A59-9ADC-34F4C96C60A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDEDB9CE-C3E6-46CD-ABB2-921E734D71CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="333">
   <si>
     <t>Ship Parameters</t>
   </si>
@@ -1031,6 +1031,12 @@
   </si>
   <si>
     <t>Reduce target ships shield to 0</t>
+  </si>
+  <si>
+    <t>Ancient</t>
+  </si>
+  <si>
+    <t>If this card is to be sent to the Junkyard, place it on the bottom of the owners Strategy/Crew deck instead</t>
   </si>
   <si>
     <t>Special features</t>
@@ -1685,8 +1691,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1696,15 +1711,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5924,13 +5930,13 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>26</v>
@@ -5954,14 +5960,14 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B5">
         <f>SUM(C10:C14)</f>
         <v>5000</v>
       </c>
       <c r="F5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G5">
         <f>SUM(H10:H14)</f>
@@ -5970,14 +5976,14 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B6">
         <f>SUM(C17:C19)</f>
         <v>2000</v>
       </c>
       <c r="F6" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G6">
         <f>SUM(H17:H19)</f>
@@ -5999,7 +6005,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>3</v>
@@ -6008,7 +6014,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>3</v>
@@ -6198,7 +6204,7 @@
         <v>212</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -6207,7 +6213,7 @@
         <v>212</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>
@@ -7300,13 +7306,13 @@
     <row r="16" spans="2:19">
       <c r="P16">
         <f ca="1">RANDBETWEEN(0,123)</f>
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:16">
       <c r="P17" s="46">
         <f ca="1">RANDBETWEEN(0,6)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -7766,7 +7772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93013FD4-B940-4A70-A7DA-BF82FD0F616E}">
   <dimension ref="A2:K81"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
@@ -8311,7 +8317,7 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="106.5" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="72" t="s">
         <v>212</v>
       </c>
       <c r="C3" s="70" t="s">
@@ -8322,28 +8328,28 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="106.5">
-      <c r="B4" s="77"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="71"/>
       <c r="D4" s="29" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="60.75">
-      <c r="B5" s="77"/>
+      <c r="B5" s="73"/>
       <c r="C5" s="71"/>
       <c r="D5" s="30" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="75">
-      <c r="B6" s="77"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="71"/>
       <c r="D6" s="30" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="106.5">
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="72" t="s">
         <v>218</v>
       </c>
       <c r="C7" s="70" t="s">
@@ -8354,14 +8360,14 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="90">
-      <c r="B8" s="77"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="71"/>
       <c r="D8" s="30" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="75">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="72" t="s">
         <v>222</v>
       </c>
       <c r="C9" s="70" t="s">
@@ -8372,14 +8378,14 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="60.75">
-      <c r="B10" s="78"/>
-      <c r="C10" s="72"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="31" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="76.5" customHeight="1">
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="72" t="s">
         <v>226</v>
       </c>
       <c r="C11" s="70" t="s">
@@ -8390,14 +8396,14 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="30.75">
-      <c r="B12" s="77"/>
+      <c r="B12" s="73"/>
       <c r="C12" s="71"/>
       <c r="D12" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="45.75">
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="72" t="s">
         <v>230</v>
       </c>
       <c r="C13" s="70" t="s">
@@ -8408,28 +8414,28 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="30.75">
-      <c r="B14" s="77"/>
+      <c r="B14" s="73"/>
       <c r="C14" s="71"/>
       <c r="D14" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="45.75">
-      <c r="B15" s="77"/>
+      <c r="B15" s="73"/>
       <c r="C15" s="71"/>
       <c r="D15" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="60">
-      <c r="B16" s="77"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="71"/>
       <c r="D16" s="30" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="45">
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="72" t="s">
         <v>235</v>
       </c>
       <c r="C17" s="70" t="s">
@@ -8440,14 +8446,14 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="45">
-      <c r="B18" s="77"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="71"/>
       <c r="D18" s="30" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="60.75" customHeight="1">
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="72" t="s">
         <v>239</v>
       </c>
       <c r="C19" s="70" t="s">
@@ -8458,14 +8464,14 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="30.75">
-      <c r="B20" s="77"/>
+      <c r="B20" s="73"/>
       <c r="C20" s="71"/>
       <c r="D20" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="45.75">
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="72" t="s">
         <v>242</v>
       </c>
       <c r="C21" s="70" t="s">
@@ -8476,14 +8482,14 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="30.75">
-      <c r="B22" s="77"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="71"/>
       <c r="D22" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="62.25" customHeight="1">
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="72" t="s">
         <v>245</v>
       </c>
       <c r="C23" s="70" t="s">
@@ -8494,21 +8500,21 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="62.25" customHeight="1">
-      <c r="B24" s="77"/>
+      <c r="B24" s="73"/>
       <c r="C24" s="71"/>
       <c r="D24" s="30" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="30.75">
-      <c r="B25" s="78"/>
-      <c r="C25" s="72"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="74"/>
       <c r="D25" s="30" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="45.75">
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="72" t="s">
         <v>249</v>
       </c>
       <c r="C26" s="70" t="s">
@@ -8519,21 +8525,21 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="60.75">
-      <c r="B27" s="77"/>
+      <c r="B27" s="73"/>
       <c r="C27" s="71"/>
       <c r="D27" s="30" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75">
-      <c r="B28" s="77"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="71"/>
       <c r="D28" s="30" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="45.75">
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="76" t="s">
         <v>251</v>
       </c>
       <c r="C29" s="70" t="s">
@@ -8544,28 +8550,28 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="60.75">
-      <c r="B30" s="74"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="71"/>
       <c r="D30" s="30" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="30.75">
-      <c r="B31" s="74"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="71"/>
       <c r="D31" s="30" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="60.75">
-      <c r="B32" s="74"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="71"/>
       <c r="D32" s="30" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="76.5" customHeight="1">
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="76" t="s">
         <v>254</v>
       </c>
       <c r="C33" s="70" t="s">
@@ -8576,36 +8582,36 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="30.75">
-      <c r="B34" s="74"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="71"/>
       <c r="D34" s="30" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="30.75">
-      <c r="B35" s="74"/>
+      <c r="B35" s="77"/>
       <c r="C35" s="71"/>
       <c r="D35" s="30" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="60.75">
-      <c r="B36" s="74"/>
+      <c r="B36" s="77"/>
       <c r="C36" s="71"/>
       <c r="D36" s="30" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="137.25">
-      <c r="B37" s="74"/>
+      <c r="B37" s="77"/>
       <c r="C37" s="71"/>
       <c r="D37" s="30" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="45.75">
-      <c r="B38" s="75"/>
-      <c r="C38" s="72"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="74"/>
       <c r="D38" s="31" t="s">
         <v>194</v>
       </c>
@@ -8615,6 +8621,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C19:C20"/>
@@ -8631,14 +8645,6 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8649,7 +8655,7 @@
   <dimension ref="B3:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8935,7 +8941,12 @@
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C26" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3"/>
@@ -8974,49 +8985,49 @@
         <v>260</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="91.5">
       <c r="B4" s="55" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D4" s="54"/>
     </row>
     <row r="5" spans="2:4" ht="91.5">
       <c r="B5" s="55" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="76.5">
       <c r="B6" s="55" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="76.5">
       <c r="B7" s="55" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="2:4">

--- a/ShipCardGameCalcs.xlsx
+++ b/ShipCardGameCalcs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27230"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDEDB9CE-C3E6-46CD-ABB2-921E734D71CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A97E62D-71EF-464E-A7D9-4491D7CC38FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -946,7 +946,7 @@
     <t>Evasion</t>
   </si>
   <si>
-    <t>Evade attack when targetted</t>
+    <t>Evade X attacks when targetted during the battle phase</t>
   </si>
   <si>
     <t>Formation</t>
@@ -7306,13 +7306,13 @@
     <row r="16" spans="2:19">
       <c r="P16">
         <f ca="1">RANDBETWEEN(0,123)</f>
-        <v>109</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:16">
       <c r="P17" s="46">
         <f ca="1">RANDBETWEEN(0,6)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -8294,7 +8294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CADF2F4-A124-44BC-8A72-4CE3F16F5D04}">
   <dimension ref="B2:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -8654,8 +8654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1914FF74-0E8B-4E92-8BDD-103E839E1854}">
   <dimension ref="B3:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ShipCardGameCalcs.xlsx
+++ b/ShipCardGameCalcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A97E62D-71EF-464E-A7D9-4491D7CC38FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46C53E0E-506E-4574-87A1-4DECB806DC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="335">
   <si>
     <t>Ship Parameters</t>
   </si>
@@ -901,7 +901,7 @@
     <t>Swarm</t>
   </si>
   <si>
-    <t>Create X pod ship/s with 100 hull and can tap to deal 100 damage to enemy ship</t>
+    <t>Create X pod ship/s with 100 hull and can tap to deal 100 damage to enemy ship, they can also be used to block a gun slot</t>
   </si>
   <si>
     <t>One to keep the enemy under pressure invading their ships during the early game. They will call for help from their swarm and become burtal in the early game, however during the late game they fall off.</t>
@@ -1037,6 +1037,12 @@
   </si>
   <si>
     <t>If this card is to be sent to the Junkyard, place it on the bottom of the owners Strategy/Crew deck instead</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>Deal Double damage</t>
   </si>
   <si>
     <t>Special features</t>
@@ -1691,17 +1697,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1711,6 +1708,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5930,13 +5936,13 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>26</v>
@@ -5960,14 +5966,14 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B5">
         <f>SUM(C10:C14)</f>
         <v>5000</v>
       </c>
       <c r="F5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G5">
         <f>SUM(H10:H14)</f>
@@ -5976,14 +5982,14 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B6">
         <f>SUM(C17:C19)</f>
         <v>2000</v>
       </c>
       <c r="F6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G6">
         <f>SUM(H17:H19)</f>
@@ -6005,7 +6011,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>3</v>
@@ -6014,7 +6020,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>3</v>
@@ -6204,7 +6210,7 @@
         <v>212</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -6213,7 +6219,7 @@
         <v>212</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>
@@ -7306,13 +7312,13 @@
     <row r="16" spans="2:19">
       <c r="P16">
         <f ca="1">RANDBETWEEN(0,123)</f>
-        <v>44</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="2:16">
       <c r="P17" s="46">
         <f ca="1">RANDBETWEEN(0,6)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -7773,7 +7779,7 @@
   <dimension ref="A2:K81"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8294,7 +8300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CADF2F4-A124-44BC-8A72-4CE3F16F5D04}">
   <dimension ref="B2:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="G10" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -8317,7 +8323,7 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="106.5" customHeight="1">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="76" t="s">
         <v>212</v>
       </c>
       <c r="C3" s="70" t="s">
@@ -8328,28 +8334,28 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="106.5">
-      <c r="B4" s="73"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="71"/>
       <c r="D4" s="29" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="60.75">
-      <c r="B5" s="73"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="71"/>
       <c r="D5" s="30" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="75">
-      <c r="B6" s="73"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="71"/>
       <c r="D6" s="30" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="106.5">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="76" t="s">
         <v>218</v>
       </c>
       <c r="C7" s="70" t="s">
@@ -8360,14 +8366,14 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="90">
-      <c r="B8" s="73"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="71"/>
       <c r="D8" s="30" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="75">
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="76" t="s">
         <v>222</v>
       </c>
       <c r="C9" s="70" t="s">
@@ -8378,14 +8384,14 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="60.75">
-      <c r="B10" s="75"/>
-      <c r="C10" s="74"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="31" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="76.5" customHeight="1">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="76" t="s">
         <v>226</v>
       </c>
       <c r="C11" s="70" t="s">
@@ -8396,14 +8402,14 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="30.75">
-      <c r="B12" s="73"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="71"/>
       <c r="D12" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="45.75">
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="76" t="s">
         <v>230</v>
       </c>
       <c r="C13" s="70" t="s">
@@ -8414,28 +8420,28 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="30.75">
-      <c r="B14" s="73"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="71"/>
       <c r="D14" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="45.75">
-      <c r="B15" s="73"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="71"/>
       <c r="D15" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="60">
-      <c r="B16" s="73"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="71"/>
       <c r="D16" s="30" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="45">
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="76" t="s">
         <v>235</v>
       </c>
       <c r="C17" s="70" t="s">
@@ -8446,14 +8452,14 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="45">
-      <c r="B18" s="73"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="71"/>
       <c r="D18" s="30" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="60.75" customHeight="1">
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="76" t="s">
         <v>239</v>
       </c>
       <c r="C19" s="70" t="s">
@@ -8464,14 +8470,14 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="30.75">
-      <c r="B20" s="73"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="71"/>
       <c r="D20" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="45.75">
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="76" t="s">
         <v>242</v>
       </c>
       <c r="C21" s="70" t="s">
@@ -8482,14 +8488,14 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="30.75">
-      <c r="B22" s="73"/>
+      <c r="B22" s="77"/>
       <c r="C22" s="71"/>
       <c r="D22" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="62.25" customHeight="1">
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="76" t="s">
         <v>245</v>
       </c>
       <c r="C23" s="70" t="s">
@@ -8500,21 +8506,21 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="62.25" customHeight="1">
-      <c r="B24" s="73"/>
+      <c r="B24" s="77"/>
       <c r="C24" s="71"/>
       <c r="D24" s="30" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="30.75">
-      <c r="B25" s="75"/>
-      <c r="C25" s="74"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="30" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="45.75">
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="76" t="s">
         <v>249</v>
       </c>
       <c r="C26" s="70" t="s">
@@ -8525,21 +8531,21 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="60.75">
-      <c r="B27" s="73"/>
+      <c r="B27" s="77"/>
       <c r="C27" s="71"/>
       <c r="D27" s="30" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75">
-      <c r="B28" s="73"/>
+      <c r="B28" s="77"/>
       <c r="C28" s="71"/>
       <c r="D28" s="30" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="45.75">
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="73" t="s">
         <v>251</v>
       </c>
       <c r="C29" s="70" t="s">
@@ -8550,28 +8556,28 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="60.75">
-      <c r="B30" s="77"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="71"/>
       <c r="D30" s="30" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="30.75">
-      <c r="B31" s="77"/>
+      <c r="B31" s="74"/>
       <c r="C31" s="71"/>
       <c r="D31" s="30" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="60.75">
-      <c r="B32" s="77"/>
+      <c r="B32" s="74"/>
       <c r="C32" s="71"/>
       <c r="D32" s="30" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="76.5" customHeight="1">
-      <c r="B33" s="76" t="s">
+      <c r="B33" s="73" t="s">
         <v>254</v>
       </c>
       <c r="C33" s="70" t="s">
@@ -8582,36 +8588,36 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="30.75">
-      <c r="B34" s="77"/>
+      <c r="B34" s="74"/>
       <c r="C34" s="71"/>
       <c r="D34" s="30" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="30.75">
-      <c r="B35" s="77"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="71"/>
       <c r="D35" s="30" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="60.75">
-      <c r="B36" s="77"/>
+      <c r="B36" s="74"/>
       <c r="C36" s="71"/>
       <c r="D36" s="30" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="137.25">
-      <c r="B37" s="77"/>
+      <c r="B37" s="74"/>
       <c r="C37" s="71"/>
       <c r="D37" s="30" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="45.75">
-      <c r="B38" s="78"/>
-      <c r="C38" s="74"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="31" t="s">
         <v>194</v>
       </c>
@@ -8621,14 +8627,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B26:B28"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C19:C20"/>
@@ -8645,6 +8643,14 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8654,8 +8660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1914FF74-0E8B-4E92-8BDD-103E839E1854}">
   <dimension ref="B3:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8949,7 +8955,15 @@
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C27" t="s">
+        <v>318</v>
+      </c>
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3"/>
@@ -8967,7 +8981,7 @@
   <dimension ref="B3:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8985,49 +8999,49 @@
         <v>260</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="91.5">
       <c r="B4" s="55" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D4" s="54"/>
     </row>
     <row r="5" spans="2:4" ht="91.5">
       <c r="B5" s="55" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="76.5">
       <c r="B6" s="55" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="76.5">
       <c r="B7" s="55" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="2:4">

--- a/ShipCardGameCalcs.xlsx
+++ b/ShipCardGameCalcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46C53E0E-506E-4574-87A1-4DECB806DC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03D89E1D-F14A-4765-81B9-B9E033D6D618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="337">
   <si>
     <t>Ship Parameters</t>
   </si>
@@ -901,7 +901,7 @@
     <t>Swarm</t>
   </si>
   <si>
-    <t>Create X pod ship/s with 100 hull and can tap to deal 100 damage to enemy ship, they can also be used to block a gun slot</t>
+    <t>Create X pod ship/s with 100 hull and can engage to deal 100 damage to enemy ship, they can also be used to block a gun slot</t>
   </si>
   <si>
     <t>One to keep the enemy under pressure invading their ships during the early game. They will call for help from their swarm and become burtal in the early game, however during the late game they fall off.</t>
@@ -1043,6 +1043,12 @@
   </si>
   <si>
     <t>Deal Double damage</t>
+  </si>
+  <si>
+    <t>Multiply</t>
+  </si>
+  <si>
+    <t>Create a copy</t>
   </si>
   <si>
     <t>Special features</t>
@@ -1697,8 +1703,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1708,15 +1723,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5936,13 +5942,13 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>26</v>
@@ -5966,14 +5972,14 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B5">
         <f>SUM(C10:C14)</f>
         <v>5000</v>
       </c>
       <c r="F5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G5">
         <f>SUM(H10:H14)</f>
@@ -5982,14 +5988,14 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B6">
         <f>SUM(C17:C19)</f>
         <v>2000</v>
       </c>
       <c r="F6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G6">
         <f>SUM(H17:H19)</f>
@@ -6011,7 +6017,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>3</v>
@@ -6020,7 +6026,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>3</v>
@@ -6210,7 +6216,7 @@
         <v>212</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -6219,7 +6225,7 @@
         <v>212</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>
@@ -7312,13 +7318,13 @@
     <row r="16" spans="2:19">
       <c r="P16">
         <f ca="1">RANDBETWEEN(0,123)</f>
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:16">
       <c r="P17" s="46">
         <f ca="1">RANDBETWEEN(0,6)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -7778,7 +7784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93013FD4-B940-4A70-A7DA-BF82FD0F616E}">
   <dimension ref="A2:K81"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
@@ -8300,7 +8306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CADF2F4-A124-44BC-8A72-4CE3F16F5D04}">
   <dimension ref="B2:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="G10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -8323,7 +8329,7 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="106.5" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="72" t="s">
         <v>212</v>
       </c>
       <c r="C3" s="70" t="s">
@@ -8334,28 +8340,28 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="106.5">
-      <c r="B4" s="77"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="71"/>
       <c r="D4" s="29" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="60.75">
-      <c r="B5" s="77"/>
+      <c r="B5" s="73"/>
       <c r="C5" s="71"/>
       <c r="D5" s="30" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="75">
-      <c r="B6" s="77"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="71"/>
       <c r="D6" s="30" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="106.5">
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="72" t="s">
         <v>218</v>
       </c>
       <c r="C7" s="70" t="s">
@@ -8366,14 +8372,14 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="90">
-      <c r="B8" s="77"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="71"/>
       <c r="D8" s="30" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="75">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="72" t="s">
         <v>222</v>
       </c>
       <c r="C9" s="70" t="s">
@@ -8384,14 +8390,14 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="60.75">
-      <c r="B10" s="78"/>
-      <c r="C10" s="72"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="31" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="76.5" customHeight="1">
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="72" t="s">
         <v>226</v>
       </c>
       <c r="C11" s="70" t="s">
@@ -8402,14 +8408,14 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="30.75">
-      <c r="B12" s="77"/>
+      <c r="B12" s="73"/>
       <c r="C12" s="71"/>
       <c r="D12" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="45.75">
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="72" t="s">
         <v>230</v>
       </c>
       <c r="C13" s="70" t="s">
@@ -8420,28 +8426,28 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="30.75">
-      <c r="B14" s="77"/>
+      <c r="B14" s="73"/>
       <c r="C14" s="71"/>
       <c r="D14" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="45.75">
-      <c r="B15" s="77"/>
+      <c r="B15" s="73"/>
       <c r="C15" s="71"/>
       <c r="D15" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="60">
-      <c r="B16" s="77"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="71"/>
       <c r="D16" s="30" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="45">
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="72" t="s">
         <v>235</v>
       </c>
       <c r="C17" s="70" t="s">
@@ -8452,14 +8458,14 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="45">
-      <c r="B18" s="77"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="71"/>
       <c r="D18" s="30" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="60.75" customHeight="1">
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="72" t="s">
         <v>239</v>
       </c>
       <c r="C19" s="70" t="s">
@@ -8470,14 +8476,14 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="30.75">
-      <c r="B20" s="77"/>
+      <c r="B20" s="73"/>
       <c r="C20" s="71"/>
       <c r="D20" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="45.75">
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="72" t="s">
         <v>242</v>
       </c>
       <c r="C21" s="70" t="s">
@@ -8488,14 +8494,14 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="30.75">
-      <c r="B22" s="77"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="71"/>
       <c r="D22" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="62.25" customHeight="1">
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="72" t="s">
         <v>245</v>
       </c>
       <c r="C23" s="70" t="s">
@@ -8506,21 +8512,21 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="62.25" customHeight="1">
-      <c r="B24" s="77"/>
+      <c r="B24" s="73"/>
       <c r="C24" s="71"/>
       <c r="D24" s="30" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="30.75">
-      <c r="B25" s="78"/>
-      <c r="C25" s="72"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="74"/>
       <c r="D25" s="30" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="45.75">
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="72" t="s">
         <v>249</v>
       </c>
       <c r="C26" s="70" t="s">
@@ -8531,21 +8537,21 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="60.75">
-      <c r="B27" s="77"/>
+      <c r="B27" s="73"/>
       <c r="C27" s="71"/>
       <c r="D27" s="30" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75">
-      <c r="B28" s="77"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="71"/>
       <c r="D28" s="30" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="45.75">
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="76" t="s">
         <v>251</v>
       </c>
       <c r="C29" s="70" t="s">
@@ -8556,28 +8562,28 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="60.75">
-      <c r="B30" s="74"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="71"/>
       <c r="D30" s="30" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="30.75">
-      <c r="B31" s="74"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="71"/>
       <c r="D31" s="30" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="60.75">
-      <c r="B32" s="74"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="71"/>
       <c r="D32" s="30" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="76.5" customHeight="1">
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="76" t="s">
         <v>254</v>
       </c>
       <c r="C33" s="70" t="s">
@@ -8588,36 +8594,36 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="30.75">
-      <c r="B34" s="74"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="71"/>
       <c r="D34" s="30" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="30.75">
-      <c r="B35" s="74"/>
+      <c r="B35" s="77"/>
       <c r="C35" s="71"/>
       <c r="D35" s="30" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="60.75">
-      <c r="B36" s="74"/>
+      <c r="B36" s="77"/>
       <c r="C36" s="71"/>
       <c r="D36" s="30" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="137.25">
-      <c r="B37" s="74"/>
+      <c r="B37" s="77"/>
       <c r="C37" s="71"/>
       <c r="D37" s="30" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="45.75">
-      <c r="B38" s="75"/>
-      <c r="C38" s="72"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="74"/>
       <c r="D38" s="31" t="s">
         <v>194</v>
       </c>
@@ -8627,6 +8633,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C19:C20"/>
@@ -8643,14 +8657,6 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8661,7 +8667,7 @@
   <dimension ref="B3:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8724,7 +8730,7 @@
       <c r="B6" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="53" t="s">
         <v>271</v>
       </c>
       <c r="D6" t="s">
@@ -8966,7 +8972,12 @@
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C28" t="s">
+        <v>320</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8999,49 +9010,49 @@
         <v>260</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="91.5">
       <c r="B4" s="55" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D4" s="54"/>
     </row>
     <row r="5" spans="2:4" ht="91.5">
       <c r="B5" s="55" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="76.5">
       <c r="B6" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="76.5">
       <c r="B7" s="55" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="2:4">

--- a/ShipCardGameCalcs.xlsx
+++ b/ShipCardGameCalcs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27321"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03D89E1D-F14A-4765-81B9-B9E033D6D618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E65C079-02EE-4F6D-9EE7-E529B63EEBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="350">
   <si>
     <t>Ship Parameters</t>
   </si>
@@ -685,6 +685,9 @@
     <t>Now the turn gets moved to the next player on your left and they start their Disengage phase.</t>
   </si>
   <si>
+    <t>Currently Max hand size 8</t>
+  </si>
+  <si>
     <t>Controlled deck is the battlefield conditions which affects the battlefield</t>
   </si>
   <si>
@@ -841,12 +844,18 @@
     <t>Played to the field that has a mission that any player can do and gain the rewards for</t>
   </si>
   <si>
+    <t>You can play as many Galaxy Mission cards as long as you can pay their cost</t>
+  </si>
+  <si>
     <t>Dangerous Mission</t>
   </si>
   <si>
     <t>Played to the field that has a mission only the player who played it can do and gain the rewards for, however after a certain amount of turns it will have consequences</t>
   </si>
   <si>
+    <t>You can play as many Dangerous Mission cards as long as you can pay their cost</t>
+  </si>
+  <si>
     <t>If the missions runs out of turns the it will activate the consequence affect and then get sent to the scrapyard</t>
   </si>
   <si>
@@ -904,7 +913,7 @@
     <t>Create X pod ship/s with 100 hull and can engage to deal 100 damage to enemy ship, they can also be used to block a gun slot</t>
   </si>
   <si>
-    <t>One to keep the enemy under pressure invading their ships during the early game. They will call for help from their swarm and become burtal in the early game, however during the late game they fall off.</t>
+    <t>One to keep the enemy under pressure invading their ships during the early game. They will call for help from their swarm and become brutal in the early game, however during the late game they fall off.</t>
   </si>
   <si>
     <t>Infection</t>
@@ -925,7 +934,7 @@
     <t>To Engage a card the player must turn the card 90 degrees. Once this is done the card can't engage again until they are turned back facing the correct way. This can happen during the Disengage phase</t>
   </si>
   <si>
-    <t>Being most knowledgable to get the cards they want when they need it using it to deal a lot of damage with cosmic cards. They are known for their mid/late game</t>
+    <t>Being most knowledgable to get the cards they want when they need it using it to deal a lot of damage with cosmic cards and cosmic creatures. They are known for their mid/late game</t>
   </si>
   <si>
     <t>Disengage</t>
@@ -952,7 +961,7 @@
     <t>Formation</t>
   </si>
   <si>
-    <t>When multiple of your ships attack</t>
+    <t>When X or more of your ships attack</t>
   </si>
   <si>
     <t>Repair</t>
@@ -979,7 +988,7 @@
     <t>View cards on top of your Strategy deck, pick X amount to place in your hand and put the rest in any order on top of your strategy deck</t>
   </si>
   <si>
-    <t>Disease spread</t>
+    <t>Viral Sabotage</t>
   </si>
   <si>
     <t>Deal X damage to assigned ship when this crew member is Engaged</t>
@@ -1049,6 +1058,36 @@
   </si>
   <si>
     <t>Create a copy</t>
+  </si>
+  <si>
+    <t>Crew Promotion</t>
+  </si>
+  <si>
+    <t>Upgrade X crew card/s by looking through your crew deck for the next tier up. Then play the new crew card in place of the upgrade crew. Shuffle your crew deck and send the original to stasis.</t>
+  </si>
+  <si>
+    <t>Cosmic Creatures</t>
+  </si>
+  <si>
+    <t>Create x Health and X damage Creature with effect cosmic energy</t>
+  </si>
+  <si>
+    <t>Cosmic Energy</t>
+  </si>
+  <si>
+    <t>Any excess damage hits next ship</t>
+  </si>
+  <si>
+    <t>Cloak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the Ship and its assigned crew, attachments can't be the target. If an assigned crew member on the cloaked ship is engaged or disengaged or if the player uses a department dice then the ship loses Cloak </t>
+  </si>
+  <si>
+    <t>Velocity Precision</t>
+  </si>
+  <si>
+    <t>Enemy ships can't maneuver in front of this ships target</t>
   </si>
   <si>
     <t>Special features</t>
@@ -1104,7 +1143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1176,6 +1215,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1548,7 +1594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1667,6 +1713,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1703,17 +1750,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1723,6 +1761,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3860,21 +3907,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="N1" s="60" t="s">
+      <c r="A1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="N1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="9" t="s">
@@ -4141,25 +4188,25 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="J8" s="60" t="s">
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="J8" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="8" t="s">
@@ -4499,15 +4546,15 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -4724,27 +4771,27 @@
       <c r="R22" s="4"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="60" t="s">
+      <c r="J23" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="8" t="s">
@@ -5172,25 +5219,25 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="60" t="s">
+      <c r="J31" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
@@ -5929,26 +5976,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="F2" s="60" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="F2" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>26</v>
@@ -5972,14 +6019,14 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="B5">
         <f>SUM(C10:C14)</f>
         <v>5000</v>
       </c>
       <c r="F5" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="G5">
         <f>SUM(H10:H14)</f>
@@ -5988,14 +6035,14 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="B6">
         <f>SUM(C17:C19)</f>
         <v>2000</v>
       </c>
       <c r="F6" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="G6">
         <f>SUM(H17:H19)</f>
@@ -6017,7 +6064,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>3</v>
@@ -6026,7 +6073,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>3</v>
@@ -6213,19 +6260,19 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>
@@ -6316,8 +6363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91273792-62E9-442E-9CC7-E8C6E6BD4008}">
   <dimension ref="B1:V32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7318,13 +7365,13 @@
     <row r="16" spans="2:19">
       <c r="P16">
         <f ca="1">RANDBETWEEN(0,123)</f>
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:16">
       <c r="P17" s="46">
         <f ca="1">RANDBETWEEN(0,6)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -7420,8 +7467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EC53A5-8F19-4711-93EA-0F4CBD261EC8}">
   <dimension ref="B2:B83"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7782,10 +7829,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93013FD4-B940-4A70-A7DA-BF82FD0F616E}">
-  <dimension ref="A2:K81"/>
+  <dimension ref="A2:K82"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7887,14 +7934,14 @@
         <v>75</v>
       </c>
       <c r="C23" s="48"/>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
       <c r="J23" s="48"/>
       <c r="K23" s="50" t="s">
         <v>167</v>
@@ -7903,24 +7950,24 @@
     <row r="24" spans="1:11">
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="66"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="67"/>
       <c r="J24" s="48"/>
       <c r="K24" s="48"/>
     </row>
     <row r="25" spans="1:11">
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="66"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="67"/>
       <c r="J25" s="48"/>
       <c r="K25" s="48"/>
     </row>
@@ -7929,12 +7976,12 @@
         <v>77</v>
       </c>
       <c r="C26" s="48"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="66"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="48"/>
       <c r="K26" s="50" t="s">
         <v>168</v>
@@ -7943,12 +7990,12 @@
     <row r="27" spans="1:11">
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="66"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="67"/>
       <c r="J27" s="48"/>
       <c r="K27" s="48"/>
     </row>
@@ -7957,26 +8004,26 @@
         <v>169</v>
       </c>
       <c r="C28" s="49"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="69"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="70"/>
       <c r="J28" s="49"/>
       <c r="K28" s="48"/>
     </row>
     <row r="29" spans="1:11">
       <c r="B29" s="48"/>
       <c r="C29" s="48"/>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
       <c r="J29" s="48"/>
       <c r="K29" s="50" t="s">
         <v>169</v>
@@ -7985,12 +8032,12 @@
     <row r="30" spans="1:11">
       <c r="B30" s="48"/>
       <c r="C30" s="48"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="66"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="67"/>
       <c r="J30" s="48"/>
       <c r="K30" s="48"/>
     </row>
@@ -7999,12 +8046,12 @@
         <v>168</v>
       </c>
       <c r="C31" s="48"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="66"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="67"/>
       <c r="J31" s="48"/>
       <c r="K31" s="50" t="s">
         <v>77</v>
@@ -8013,24 +8060,24 @@
     <row r="32" spans="1:11">
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="66"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="67"/>
       <c r="J32" s="48"/>
       <c r="K32" s="48"/>
     </row>
     <row r="33" spans="1:11">
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="66"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="67"/>
       <c r="J33" s="48"/>
       <c r="K33" s="48"/>
     </row>
@@ -8042,12 +8089,12 @@
         <v>167</v>
       </c>
       <c r="C34" s="48"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="69"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="70"/>
       <c r="J34" s="48"/>
       <c r="K34" s="50" t="s">
         <v>75</v>
@@ -8226,6 +8273,11 @@
     <row r="81" spans="2:2">
       <c r="B81" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -8249,52 +8301,52 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -8306,8 +8358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CADF2F4-A124-44BC-8A72-4CE3F16F5D04}">
   <dimension ref="B2:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8319,311 +8371,311 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="106.5" customHeight="1">
-      <c r="B3" s="72" t="s">
-        <v>212</v>
-      </c>
-      <c r="C3" s="70" t="s">
+      <c r="B3" s="77" t="s">
         <v>213</v>
       </c>
+      <c r="C3" s="71" t="s">
+        <v>214</v>
+      </c>
       <c r="D3" s="28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="106.5">
-      <c r="B4" s="73"/>
-      <c r="C4" s="71"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="60.75">
-      <c r="B5" s="73"/>
-      <c r="C5" s="71"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="75">
-      <c r="B6" s="73"/>
-      <c r="C6" s="71"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="106.5">
-      <c r="B7" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C7" s="70" t="s">
+      <c r="B7" s="77" t="s">
         <v>219</v>
       </c>
+      <c r="C7" s="71" t="s">
+        <v>220</v>
+      </c>
       <c r="D7" s="28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="90">
-      <c r="B8" s="73"/>
-      <c r="C8" s="71"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="30" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="75">
-      <c r="B9" s="72" t="s">
-        <v>222</v>
-      </c>
-      <c r="C9" s="70" t="s">
+      <c r="B9" s="77" t="s">
         <v>223</v>
       </c>
+      <c r="C9" s="71" t="s">
+        <v>224</v>
+      </c>
       <c r="D9" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="60.75">
-      <c r="B10" s="75"/>
-      <c r="C10" s="74"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="31" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="76.5" customHeight="1">
-      <c r="B11" s="72" t="s">
-        <v>226</v>
-      </c>
-      <c r="C11" s="70" t="s">
+      <c r="B11" s="77" t="s">
         <v>227</v>
       </c>
+      <c r="C11" s="71" t="s">
+        <v>228</v>
+      </c>
       <c r="D11" s="28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="30.75">
-      <c r="B12" s="73"/>
-      <c r="C12" s="71"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="45.75">
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="77" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="30.75">
+      <c r="B14" s="78"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="C13" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="30.75">
-      <c r="B14" s="73"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="31" t="s">
-        <v>229</v>
-      </c>
     </row>
     <row r="15" spans="2:4" ht="45.75">
-      <c r="B15" s="73"/>
-      <c r="C15" s="71"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="60">
-      <c r="B16" s="73"/>
-      <c r="C16" s="71"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="30" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="45">
-      <c r="B17" s="72" t="s">
-        <v>235</v>
-      </c>
-      <c r="C17" s="70" t="s">
+      <c r="B17" s="77" t="s">
         <v>236</v>
       </c>
+      <c r="C17" s="71" t="s">
+        <v>237</v>
+      </c>
       <c r="D17" s="28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="45">
-      <c r="B18" s="73"/>
-      <c r="C18" s="71"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="60.75" customHeight="1">
-      <c r="B19" s="72" t="s">
-        <v>239</v>
-      </c>
-      <c r="C19" s="70" t="s">
+      <c r="B19" s="77" t="s">
         <v>240</v>
       </c>
+      <c r="C19" s="71" t="s">
+        <v>241</v>
+      </c>
       <c r="D19" s="28" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="30.75">
-      <c r="B20" s="73"/>
-      <c r="C20" s="71"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="72"/>
       <c r="D20" s="31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="45.75">
-      <c r="B21" s="72" t="s">
-        <v>242</v>
-      </c>
-      <c r="C21" s="70" t="s">
+      <c r="B21" s="77" t="s">
         <v>243</v>
       </c>
+      <c r="C21" s="71" t="s">
+        <v>244</v>
+      </c>
       <c r="D21" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="30.75">
-      <c r="B22" s="73"/>
-      <c r="C22" s="71"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="62.25" customHeight="1">
-      <c r="B23" s="72" t="s">
-        <v>245</v>
-      </c>
-      <c r="C23" s="70" t="s">
+      <c r="B23" s="77" t="s">
         <v>246</v>
       </c>
+      <c r="C23" s="71" t="s">
+        <v>247</v>
+      </c>
       <c r="D23" s="28" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="62.25" customHeight="1">
-      <c r="B24" s="73"/>
-      <c r="C24" s="71"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="30.75">
-      <c r="B25" s="75"/>
-      <c r="C25" s="74"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="45.75">
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="60.75">
+      <c r="B27" s="78"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="C26" s="70" t="s">
-        <v>250</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="60.75">
-      <c r="B27" s="73"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="30" t="s">
-        <v>248</v>
-      </c>
     </row>
     <row r="28" spans="2:4" ht="30.75">
-      <c r="B28" s="73"/>
-      <c r="C28" s="71"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="45.75">
-      <c r="B29" s="76" t="s">
-        <v>251</v>
-      </c>
-      <c r="C29" s="70" t="s">
-        <v>252</v>
+      <c r="B29" s="74" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" s="71" t="s">
+        <v>254</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="60.75">
-      <c r="B30" s="77"/>
-      <c r="C30" s="71"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="30.75">
-      <c r="B31" s="77"/>
-      <c r="C31" s="71"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="60.75">
-      <c r="B32" s="77"/>
-      <c r="C32" s="71"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="72"/>
       <c r="D32" s="30" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="76.5" customHeight="1">
-      <c r="B33" s="76" t="s">
-        <v>254</v>
-      </c>
-      <c r="C33" s="70" t="s">
-        <v>255</v>
+      <c r="B33" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="C33" s="71" t="s">
+        <v>258</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="30.75">
-      <c r="B34" s="77"/>
-      <c r="C34" s="71"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="30" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="30.75">
-      <c r="B35" s="77"/>
-      <c r="C35" s="71"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="72"/>
       <c r="D35" s="30" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="60.75">
-      <c r="B36" s="77"/>
-      <c r="C36" s="71"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="72"/>
       <c r="D36" s="30" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="137.25">
-      <c r="B37" s="77"/>
-      <c r="C37" s="71"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="72"/>
       <c r="D37" s="30" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="45.75">
-      <c r="B38" s="78"/>
-      <c r="C38" s="74"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="73"/>
       <c r="D38" s="31" t="s">
         <v>194</v>
       </c>
@@ -8633,14 +8685,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B26:B28"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C19:C20"/>
@@ -8657,6 +8701,14 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8664,10 +8716,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1914FF74-0E8B-4E92-8BDD-103E839E1854}">
-  <dimension ref="B3:J28"/>
+  <dimension ref="B3:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8683,55 +8735,55 @@
         <v>27</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J4" s="57" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="121.5">
       <c r="B5" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="91.5">
       <c r="B6" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D6" t="s">
         <v>72</v>
@@ -8740,68 +8792,68 @@
         <v>72</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="137.25">
       <c r="B7" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="76.5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="91.5">
       <c r="B8" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I8" t="s">
         <v>57</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="137.25">
       <c r="B9" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="I9" t="s">
         <v>58</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C10" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C11" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D11" t="s">
         <v>58</v>
@@ -8809,10 +8861,10 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C12" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D12" t="s">
         <v>58</v>
@@ -8820,21 +8872,21 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C13" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D13" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C14" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D14" t="s">
         <v>72</v>
@@ -8842,21 +8894,21 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C15" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D15" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="30.75">
       <c r="B16" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D16" t="s">
         <v>57</v>
@@ -8864,21 +8916,21 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C17" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D17" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C18" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D18" t="s">
         <v>57</v>
@@ -8886,10 +8938,10 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C19" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D19" t="s">
         <v>58</v>
@@ -8897,10 +8949,10 @@
     </row>
     <row r="20" spans="2:4" ht="45.75">
       <c r="B20" s="58" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>72</v>
@@ -8908,64 +8960,64 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C21" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D21" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C22" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C23" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D23" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="30.75">
       <c r="B24" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C25" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C26" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C27" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D27" t="s">
         <v>72</v>
@@ -8973,10 +9025,59 @@
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C28" t="s">
-        <v>320</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="45.75">
+      <c r="B29" s="60" t="s">
+        <v>324</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" t="s">
+        <v>327</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C31" t="s">
+        <v>329</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="45.75">
+      <c r="B32" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C33" t="s">
+        <v>333</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -8992,7 +9093,7 @@
   <dimension ref="B3:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9007,52 +9108,52 @@
         <v>27</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="91.5">
       <c r="B4" s="55" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D4" s="54"/>
     </row>
     <row r="5" spans="2:4" ht="91.5">
       <c r="B5" s="55" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="76.5">
       <c r="B6" s="55" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="76.5">
       <c r="B7" s="55" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="2:4">

--- a/ShipCardGameCalcs.xlsx
+++ b/ShipCardGameCalcs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E65C079-02EE-4F6D-9EE7-E529B63EEBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA957633-AD9D-4FA3-8387-AF6D618A2C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -910,7 +910,7 @@
     <t>Swarm</t>
   </si>
   <si>
-    <t>Create X pod ship/s with 100 hull and can engage to deal 100 damage to enemy ship, they can also be used to block a gun slot</t>
+    <t>Create X pod ship/s with 100 hull and can engage to deal 100 damage to enemy ship, they can also be used to block a gun slot. Ship upgrades cant be attached to pod ships</t>
   </si>
   <si>
     <t>One to keep the enemy under pressure invading their ships during the early game. They will call for help from their swarm and become brutal in the early game, however during the late game they fall off.</t>
@@ -1750,8 +1750,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1761,15 +1770,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7365,13 +7365,13 @@
     <row r="16" spans="2:19">
       <c r="P16">
         <f ca="1">RANDBETWEEN(0,123)</f>
-        <v>64</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="2:16">
       <c r="P17" s="46">
         <f ca="1">RANDBETWEEN(0,6)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -7831,8 +7831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93013FD4-B940-4A70-A7DA-BF82FD0F616E}">
   <dimension ref="A2:K82"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8294,7 +8294,7 @@
   <dimension ref="B2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8381,7 +8381,7 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="106.5" customHeight="1">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="73" t="s">
         <v>213</v>
       </c>
       <c r="C3" s="71" t="s">
@@ -8392,28 +8392,28 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="106.5">
-      <c r="B4" s="78"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="72"/>
       <c r="D4" s="29" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="60.75">
-      <c r="B5" s="78"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="72"/>
       <c r="D5" s="30" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="75">
-      <c r="B6" s="78"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="72"/>
       <c r="D6" s="30" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="106.5">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="73" t="s">
         <v>219</v>
       </c>
       <c r="C7" s="71" t="s">
@@ -8424,14 +8424,14 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="90">
-      <c r="B8" s="78"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="72"/>
       <c r="D8" s="30" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="75">
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="73" t="s">
         <v>223</v>
       </c>
       <c r="C9" s="71" t="s">
@@ -8442,14 +8442,14 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="60.75">
-      <c r="B10" s="79"/>
-      <c r="C10" s="73"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="31" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="76.5" customHeight="1">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="73" t="s">
         <v>227</v>
       </c>
       <c r="C11" s="71" t="s">
@@ -8460,14 +8460,14 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="30.75">
-      <c r="B12" s="78"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="72"/>
       <c r="D12" s="31" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="45.75">
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="73" t="s">
         <v>231</v>
       </c>
       <c r="C13" s="71" t="s">
@@ -8478,28 +8478,28 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="30.75">
-      <c r="B14" s="78"/>
+      <c r="B14" s="74"/>
       <c r="C14" s="72"/>
       <c r="D14" s="31" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="45.75">
-      <c r="B15" s="78"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="72"/>
       <c r="D15" s="30" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="60">
-      <c r="B16" s="78"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="72"/>
       <c r="D16" s="30" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="45">
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="73" t="s">
         <v>236</v>
       </c>
       <c r="C17" s="71" t="s">
@@ -8510,14 +8510,14 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="45">
-      <c r="B18" s="78"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="72"/>
       <c r="D18" s="30" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="60.75" customHeight="1">
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="73" t="s">
         <v>240</v>
       </c>
       <c r="C19" s="71" t="s">
@@ -8528,14 +8528,14 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="30.75">
-      <c r="B20" s="78"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="72"/>
       <c r="D20" s="31" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="45.75">
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="73" t="s">
         <v>243</v>
       </c>
       <c r="C21" s="71" t="s">
@@ -8546,14 +8546,14 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="30.75">
-      <c r="B22" s="78"/>
+      <c r="B22" s="74"/>
       <c r="C22" s="72"/>
       <c r="D22" s="31" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="62.25" customHeight="1">
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="73" t="s">
         <v>246</v>
       </c>
       <c r="C23" s="71" t="s">
@@ -8564,21 +8564,21 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="62.25" customHeight="1">
-      <c r="B24" s="78"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="72"/>
       <c r="D24" s="30" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="30.75">
-      <c r="B25" s="79"/>
-      <c r="C25" s="73"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="30" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="45.75">
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="73" t="s">
         <v>250</v>
       </c>
       <c r="C26" s="71" t="s">
@@ -8589,21 +8589,21 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="60.75">
-      <c r="B27" s="78"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="72"/>
       <c r="D27" s="30" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75">
-      <c r="B28" s="78"/>
+      <c r="B28" s="74"/>
       <c r="C28" s="72"/>
       <c r="D28" s="30" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="45.75">
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="77" t="s">
         <v>253</v>
       </c>
       <c r="C29" s="71" t="s">
@@ -8614,28 +8614,28 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="60.75">
-      <c r="B30" s="75"/>
+      <c r="B30" s="78"/>
       <c r="C30" s="72"/>
       <c r="D30" s="30" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="30.75">
-      <c r="B31" s="75"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="72"/>
       <c r="D31" s="30" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="60.75">
-      <c r="B32" s="75"/>
+      <c r="B32" s="78"/>
       <c r="C32" s="72"/>
       <c r="D32" s="30" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="76.5" customHeight="1">
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="77" t="s">
         <v>257</v>
       </c>
       <c r="C33" s="71" t="s">
@@ -8646,36 +8646,36 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="30.75">
-      <c r="B34" s="75"/>
+      <c r="B34" s="78"/>
       <c r="C34" s="72"/>
       <c r="D34" s="30" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="30.75">
-      <c r="B35" s="75"/>
+      <c r="B35" s="78"/>
       <c r="C35" s="72"/>
       <c r="D35" s="30" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="60.75">
-      <c r="B36" s="75"/>
+      <c r="B36" s="78"/>
       <c r="C36" s="72"/>
       <c r="D36" s="30" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="137.25">
-      <c r="B37" s="75"/>
+      <c r="B37" s="78"/>
       <c r="C37" s="72"/>
       <c r="D37" s="30" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="45.75">
-      <c r="B38" s="76"/>
-      <c r="C38" s="73"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="31" t="s">
         <v>194</v>
       </c>
@@ -8685,6 +8685,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C19:C20"/>
@@ -8701,14 +8709,6 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8718,8 +8718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1914FF74-0E8B-4E92-8BDD-103E839E1854}">
   <dimension ref="B3:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ShipCardGameCalcs.xlsx
+++ b/ShipCardGameCalcs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27421"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA957633-AD9D-4FA3-8387-AF6D618A2C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D157256E-4187-4860-BE7A-BCE16CEA1590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7365,13 +7365,13 @@
     <row r="16" spans="2:19">
       <c r="P16">
         <f ca="1">RANDBETWEEN(0,123)</f>
-        <v>114</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:16">
       <c r="P17" s="46">
         <f ca="1">RANDBETWEEN(0,6)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:16">
